--- a/auto/new_data/8_競品分析_fanuc.xlsx
+++ b/auto/new_data/8_競品分析_fanuc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C443"/>
+  <dimension ref="A1:C496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10+ Years Running Fanuc. New Job Has a Lot of HAAS. Good place to learn their basics? (Mills)</t>
+          <t>FANUC Guys do you use the FANUC manual guide conversational programming?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13j6y32/today_i_learned_fanuc_needs_to_know_your_mills/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12g8lc1/cnc_simulator/</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ez guide I for fanuc.</t>
+          <t>Today i learned Fanuc needs to know your Mills Radius in the tool-menu and it's not given in the program</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17bkyl8/10_years_running_fanuc_new_job_has_a_lot_of_haas/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/b7bcgc/fanuc_guys_do_you_use_the_fanuc_manual_guide/</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fanuc secret codes and lost manuals.</t>
+          <t>Fanuc. Fuhnook or Fannik ?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fxs87g/ez_guide_i_for_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/13j6y32/today_i_learned_fanuc_needs_to_know_your_mills/</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fanuc question</t>
+          <t>Ez guide I for fanuc.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/zsyoyp/fanuc_secret_codes_and_lost_manuals/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pmz4sr/fanuc_fuhnook_or_fannik/</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fanuc 3T Calling all Dinosaurs. Anyone have experience with this controller??</t>
+          <t>10+ Years Running Fanuc. New Job Has a Lot of HAAS. Good place to learn their basics? (Mills)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ffwzqg/fanuc_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fxs87g/ez_guide_i_for_fanuc/</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anyone have experience with using PCMIA memory cards on fanuc controls?</t>
+          <t>Fanuc question</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fzgifz/fanuc_3t_calling_all_dinosaurs_anyone_have/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17bkyl8/10_years_running_fanuc_new_job_has_a_lot_of_haas/</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>How to change program files text inside Fanuc?</t>
+          <t>Fanuc I series conversational programming</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dsxgim/anyone_have_experience_with_using_pcmia_memory/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ffwzqg/fanuc_question/</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fanuc Waveform Trace</t>
+          <t>Fanuc 3T Calling all Dinosaurs. Anyone have experience with this controller??</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1eaayle/how_to_change_program_files_text_inside_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1cy8b2q/fanuc_i_series_conversational_programming/</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anyone use tool life monitoring on regular or swiss lathes with Fanuc oi controls?</t>
+          <t>Fanuc programming help.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fuyfxr/fanuc_waveform_trace/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fzgifz/fanuc_3t_calling_all_dinosaurs_anyone_have/</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>how do i get the fanuc manual guide-i manual out of my machine?</t>
+          <t>How to change program files text inside Fanuc?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fqsuu9/anyone_use_tool_life_monitoring_on_regular_or/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/15rc8ph/fanuc_programming_help/</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fanuc fixed form</t>
+          <t>Dear FANUC enjoyers…</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18d6syc/how_do_i_get_the_fanuc_manual_guidei_manual_out/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1eaayle/how_to_change_program_files_text_inside_fanuc/</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fanuc. Fuhnook or Fannik ?</t>
+          <t>SMEC lathe with fanuc oi-TF control question</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fwqxxj/fanuc_fixed_form/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d855w7/dear_fanuc_enjoyers/</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dear FANUC enjoyers…</t>
+          <t>Fanuc changes machine position when powering off</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pmz4sr/fanuc_fuhnook_or_fannik/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1g5kawy/smec_lathe_with_fanuc_oitf_control_question/</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fanuc programming help.</t>
+          <t>Anyone use tool life monitoring on regular or swiss lathes with Fanuc oi controls?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d855w7/dear_fanuc_enjoyers/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14rhagl/fanuc_changes_machine_position_when_powering_off/</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>What the Fanuc (Sketch and the muse I used for reference)</t>
+          <t>Anyone have experience with using PCMIA memory cards on fanuc controls?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15rc8ph/fanuc_programming_help/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fqsuu9/anyone_use_tool_life_monitoring_on_regular_or/</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fanuc gets to same line in program then just stops… no errors</t>
+          <t>Fanuc fixed form</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fvxqed/what_the_fanuc_sketch_and_the_muse_i_used_for/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1dsxgim/anyone_have_experience_with_using_pcmia_memory/</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fanuc local pass through variables</t>
+          <t>Fanuc gets to same line in program then just stops… no errors</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x7bzle/fanuc_gets_to_same_line_in_program_then_just/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fwqxxj/fanuc_fixed_form/</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Siemens, Heidenhain or Fanuc I Plus control?</t>
+          <t>Fanuc Waveform Trace</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fr5h5j/fanuc_local_pass_through_variables/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/x7bzle/fanuc_gets_to_same_line_in_program_then_just/</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fanuc programming help to disable chuck sensor during part change</t>
+          <t>Need Help with macro variables (Fanuc O/ mf-d4)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17hwacp/siemens_heidenhain_or_fanuc_i_plus_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fuyfxr/fanuc_waveform_trace/</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Using GOTO in Fanuc</t>
+          <t>What the Fanuc (Sketch and the muse I used for reference)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fkkcyh/fanuc_programming_help_to_disable_chuck_sensor/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1eextkz/need_help_with_macro_variables_fanuc_o_mfd4/</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lost parameters on Fanuc 18-T</t>
+          <t>Eco mode on Fanuc?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/nhde37/using_goto_in_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fvxqed/what_the_fanuc_sketch_and_the_muse_i_used_for/</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fanuc program transfer</t>
+          <t>Fanuc local pass through variables</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ff7r60/lost_parameters_on_fanuc_18t/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xohlta/eco_mode_on_fanuc/</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fanuc Door Lock Parameter</t>
+          <t>Fanuc 31i model B help</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11xkl25/fanuc_program_transfer/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fr5h5j/fanuc_local_pass_through_variables/</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Anyone got any experience with Fanuc iseries Plus controllers?</t>
+          <t>Fanuc programming help to disable chuck sensor during part change</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d77lzs/fanuc_door_lock_parameter/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1dvcl0y/fanuc_31i_model_b_help/</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Anyone know how to change signal tree lamp settings Fanuc Oi-TD?</t>
+          <t>Trying to output variables to a text file, please help (FANUC)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1b8mg6k/anyone_got_any_experience_with_fanuc_iseries_plus/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fkkcyh/fanuc_programming_help_to_disable_chuck_sensor/</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Eco mode on Fanuc?</t>
+          <t>Lost parameters on Fanuc 18-T</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fffx8d/anyone_know_how_to_change_signal_tree_lamp/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1dn01kt/trying_to_output_variables_to_a_text_file_please/</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What is the most accurate way or quickest way of setting your G 54 aka X diameter and Z zero on CNC lathe (Fanuc ISO G code MCU.)</t>
+          <t>Fanuc program transfer</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xohlta/eco_mode_on_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ff7r60/lost_parameters_on_fanuc_18t/</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>New doosan fanuc mill problems.</t>
+          <t>Fanuc Door Lock Parameter</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1azdv2c/what_is_the_most_accurate_way_or_quickest_way_of/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11xkl25/fanuc_program_transfer/</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fanuc Error on Series 35i-Model B</t>
+          <t>Using GOTO in Fanuc</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1errl1i/new_doosan_fanuc_mill_problems/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d77lzs/fanuc_door_lock_parameter/</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Calculating minor diameter in thread cutting g 76 fanuc.</t>
+          <t>Anyone know how to change signal tree lamp settings Fanuc Oi-TD?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14g2ywk/fanuc_error_on_series_35imodel_b/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/nhde37/using_goto_in_fanuc/</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Trying to output variables to a text file, please help (FANUC)</t>
+          <t>What is the most accurate way or quickest way of setting your G 54 aka X diameter and Z zero on CNC lathe (Fanuc ISO G code MCU.)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d5tx3g/calculating_minor_diameter_in_thread_cutting_g_76/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fffx8d/anyone_know_how_to_change_signal_tree_lamp/</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fanuc to Tosnuc variable equivalents</t>
+          <t>Help with fanuc-I error</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dn01kt/trying_to_output_variables_to_a_text_file_please/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1azdv2c/what_is_the_most_accurate_way_or_quickest_way_of/</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FANUC Guys do you use the FANUC manual guide conversational programming?</t>
+          <t>Calculating minor diameter in thread cutting g 76 fanuc.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1f45nxb/fanuc_to_tosnuc_variable_equivalents/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/142trsb/help_with_fanuci_error/</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Learning resources on programming and setting off center holes pattern drilling, tapping and boring for fanuc cnc lathe</t>
+          <t>How to cold start a fanuc</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b7bcgc/fanuc_guys_do_you_use_the_fanuc_manual_guide/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d5tx3g/calculating_minor_diameter_in_thread_cutting_g_76/</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Help with fanuc-I error</t>
+          <t>New doosan fanuc mill problems.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1f1x4um/learning_resources_on_programming_and_setting_off/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/buybwj/how_to_cold_start_a_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fanuc 5-axis Programming?</t>
+          <t>Fanuc Error on Series 35i-Model B</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/142trsb/help_with_fanuci_error/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1errl1i/new_doosan_fanuc_mill_problems/</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Any way to add more memory to Fanuc 0i-MF control, its a hardinge bridgeport v1000</t>
+          <t>Fanuc to Tosnuc variable equivalents</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1amurnv/fanuc_5axis_programming/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14g2ywk/fanuc_error_on_series_35imodel_b/</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Recover pallet kitamura mycenter hx800g fanuc control</t>
+          <t>I've made a huge mistake - Fanuc 21-T</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/szkkav/any_way_to_add_more_memory_to_fanuc_0imf_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1f45nxb/fanuc_to_tosnuc_variable_equivalents/</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Need Help with macro variables (Fanuc O/ mf-d4)</t>
+          <t>Fanuc 5-axis Programming?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1f41n51/recover_pallet_kitamura_mycenter_hx800g_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pudavy/ive_made_a_huge_mistake_fanuc_21t/</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fanuc Macro B on MAZAK equipment?</t>
+          <t>Any way to add more memory to Fanuc 0i-MF control, its a hardinge bridgeport v1000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1eextkz/need_help_with_macro_variables_fanuc_o_mfd4/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1amurnv/fanuc_5axis_programming/</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Be dead honest...</t>
+          <t>Learning resources on programming and setting off center holes pattern drilling, tapping and boring for fanuc cnc lathe</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1e6dnaf/fanuc_macro_b_on_mazak_equipment/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/szkkav/any_way_to_add_more_memory_to_fanuc_0imf_control/</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DMG CMX1100V FANUC ISSUE</t>
+          <t>Advice on Increasing My Skill with Fanuc</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/153ai6u/be_dead_honest/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1f1x4um/learning_resources_on_programming_and_setting_off/</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Where to get Fanuc Robodrill slideway wipers?</t>
+          <t>Recover pallet kitamura mycenter hx800g fanuc control</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1csx2dh/dmg_cmx1100v_fanuc_issue/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ca8d90/advice_on_increasing_my_skill_with_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Struggling with Fanuc Drilling</t>
+          <t>Be dead honest...</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/143d221/where_to_get_fanuc_robodrill_slideway_wipers/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1f41n51/recover_pallet_kitamura_mycenter_hx800g_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>I've made a huge mistake - Fanuc 21-T</t>
+          <t>DMG CMX1100V FANUC ISSUE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/19drsyf/struggling_with_fanuc_drilling/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/153ai6u/be_dead_honest/</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fanuc 31i model B help</t>
+          <t>Fanuc Memory Card Drip Feed</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pudavy/ive_made_a_huge_mistake_fanuc_21t/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1csx2dh/dmg_cmx1100v_fanuc_issue/</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Is it possible to see history of changes made in control panel? (FANUC)</t>
+          <t>Fanuc Macro B on MAZAK equipment?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dvcl0y/fanuc_31i_model_b_help/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/yx9kn3/fanuc_memory_card_drip_feed/</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>That radius is not a typo. My old FANUC 0M told me to f off with p/s alarm 003 (too many digits)</t>
+          <t>Switching from heidenhain 530 to fanuc i4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/e9tf92/is_it_possible_to_see_history_of_changes_made_in/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1e6dnaf/fanuc_macro_b_on_mazak_equipment/</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>King Kong fanuc robot arm - imts 2018</t>
+          <t>Struggling with Fanuc Drilling</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/cylrft/that_radius_is_not_a_typo_my_old_fanuc_0m_told_me/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/oav13o/switching_from_heidenhain_530_to_fanuc_i4/</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tsugami BW209Z, Fanuc 31i-b; running/automatically distributing programs from flash drive?</t>
+          <t>Fanuc Help</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/9ftgj2/king_kong_fanuc_robot_arm_imts_2018/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/19drsyf/struggling_with_fanuc_drilling/</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>New Machine Day: Fanuc Wire. Never to be this clean again.</t>
+          <t>That radius is not a typo. My old FANUC 0M told me to f off with p/s alarm 003 (too many digits)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d8xsix/tsugami_bw209z_fanuc_31ib_runningautomatically/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11mvuep/fanuc_help/</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lathe is ignoring my profile z depth, how? (fanuc)</t>
+          <t>Tool angle in fanuc tool table, what angle to fill in?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/m723fh/new_machine_day_fanuc_wire_never_to_be_this_clean/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/cylrft/that_radius_is_not_a_typo_my_old_fanuc_0m_told_me/</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>H and T match on Fanuc controls?</t>
+          <t>Siemens, Heidenhain or Fanuc I Plus control?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17lbcn7/lathe_is_ignoring_my_profile_z_depth_how_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/18d5swd/tool_angle_in_fanuc_tool_table_what_angle_to_fill/</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fanuc I series conversational programming</t>
+          <t>FANUC 35i - Model B Error</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/oodm0z/h_and_t_match_on_fanuc_controls/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17hwacp/siemens_heidenhain_or_fanuc_i_plus_control/</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Need Help - Full rapid crash in Z during tool change - Fanuc Robodrill- Fanuc 16iM</t>
+          <t>lathe is ignoring my profile z depth, how? (fanuc)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cy8b2q/fanuc_i_series_conversational_programming/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14jlrxc/fanuc_35i_model_b_error/</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>OD Engraving Issue on New DN Solutions (Doosan) Puma 2600 Y II with Fanuc Control</t>
+          <t>FANUC Field Service Engineer Interview</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qnp62j/need_help_full_rapid_crash_in_z_during_tool/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17lbcn7/lathe_is_ignoring_my_profile_z_depth_how_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>How to Find Fanuc Control Version</t>
+          <t>Tsugami BW209Z, Fanuc 31i-b; running/automatically distributing programs from flash drive?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cszr8j/od_engraving_issue_on_new_dn_solutions_doosan/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/43bc67/fanuc_field_service_engineer_interview/</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Doosan Lathe Fanuc Panel Lagging</t>
+          <t>Is it possible to see history of changes made in control panel? (FANUC)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tbxrjj/how_to_find_fanuc_control_version/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d8xsix/tsugami_bw209z_fanuc_31ib_runningautomatically/</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Help with Nakamura running Fanuc 18i</t>
+          <t>OD Engraving Issue on New DN Solutions (Doosan) Puma 2600 Y II with Fanuc Control</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cm0hor/doosan_lathe_fanuc_panel_lagging/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/e9tf92/is_it_possible_to_see_history_of_changes_made_in/</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fanuc tool offset issues</t>
+          <t>Setting Tool offsets on Fanuc Lathe</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/153ycua/help_with_nakamura_running_fanuc_18i/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1cszr8j/od_engraving_issue_on_new_dn_solutions_doosan/</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Question for Fanuc people</t>
+          <t>Doosan Lathe Fanuc Panel Lagging</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1bb38pw/fanuc_tool_offset_issues/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/z3sb5e/setting_tool_offsets_on_fanuc_lathe/</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fanuc controls on this 90s car</t>
+          <t>Need Help - Full rapid crash in Z during tool change - Fanuc Robodrill- Fanuc 16iM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/41qx1e/question_for_fanuc_people/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1cm0hor/doosan_lathe_fanuc_panel_lagging/</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Brother speedio vs fanuc robodrill</t>
+          <t>Fanuc tool offset issues</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/108yff0/fanuc_controls_on_this_90s_car/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qnp62j/need_help_full_rapid_crash_in_z_during_tool/</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Paying tax, but I have some questions about code in FANUC controllers in comments</t>
+          <t>How to Find Fanuc Control Version</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r2wuza/brother_speedio_vs_fanuc_robodrill/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1bb38pw/fanuc_tool_offset_issues/</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Noob Help With Fanuc "009 Improper NC Address" Alarms</t>
+          <t>Fanuc controls on this 90s car</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/s26vm7/paying_tax_but_i_have_some_questions_about_code/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/tbxrjj/how_to_find_fanuc_control_version/</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Anyone know what the symbol at the end of the file means? Newer fanuc control</t>
+          <t>Fanuc manual guide-i lathe</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t5od23/noob_help_with_fanuc_009_improper_nc_address/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/108yff0/fanuc_controls_on_this_90s_car/</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Help! Cnc Anca/ Fanuc Robot</t>
+          <t>Paying tax, but I have some questions about code in FANUC controllers in comments</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17acgso/anyone_know_what_the_symbol_at_the_end_of_the/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1135yap/fanuc_manual_guidei_lathe/</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Help producing a big rad on a fanuc Doosan</t>
+          <t>H and T match on Fanuc controls?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/4dg7zj/help_cnc_anca_fanuc_robot/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/s26vm7/paying_tax_but_i_have_some_questions_about_code/</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>How To Find A Post Processor for Fanuc Lathe? (SOLIDCAM)</t>
+          <t>how do i get the fanuc manual guide-i manual out of my machine?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1bankrm/help_producing_a_big_rad_on_a_fanuc_doosan/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/oodm0z/h_and_t_match_on_fanuc_controls/</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fanuc Search in Auto Parameter</t>
+          <t>Fanuc 35i Error Code; Can’t get them to clear even after fixing issues with cables</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/owxp0o/how_to_find_a_post_processor_for_fanuc_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/18d6syc/how_do_i_get_the_fanuc_manual_guidei_manual_out/</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fanuc 6t controller</t>
+          <t>Anyone know what the symbol at the end of the file means? Newer fanuc control</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/19dtcgr/fanuc_search_in_auto_parameter/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xf3wh0/fanuc_35i_error_code_cant_get_them_to_clear_even/</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Help! Tried to program restart on a fanuc 31i model B and fucked the program up</t>
+          <t>King Kong fanuc robot arm - imts 2018</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/maqbjy/fanuc_6t_controller/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17acgso/anyone_know_what_the_symbol_at_the_end_of_the/</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Drip feeding on a 21-t fanuc controller</t>
+          <t>Fanuc Search in Auto Parameter</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ayibit/help_tried_to_program_restart_on_a_fanuc_31i/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/9ftgj2/king_kong_fanuc_robot_arm_imts_2018/</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fanuc changes machine position when powering off</t>
+          <t>Brother speedio vs fanuc robodrill</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/yd5fgd/drip_feeding_on_a_21t_fanuc_controller/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/19dtcgr/fanuc_search_in_auto_parameter/</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fanuc 35i Error Code; Can’t get them to clear even after fixing issues with cables</t>
+          <t>Help producing a big rad on a fanuc Doosan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14rhagl/fanuc_changes_machine_position_when_powering_off/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/r2wuza/brother_speedio_vs_fanuc_robodrill/</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tool angle in fanuc tool table, what angle to fill in?</t>
+          <t>Drip feeding on a 21-t fanuc controller</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xf3wh0/fanuc_35i_error_code_cant_get_them_to_clear_even/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1bankrm/help_producing_a_big_rad_on_a_fanuc_doosan/</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fanuc memory card error 99</t>
+          <t>Help! Tried to program restart on a fanuc 31i model B and fucked the program up</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18d5swd/tool_angle_in_fanuc_tool_table_what_angle_to_fill/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/yd5fgd/drip_feeding_on_a_21t_fanuc_controller/</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tool Breakage Detection Fanuc iSeries Plus</t>
+          <t>Noob Help With Fanuc "009 Improper NC Address" Alarms</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1635tzd/fanuc_memory_card_error_99/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ayibit/help_tried_to_program_restart_on_a_fanuc_31i/</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Drilling on alternate axis - Fanuc</t>
+          <t>Anyone got any experience with Fanuc iseries Plus controllers?</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1afk414/tool_breakage_detection_fanuc_iseries_plus/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/t5od23/noob_help_with_fanuc_009_improper_nc_address/</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fanuc Relative changing when setting G54</t>
+          <t>Question for Fanuc people</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/113s8j3/drilling_on_alternate_axis_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1b8mg6k/anyone_got_any_experience_with_fanuc_iseries_plus/</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fanuc Oi-MF Tool Release Help</t>
+          <t>Tool Breakage Detection Fanuc iSeries Plus</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1adzs15/fanuc_relative_changing_when_setting_g54/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/41qx1e/question_for_fanuc_people/</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fanuc ot guide-i inhibit turret index</t>
+          <t>FANUC Macro B: DPRNT[range]</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1819srj/fanuc_oimf_tool_release_help/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1afk414/tool_breakage_detection_fanuc_iseries_plus/</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FANUC ALARM 930</t>
+          <t>Fanuc Relative changing when setting G54</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18i7f31/fanuc_ot_guidei_inhibit_turret_index/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/t3g2be/fanuc_macro_b_dprntrange/</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Need help: this is a Samsung mcv-50 with a fanuc oi-md control. Machine won't recognize a tool command. I've changed APC parameters for the tool pot and it knows its at home. Is there anyway to manually rotate the magazine if it's not in the right location. Don't hesitate to suggest anything.</t>
+          <t>Help! Cnc Anca/ Fanuc Robot</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1533cw4/fanuc_alarm_930/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1adzs15/fanuc_relative_changing_when_setting_g54/</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MAG Fadal, GE Fanuc Series, 18i-Mb5. This model is in perfect working order. Who's worked with one? It's gonna be my introduction to CNC in a week or so. Thanks.</t>
+          <t>Fanuc ot guide-i inhibit turret index</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r84v9y/need_help_this_is_a_samsung_mcv50_with_a_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/4dg7zj/help_cnc_anca_fanuc_robot/</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lathe with a fanuc control. Can I thread mill using G92?</t>
+          <t>Help with Nakamura running Fanuc 18i</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12bdh81/mag_fadal_ge_fanuc_series_18imb5_this_model_is_in/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/18i7f31/fanuc_ot_guidei_inhibit_turret_index/</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Help with FANUC canned turning cycle please</t>
+          <t>Need help: this is a Samsung mcv-50 with a fanuc oi-md control. Machine won't recognize a tool command. I've changed APC parameters for the tool pot and it knows its at home. Is there anyway to manually rotate the magazine if it's not in the right location. Don't hesitate to suggest anything.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/179n5ph/lathe_with_a_fanuc_control_can_i_thread_mill/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/153ycua/help_with_nakamura_running_fanuc_18i/</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Proud father, looks like my 1 year olds wants to get a head start on the fanuc manual</t>
+          <t>How To Find A Post Processor for Fanuc Lathe? (SOLIDCAM)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14qbx2l/help_with_fanuc_canned_turning_cycle_please/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/r84v9y/need_help_this_is_a_samsung_mcv50_with_a_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fanuc 0-T Tool probe calibration</t>
+          <t>Lathe with a fanuc control. Can I thread mill using G92?</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ma5td6/proud_father_looks_like_my_1_year_olds_wants_to/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/owxp0o/how_to_find_a_post_processor_for_fanuc_lathe/</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>variable program help. so i am trying to pull in variable 6711 which is the part counter. when it hits 38 i need the operator to change the tool. i keep getting alarm 115 illegal variable. control is a fanuc 16i-mb</t>
+          <t>Drilling on alternate axis - Fanuc</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/v6cwx3/fanuc_0t_tool_probe_calibration/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/179n5ph/lathe_with_a_fanuc_control_can_i_thread_mill/</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Programmed manually and a bit of Fanuc easy guide.</t>
+          <t>Proud father, looks like my 1 year olds wants to get a head start on the fanuc manual</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11l5adj/variable_program_help_so_i_am_trying_to_pull_in/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/113s8j3/drilling_on_alternate_axis_fanuc/</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Can't use G83 or G84 during X/C polar interpolation on Fanuc 32i?</t>
+          <t>FANUC ALARM 930</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/nc9nsq/programmed_manually_and_a_bit_of_fanuc_easy_guide/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ma5td6/proud_father_looks_like_my_1_year_olds_wants_to/</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>We've just installed our first wire EDM machine (FANUC ROBOCUT α-C600iC). Which CAM would you experienced burners recommend for jobs that require tilting? Thank you in advance.</t>
+          <t>fanuc secret codes and lost manuals.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13yihgn/cant_use_g83_or_g84_during_xc_polar_interpolation/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1533cw4/fanuc_alarm_930/</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>so I am working on a doosan with fanuc, there are absolute and relative values which are different, I'm trying to set a tools length but I'm not sure which value should I pick, what is the "relative value" relative to? lol</t>
+          <t>We've just installed our first wire EDM machine (FANUC ROBOCUT α-C600iC). Which CAM would you experienced burners recommend for jobs that require tilting? Thank you in advance.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pf82t7/weve_just_installed_our_first_wire_edm_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/zsyoyp/fanuc_secret_codes_and_lost_manuals/</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Learning on a Robodrill?</t>
+          <t>variable program help. so i am trying to pull in variable 6711 which is the part counter. when it hits 38 i need the operator to change the tool. i keep getting alarm 115 illegal variable. control is a fanuc 16i-mb</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13bpq9y/so_i_am_working_on_a_doosan_with_fanuc_there_are/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pf82t7/weve_just_installed_our_first_wire_edm_machine/</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>What’s the best robot for machine tending? Looking at everything from UR Conor to Fanuc industrial robot. Thanks in advance!</t>
+          <t>FANUC Series 35i Model B: Machine had abnormal voltage error and now controls are down and drives won’t stay on. Any help please!!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/170zzzq/learning_on_a_robodrill/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11l5adj/variable_program_help_so_i_am_trying_to_pull_in/</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FANUC Series 35i Model B: Machine had abnormal voltage error and now controls are down and drives won’t stay on. Any help please!!</t>
+          <t>Can't use G83 or G84 during X/C polar interpolation on Fanuc 32i?</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/140qz0l/whats_the_best_robot_for_machine_tending_looking/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11dir4a/fanuc_series_35i_model_b_machine_had_abnormal/</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fanuc engraving</t>
+          <t>Fanuc non zero reference setting</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11dir4a/fanuc_series_35i_model_b_machine_had_abnormal/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/13yihgn/cant_use_g83_or_g84_during_xc_polar_interpolation/</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>QUESTION: Absolute readout on machine not adjusting for tool height offset. (Fanuc M series)</t>
+          <t>Fanuc Oi-MF Tool Release Help</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15arpvf/fanuc_engraving/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/zxe1jk/fanuc_non_zero_reference_setting/</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fanuc 10M DIY memory upgrade?</t>
+          <t>Where to get Fanuc Robodrill slideway wipers?</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/q42t2e/question_absolute_readout_on_machine_not/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1819srj/fanuc_oimf_tool_release_help/</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fanuc APC Setting screen</t>
+          <t>New Machine Day: Fanuc Wire. Never to be this clean again.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15u2a8k/fanuc_10m_diy_memory_upgrade/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/143d221/where_to_get_fanuc_robodrill_slideway_wipers/</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fanuc g &amp; m codes</t>
+          <t>Fanuc AI HPCC Question</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/w3nrw5/fanuc_apc_setting_screen/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/m723fh/new_machine_day_fanuc_wire_never_to_be_this_clean/</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Question for you guys who do cnc repair: what does a fanuc manual mean when it says "the optical cable connected to the CNC"? And is the wiring between a 18i and a 16i and the amps very different? Further info inside.</t>
+          <t>so I am working on a doosan with fanuc, there are absolute and relative values which are different, I'm trying to set a tools length but I'm not sure which value should I pick, what is the "relative value" relative to? lol</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17vja1x/fanuc_g_m_codes/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/sh8q26/fanuc_ai_hpcc_question/</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fanuc 10T DIY memory upgrade success</t>
+          <t>Help with FANUC canned turning cycle please</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pg26mv/question_for_you_guys_who_do_cnc_repair_what_does/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/13bpq9y/so_i_am_working_on_a_doosan_with_fanuc_there_are/</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Need help, clausing kondia mill. lost prog 9001 on fanuc O-M !</t>
+          <t>What’s the best robot for machine tending? Looking at everything from UR Conor to Fanuc industrial robot. Thanks in advance!</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16s2y5l/fanuc_10t_diy_memory_upgrade_success/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14qbx2l/help_with_fanuc_canned_turning_cycle_please/</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FANUC 35i - Model B Error</t>
+          <t>Fanuc Single Point Spline Cutitng Macro</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r6lvl6/need_help_clausing_kondia_mill_lost_prog_9001_on/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/140qz0l/whats_the_best_robot_for_machine_tending_looking/</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Air blow m code.</t>
+          <t>Fanuc engraving</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14jlrxc/fanuc_35i_model_b_error/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/c4qqfd/fanuc_single_point_spline_cutitng_macro/</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fanuc 18-M machine position reading metric</t>
+          <t>Are industrial robotic arms (e.g. Fanuc) usable for any serious milling work?</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/15arpvf/fanuc_engraving/</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Help! Reset a Fanuc OI-td? 9031 sspa: 31</t>
+          <t>Fanuc 10M DIY memory upgrade?</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15xecul/fanuc_18m_machine_position_reading_metric/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/apzh6f/are_industrial_robotic_arms_eg_fanuc_usable_for/</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Turret won’t index, FANUC oi-tc Hwacheon Cutex 16. Machine makes no sound or apparent effort to move turret, alarm shows after about 60 sec of machine doing nothing. All other functions seems fine. Shows “1080 Turret index time over alarm” any help or suggestions greatly appreciated!</t>
+          <t>Fanuc 0-T Tool probe calibration</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8j48y5/help_reset_a_fanuc_oitd_9031_sspa_31/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/15u2a8k/fanuc_10m_diy_memory_upgrade/</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FANUC Macro B: DPRNT[range]</t>
+          <t>Fanuc g &amp; m codes</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10kctfr/turret_wont_index_fanuc_oitc_hwacheon_cutex_16/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/v6cwx3/fanuc_0t_tool_probe_calibration/</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Having some issues with my Hwacheon Vesta 1300B 6K (Hwacheon FANUC i Series controller)</t>
+          <t>Learning on a Robodrill?</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t3g2be/fanuc_macro_b_dprntrange/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17vja1x/fanuc_g_m_codes/</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fanuc wizards... I need your help please.</t>
+          <t>Fanuc 10T DIY memory upgrade success</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1778rys/having_some_issues_with_my_hwacheon_vesta_1300b/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/170zzzq/learning_on_a_robodrill/</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Owning own business means working 7 days a week and it sucks.</t>
+          <t>QUESTION: Absolute readout on machine not adjusting for tool height offset. (Fanuc M series)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1kba6d/fanuc_wizards_i_need_your_help_please/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16s2y5l/fanuc_10t_diy_memory_upgrade_success/</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Work Shift vs Work Offset. Fanuc 21iT</t>
+          <t>Fanuc 18-M machine position reading metric</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16xix57/owning_own_business_means_working_7_days_a_week/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/q42t2e/question_absolute_readout_on_machine_not/</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>New Lathe with Fanuc 0i-F Plus (with iHMI)</t>
+          <t>Question for you guys who do cnc repair: what does a fanuc manual mean when it says "the optical cable connected to the CNC"? And is the wiring between a 18i and a 16i and the amps very different? Further info inside.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/n44l54/work_shift_vs_work_offset_fanuc_21it/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/15xecul/fanuc_18m_machine_position_reading_metric/</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Time remaining on Fanuc F31i-A?</t>
+          <t>Turret won’t index, FANUC oi-tc Hwacheon Cutex 16. Machine makes no sound or apparent effort to move turret, alarm shows after about 60 sec of machine doing nothing. All other functions seems fine. Shows “1080 Turret index time over alarm” any help or suggestions greatly appreciated!</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1184dtp/new_lathe_with_fanuc_0if_plus_with_ihmi/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pg26mv/question_for_you_guys_who_do_cnc_repair_what_does/</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Need some good help with an old Fanuc 10M</t>
+          <t>Fanuc wizards... I need your help please.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/7442q2/time_remaining_on_fanuc_f31ia/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10kctfr/turret_wont_index_fanuc_oitc_hwacheon_cutex_16/</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MDI tool changer not working - Fanuc 16iM - Robodrill</t>
+          <t>Our new grinder has a fanuc robot</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16opmvk/need_some_good_help_with_an_old_fanuc_10m/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1kba6d/fanuc_wizards_i_need_your_help_please/</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fanuc Help</t>
+          <t>MAG Fadal, GE Fanuc Series, 18i-Mb5. This model is in perfect working order. Who's worked with one? It's gonna be my introduction to CNC in a week or so. Thanks.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qavb2h/mdi_tool_changer_not_working_fanuc_16im_robodrill/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/8zd8o2/our_new_grinder_has_a_fanuc_robot/</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ok, how the FANUC do i get this damn Daewoo DMV 3016d to unlock the FANUC-ing door at the end of the program with an M30?</t>
+          <t>Having some issues with my Hwacheon Vesta 1300B 6K (Hwacheon FANUC i Series controller)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11mvuep/fanuc_help/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12bdh81/mag_fadal_ge_fanuc_series_18imb5_this_model_is_in/</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Our new grinder has a fanuc robot</t>
+          <t>Ok, how the FANUC do i get this damn Daewoo DMV 3016d to unlock the FANUC-ing door at the end of the program with an M30?</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/idxge2/ok_how_the_fanuc_do_i_get_this_damn_daewoo_dmv/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1778rys/having_some_issues_with_my_hwacheon_vesta_1300b/</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Are industrial robotic arms (e.g. Fanuc) usable for any serious milling work?</t>
+          <t>New Lathe with Fanuc 0i-F Plus (with iHMI)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8zd8o2/our_new_grinder_has_a_fanuc_robot/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/idxge2/ok_how_the_fanuc_do_i_get_this_damn_daewoo_dmv/</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>'98 FANUC Robocut Alpha OC U/V Axis Limit Adjustments</t>
+          <t>Time remaining on Fanuc F31i-A?</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/apzh6f/are_industrial_robotic_arms_eg_fanuc_usable_for/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1184dtp/new_lathe_with_fanuc_0if_plus_with_ihmi/</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>fanuc 16, if I goto edit/program dir/right soft key/DS-DIR it brings up a data server hd directory… any idea how I can see these programs or use/setup the DS server?! There is a ethertwist transceiver in the control cabinet too I think has to do with it- any ideas would be awesome!</t>
+          <t>Owning own business means working 7 days a week and it sucks.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16z0b7r/98_fanuc_robocut_alpha_oc_uv_axis_limit/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/7442q2/time_remaining_on_fanuc_f31ia/</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GE Fanuc Series 18-M query</t>
+          <t>Help! Reset a Fanuc OI-td? 9031 sspa: 31</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/oqbdyz/fanuc_16_if_i_goto_editprogram_dirright_soft/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16xix57/owning_own_business_means_working_7_days_a_week/</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fanuc 0T Error 197 Commanded C axis. Live tooling.</t>
+          <t>Need some good help with an old Fanuc 10M</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13qfvso/ge_fanuc_series_18m_query/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/8j48y5/help_reset_a_fanuc_oitd_9031_sspa_31/</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>As promised, first cuts with my new Sumitomo DMSW (08080RS06) It seems I'm more limited in spindle power than previously thought, being a 7.5/11 kw fanuc spindle motor from 15 years ago.</t>
+          <t>Work Shift vs Work Offset. Fanuc 21iT</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b9jjr3/fanuc_0t_error_197_commanded_c_axis_live_tooling/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16opmvk/need_some_good_help_with_an_old_fanuc_10m/</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Need help using a /2 (block skip 2) on Fanuc lathe</t>
+          <t>'98 FANUC Robocut Alpha OC U/V Axis Limit Adjustments</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xengji/as_promised_first_cuts_with_my_new_sumitomo_dmsw/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/n44l54/work_shift_vs_work_offset_fanuc_21it/</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Setting Tool offsets on Fanuc Lathe</t>
+          <t>Air blow m code.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/3avzqe/need_help_using_a_2_block_skip_2_on_fanuc_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16z0b7r/98_fanuc_robocut_alpha_oc_uv_axis_limit/</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Integrex i250H ST. Fanuc Robotic Feed rod LNC</t>
+          <t>Fanuc memory card error 99</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/z3sb5e/setting_tool_offsets_on_fanuc_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Fanuc Memory Card Drip Feed</t>
+          <t>Help sending programs to a Fanuc System 10TE</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/obzfoj/integrex_i250h_st_fanuc_robotic_feed_rod_lnc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1635tzd/fanuc_memory_card_error_99/</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fanuc Robodrill keep relay lookup</t>
+          <t>GE Fanuc Series 18-M query</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/yx9kn3/fanuc_memory_card_drip_feed/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qcy9hy/help_sending_programs_to_a_fanuc_system_10te/</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Why do you do this FANUC?</t>
+          <t>MDI tool changer not working - Fanuc 16iM - Robodrill</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ctxsl5/fanuc_robodrill_keep_relay_lookup/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/13qfvso/ge_fanuc_series_18m_query/</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fanuc 18-M 020 alarm, interpolating counterbore</t>
+          <t>As promised, first cuts with my new Sumitomo DMSW (08080RS06) It seems I'm more limited in spindle power than previously thought, being a 7.5/11 kw fanuc spindle motor from 15 years ago.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ym6536/why_do_you_do_this_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qavb2h/mdi_tool_changer_not_working_fanuc_16im_robodrill/</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Anyone using FTDI USB-RS232 adapter for drip feeding Fanuc 10M?</t>
+          <t>Fanuc Test Stand</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gwnwcu/fanuc_18m_020_alarm_interpolating_counterbore/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xengji/as_promised_first_cuts_with_my_new_sumitomo_dmsw/</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Set limits to Fanuc Robodrill alpha T21ie</t>
+          <t>Why do you do this FANUC?</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11gvn92/anyone_using_ftdi_usbrs232_adapter_for_drip/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/78rlb8/fanuc_test_stand/</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Fanuc Polar G16</t>
+          <t>Robot Education?</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/nj3661/set_limits_to_fanuc_robodrill_alpha_t21ie/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ym6536/why_do_you_do_this_fanuc/</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fanuc Series 21-m Keypad Arrows Question</t>
+          <t>Anyone using FTDI USB-RS232 adapter for drip feeding Fanuc 10M?</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14fjl9z/fanuc_polar_g16/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/174jum7/robot_education/</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Are My Programming Habits Annoying?</t>
+          <t>Fanuc 0T Error 197 Commanded C axis. Live tooling.</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8f2ehl/fanuc_series_21m_keypad_arrows_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11gvn92/anyone_using_ftdi_usbrs232_adapter_for_drip/</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Doosan Puma 300L Fanuc Controller Screen Gone Out</t>
+          <t>Fanuc Polar G16</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15gnncg/are_my_programming_habits_annoying/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/b9jjr3/fanuc_0t_error_197_commanded_c_axis_live_tooling/</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>EDMing Medical Grade Tantalum - '98 Fanuc Alpha OC</t>
+          <t>Need help using a /2 (block skip 2) on Fanuc lathe</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gs7ku7/doosan_puma_300l_fanuc_controller_screen_gone_out/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14fjl9z/fanuc_polar_g16/</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Help!! Looking to add 4th axis to Toyoda BM-1200 w/ Fanuc 18i-MB (need rotary and amplifier). I don't know enough about what is involved in order to purchase used. I cannot justify purchasing new (cost exceeds what we have in the complete machine).</t>
+          <t>Are My Programming Habits Annoying?</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/143l2v8/edming_medical_grade_tantalum_98_fanuc_alpha_oc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/3avzqe/need_help_using_a_2_block_skip_2_on_fanuc_lathe/</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Looking for fanuc robodrill wiring</t>
+          <t>Set limits to Fanuc Robodrill alpha T21ie</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/um3vck/help_looking_to_add_4th_axis_to_toyoda_bm1200_w/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/15gnncg/are_my_programming_habits_annoying/</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Amada-Fanuc-p 6M control for Amada Pega 344 Keeps giving 007 error on certain programs</t>
+          <t>Looking for fanuc robodrill wiring</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qcyjq1/looking_for_fanuc_robodrill_wiring/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/nj3661/set_limits_to_fanuc_robodrill_alpha_t21ie/</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Need help! G83 R.015 Z-2.5 Q.003 F2. Is there something I can add to this to get it to start say 1” down into guide hole, but still retract to .015? Mastercam has first peck and subsequent peck but it doesn’t work on fanuc 31i</t>
+          <t>Doosan fanuc - how to stop a program without m01 open doors and then resume machining.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/hskqek/amadafanucp_6m_control_for_amada_pega_344_keeps/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qcyjq1/looking_for_fanuc_robodrill_wiring/</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Fanuc series 15-M control issue</t>
+          <t>EDMing Medical Grade Tantalum - '98 Fanuc Alpha OC</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wqegsf/need_help_g83_r015_z25_q003_f2_is_there_something/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/jxank7/doosan_fanuc_how_to_stop_a_program_without_m01/</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Fanuc manual guide-i lathe</t>
+          <t>OCD ? 😂 fanuc it!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/5s9iaq/fanuc_series_15m_control_issue/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/143l2v8/edming_medical_grade_tantalum_98_fanuc_alpha_oc/</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TORNOS (fanuc 31i) TISIS IP address question.</t>
+          <t>Need help! G83 R.015 Z-2.5 Q.003 F2. Is there something I can add to this to get it to start say 1” down into guide hole, but still retract to .015? Mastercam has first peck and subsequent peck but it doesn’t work on fanuc 31i</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1135yap/fanuc_manual_guidei_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/t8pzaq/ocd_fanuc_it/</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>New to Fanuc control</t>
+          <t>Fanuc Series 21-m Keypad Arrows Question</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r6u77x/tornos_fanuc_31i_tisis_ip_address_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wqegsf/need_help_g83_r015_z25_q003_f2_is_there_something/</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Fanuc 18m reference/absolute zero</t>
+          <t>New to Fanuc control</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10rri6q/new_to_fanuc_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/8f2ehl/fanuc_series_21m_keypad_arrows_question/</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>What is a good way to teach a novice CNC? Specifically, I will be making parts on a MAG Fadal VMC 4020 FX, 2008 – 10,000 RPM, Fanuc 0i-MC. I'll be making DOD parts for tanks and assault vehicles.</t>
+          <t>Fanuc offset Change Confirmation</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kslf54/fanuc_18m_referenceabsolute_zero/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10rri6q/new_to_fanuc_control/</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Write protected</t>
+          <t>What is a good way to teach a novice CNC? Specifically, I will be making parts on a MAG Fadal VMC 4020 FX, 2008 – 10,000 RPM, Fanuc 0i-MC. I'll be making DOD parts for tanks and assault vehicles.</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11kz42k/what_is_a_good_way_to_teach_a_novice_cnc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10523jx/fanuc_offset_change_confirmation/</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fanuc error</t>
+          <t>Fanuc 6M - Clearing Programs</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dyfeca/write_protected/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11kz42k/what_is_a_good_way_to_teach_a_novice_cnc/</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Please help! Fanuc 0i-MD controller on Tsugami VA1-II mill will not reset or clear alarm.</t>
+          <t>Fanuc error</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/123lvfq/fanuc_error/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/3gutpy/fanuc_6m_clearing_programs/</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>GE Fanuc</t>
+          <t>Fanuc 16iM - G198 does nothing</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/hc6yfw/please_help_fanuc_0imd_controller_on_tsugami/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/123lvfq/fanuc_error/</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>What's wrong with this code? "PS0009 Illegal NC-address" on a Citizen A320, fanuc control.</t>
+          <t>GE Fanuc</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/uyevxn/ge_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qxyepw/fanuc_16im_g198_does_nothing/</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fanuc offset Change Confirmation</t>
+          <t>Fanuc 18m reference/absolute zero</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/atnmlt/whats_wrong_with_this_code_ps0009_illegal/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/uyevxn/ge_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>“Coolant On” M-Code</t>
+          <t>Fanuc C-Axis Jig grinding</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10523jx/fanuc_offset_change_confirmation/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/kslf54/fanuc_18m_referenceabsolute_zero/</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>You said you like setups…</t>
+          <t>Wrestling with a Macro program for FANUC</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10g95oo/coolant_on_mcode/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11ol1jw/fanuc_caxis_jig_grinding/</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>How to cold start a fanuc</t>
+          <t>You said you like setups…</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1czlvxb/you_said_you_like_setups/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/asu45k/wrestling_with_a_macro_program_for_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fanuc C-Axis Jig grinding</t>
+          <t>Amada-Fanuc-p 6M control for Amada Pega 344 Keeps giving 007 error on certain programs</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/buybwj/how_to_cold_start_a_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1czlvxb/you_said_you_like_setups/</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>anyone have a good guide on how to connect a laptop to a fanuac controller?</t>
+          <t>New colleague today. He claims to have lots of experience with fanuc operating systems. I tend to doubt it.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11ol1jw/fanuc_caxis_jig_grinding/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/hskqek/amadafanucp_6m_control_for_amada_pega_344_keeps/</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Fanuc non zero reference setting</t>
+          <t>fanuc 6t controller</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tg6xgg/anyone_have_a_good_guide_on_how_to_connect_a/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/h7sk4h/new_colleague_today_he_claims_to_have_lots_of/</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>I need help with 3204 parameter in Fanuc TXP-100e</t>
+          <t>Starting to mess around and try using logic and macros on a Fanuc controller. What are some good resources to read/watch that'll help out?</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/zxe1jk/fanuc_non_zero_reference_setting/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/maqbjy/fanuc_6t_controller/</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>New colleague today. He claims to have lots of experience with fanuc operating systems. I tend to doubt it.</t>
+          <t>“Coolant On” M-Code</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/m0e3vh/i_need_help_with_3204_parameter_in_fanuc_txp100e/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/x2n05p/starting_to_mess_around_and_try_using_logic_and/</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Who else has had to pick up existing threads on a CNC?</t>
+          <t>Fanuc series 18-T: Error 506</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/h7sk4h/new_colleague_today_he_claims_to_have_lots_of/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10g95oo/coolant_on_mcode/</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Starting to mess around and try using logic and macros on a Fanuc controller. What are some good resources to read/watch that'll help out?</t>
+          <t>Bought new Compact Flash /SD Adapters for Fanuc Wire Machines and machines are throwing errors and can't see programs?</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qbpjga/who_else_has_had_to_pick_up_existing_threads_on_a/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10jn9im/fanuc_series_18t_error_506/</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Anyone familiar with Fanuc spindle parameters?</t>
+          <t>Hanging out at Fanuc this week</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x2n05p/starting_to_mess_around_and_try_using_logic_and/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/x98ab6/bought_new_compact_flash_sd_adapters_for_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Fanuc series 18-T: Error 506</t>
+          <t>#3006 on FANUC EDM 31I-W Model B</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kfojix/anyone_familiar_with_fanuc_spindle_parameters/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/n4ui7b/hanging_out_at_fanuc_this_week/</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cylindrical Interpolation G107 Fanuc 0T</t>
+          <t>How to reset ext origin fanuc</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10jn9im/fanuc_series_18t_error_506/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/bk9gat/3006_on_fanuc_edm_31iw_model_b/</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Fanuc 16iM - G198 does nothing</t>
+          <t>I need help with 3204 parameter in Fanuc TXP-100e</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/a0lz4w/cylindrical_interpolation_g107_fanuc_0t/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10ho0h5/how_to_reset_ext_origin_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Does anyone know the procedure to set the home position after the batteries have died? I have found a few places that say you change parameter 0022 and restart the machine but I'd like a second opinion before I play in the parameters</t>
+          <t>Need help with understanding fanuc G131</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qxyepw/fanuc_16im_g198_does_nothing/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/m0e3vh/i_need_help_with_3204_parameter_in_fanuc_txp100e/</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Hanging out at Fanuc this week</t>
+          <t>Hand programing a Fanuc I series lathe-using a facemill to square off a part</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/paqgvs/does_anyone_know_the_procedure_to_set_the_home/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10eo23m/need_help_with_understanding_fanuc_g131/</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FANUCPRG.BIN ?</t>
+          <t>Fanuc our-model F tapping trouble</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/n4ui7b/hanging_out_at_fanuc_this_week/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ixl5k6/hand_programing_a_fanuc_i_series_latheusing_a/</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>How to reset ext origin fanuc</t>
+          <t>Please help! Fanuc 0i-MD controller on Tsugami VA1-II mill will not reset or clear alarm.</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cy475f/fanucprgbin/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/gauk9y/fanuc_ourmodel_f_tapping_trouble/</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>G04 P2 is 2 seconds on my machine.</t>
+          <t>FANUC question!</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10ho0h5/how_to_reset_ext_origin_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/hc6yfw/please_help_fanuc_0imd_controller_on_tsugami/</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Need help with understanding fanuc G131</t>
+          <t>anyone have a good guide on how to connect a laptop to a fanuac controller?</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12cc9t3/g04_p2_is_2_seconds_on_my_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/x73aqr/fanuc_question/</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Wire EDM Cutting Conditions</t>
+          <t>fanuc controller training aids?? anything besides just videos.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10eo23m/need_help_with_understanding_fanuc_g131/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/tg6xgg/anyone_have_a_good_guide_on_how_to_connect_a/</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Fanuc our-model F tapping trouble</t>
+          <t>Why does my peck value (Q) of .050" post as Q500 and not Q.05.</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11wqelw/wire_edm_cutting_conditions/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/v23rf9/fanuc_controller_training_aids_anything_besides/</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>What is the “T” for on this old CNC panel?</t>
+          <t>Anyone familiar with Fanuc spindle parameters?</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gauk9y/fanuc_ourmodel_f_tapping_trouble/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/198701h/why_does_my_peck_value_q_of_050_post_as_q500_and/</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FANUC question!</t>
+          <t>Who else has had to pick up existing threads on a CNC?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/nreljz/what_is_the_t_for_on_this_old_cnc_panel/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/kfojix/anyone_familiar_with_fanuc_spindle_parameters/</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>G49 acts as a rapid movement?!</t>
+          <t>Well FANUC Me I Guess...</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x73aqr/fanuc_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qbpjga/who_else_has_had_to_pick_up_existing_threads_on_a/</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>fanuc controller training aids?? anything besides just videos.</t>
+          <t>Sending programs to machines</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/udbwr8/g49_acts_as_a_rapid_movement/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/uidjsz/well_fanuc_me_i_guess/</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Fan-ic or Fa-nook</t>
+          <t>Lucas 40T with fanuc oi-MF</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/v23rf9/fanuc_controller_training_aids_anything_besides/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12qojun/sending_programs_to_machines/</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Well FANUC Me I Guess...</t>
+          <t>FANUCPRG.BIN ?</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1095j3n/fanic_or_fanook/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/w8wcym/lucas_40t_with_fanuc_oimf/</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Fanuc overtravel</t>
+          <t>Fanuc parameter # for feedrate</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/uidjsz/well_fanuc_me_i_guess/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1cy475f/fanucprgbin/</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Lucas 40T with fanuc oi-MF</t>
+          <t>Wire EDM Cutting Conditions</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/djg00c/fanuc_overtravel/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xciz81/fanuc_parameter_for_feedrate/</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Need help with Robodrill alarm</t>
+          <t>Help!! Looking to add 4th axis to Toyoda BM-1200 w/ Fanuc 18i-MB (need rotary and amplifier). I don't know enough about what is involved in order to purchase used. I cannot justify purchasing new (cost exceeds what we have in the complete machine).</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/w8wcym/lucas_40t_with_fanuc_oimf/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11wqelw/wire_edm_cutting_conditions/</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Fanuc parameter # for feedrate</t>
+          <t>G49 acts as a rapid movement?!</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/dgf1rj/need_help_with_robodrill_alarm/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/um3vck/help_looking_to_add_4th_axis_to_toyoda_bm1200_w/</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Fanuc 31i-model A sub programs?</t>
+          <t>Need help with tap breakage</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xciz81/fanuc_parameter_for_feedrate/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/udbwr8/g49_acts_as_a_rapid_movement/</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Need help with tap breakage</t>
+          <t>Doosan fanuc, thread G92 cycle wont start.</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/6wogms/fanuc_31imodel_a_sub_programs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1diofcd/need_help_with_tap_breakage/</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CNC Lathe Post Processor</t>
+          <t>Questions about Fanuc AICC Modes</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1diofcd/need_help_with_tap_breakage/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/n15qew/doosan_fanuc_thread_g92_cycle_wont_start/</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Bought new Compact Flash /SD Adapters for Fanuc Wire Machines and machines are throwing errors and can't see programs?</t>
+          <t>Fanuc overtravel</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1bfnmix/cnc_lathe_post_processor/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/x4k02l/questions_about_fanuc_aicc_modes/</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Doosan fanuc, thread G92 cycle wont start.</t>
+          <t>Fanuc background timer script</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x98ab6/bought_new_compact_flash_sd_adapters_for_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/djg00c/fanuc_overtravel/</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Fanuc background timer script</t>
+          <t>Can't change tool</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/n15qew/doosan_fanuc_thread_g92_cycle_wont_start/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xzk6vu/fanuc_background_timer_script/</t>
         </is>
       </c>
     </row>
@@ -3790,879 +3790,879 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Recommendations for CNC VMC</t>
+          <t>Need help, clausing kondia mill. lost prog 9001 on fanuc O-M !</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xzk6vu/fanuc_background_timer_script/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/181799j/cant_change_tool/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>So I could buy a Fanuc robot on Vention for $60k, or an Annin robot for $2k</t>
+          <t>Spindle Speed Issue in Handle &amp; Jog Mode</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/k0wbws/hello_people_can_anyone_help_me_identify_which/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/r6lvl6/need_help_clausing_kondia_mill_lost_prog_9001_on/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Has anyone moved from UR collaborative robots to Fanuc collaborative robots and regretted it?</t>
+          <t>fanuc 16, if I goto edit/program dir/right soft key/DS-DIR it brings up a data server hd directory… any idea how I can see these programs or use/setup the DS server?! There is a ethertwist transceiver in the control cabinet too I think has to do with it- any ideas would be awesome!</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1bzu4j8/so_i_could_buy_a_fanuc_robot_on_vention_for_60k/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xbdoz5/spindle_speed_issue_in_handle_jog_mode/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Very Large Fanuc Robot M-2000 Lifting Chevy Corvette @ IMTS2024, Int'l M...</t>
+          <t>ETHERNET CONNECTION BETWEEN PC AND FANUC</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hei0rx/has_anyone_moved_from_ur_collaborative_robots_to/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/oqbdyz/fanuc_16_if_i_goto_editprogram_dirright_soft/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Fanuc Robot Arm with 3D Vision</t>
+          <t>As rigid as haas can be</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fnzj4v/very_large_fanuc_robot_m2000_lifting_chevy/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/s8yvdg/ethernet_connection_between_pc_and_fanuc/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>I wanted to retrofit some fanuc paint robots with stmbls, when I failed I FORCED them to work with steppers.</t>
+          <t>Recommendations for CNC VMC</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15uzkj7/fanuc_robot_arm_with_3d_vision/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/kiw8tj/as_rigid_as_haas_can_be/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Buying a used Fanuc robot, what should I look out for?</t>
+          <t>Help with ncguide fanuc</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vjsusl/i_wanted_to_retrofit_some_fanuc_paint_robots_with/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1bjsqwp/recommendations_for_cnc_vmc/</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Servo motor selection guide for Fanuc</t>
+          <t>Looking for help finding a Machine Book for a Wasino LJ-63M (1986) with Fanuc 10T controller.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hdjczb/buying_a_used_fanuc_robot_what_should_i_look_out/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/sbisg1/help_with_ncguide_fanuc/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Can any Fanuc robot used to do welding?</t>
+          <t>Who else running a 40 year old CNC lathe</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1e97v6w/servo_motor_selection_guide_for_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/3wes9c/looking_for_help_finding_a_machine_book_for_a/</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Color Sensor for Fanuc CRX</t>
+          <t>Fanuc 31i-model A sub programs?</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/13usnah/can_any_fanuc_robot_used_to_do_welding/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ovcrbl/who_else_running_a_40_year_old_cnc_lathe/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Fanuc robot not leaving dcs.</t>
+          <t>Fanuc File storage upgrade?</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cs0wn3/color_sensor_for_fanuc_crx/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/6wogms/fanuc_31imodel_a_sub_programs/</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Watch this FANUC multi-axis and machine vision system robotics doing demo cycles at the Automate 2024</t>
+          <t>New machine</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17wjt67/fanuc_robot_not_leaving_dcs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/jp9bw9/fanuc_file_storage_upgrade/</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>How do you say FANUC?</t>
+          <t>Fanuc APC Setting screen</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cpe48f/watch_this_fanuc_multiaxis_and_machine_vision/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ddb6fc/new_machine/</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Robodk with FANUC robot for 3D printing</t>
+          <t>Tilted working plane help</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/123634v/how_do_you_say_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/w3nrw5/fanuc_apc_setting_screen/</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Repairing a Fanuc LR Mate 200iB robotic arm. So far I have 1 burned motor, 3 broken cross roller bearing and a lot of solid grease.</t>
+          <t>Hey guys! My machine showing "GRAPHIC IS READY" this message only after I turning on the machine I don't know what happened and don't know what to do please HELP!! Machine details: HWACHEON TTC8 twin spindle, Fanuc 18i "Any solutions please"</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1818f6r/robodk_with_fanuc_robot_for_3d_printing/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ddqppj/tilted_working_plane_help/</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>How Much is the PAYLOAD of this FANUC Robot? Watch till the end to get the number...</t>
+          <t>Fanuc Amp Error</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/pzdh9o/repairing_a_fanuc_lr_mate_200ib_robotic_arm_so/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ru4z1h/hey_guys_my_machine_showing_graphic_is_ready_this/</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Learning fanuc robotics?</t>
+          <t>Is anyone familiar with the FANUC 00-P controller? It’s for a Whitney 40 ton cnc punch/ plasma cutter my boss bought two years ago and hasn’t gotten it to run. If you have a controller manual that’d be a plus.</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/185j0i2/how_much_is_the_payload_of_this_fanuc_robot_watch/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/kkm08k/fanuc_amp_error/</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Fanuc robot not leaving dcs.</t>
+          <t>What's wrong with this code? "PS0009 Illegal NC-address" on a Citizen A320, fanuc control.</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/90igrp/learning_fanuc_robotics/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/g2w8q2/is_anyone_familiar_with_the_fanuc_00p_controller/</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Accidentally cleared PR on Fanuc robot. Any way to get it back?</t>
+          <t>Integrex i250H ST. Fanuc Robotic Feed rod LNC</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17wjt7q/fanuc_robot_not_leaving_dcs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/atnmlt/whats_wrong_with_this_code_ps0009_illegal/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Moving to UR from Fanuc CRX</t>
+          <t>Help!!! 110 data overflow alarm</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/92crqy/accidentally_cleared_pr_on_fanuc_robot_any_way_to/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/obzfoj/integrex_i250h_st_fanuc_robotic_feed_rod_lnc/</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Fanuc 3D calibration</t>
+          <t>Found a correction in the Fanuc mill manual. I don't think it needed correction.</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/14o566j/moving_to_ur_from_fanuc_crx/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/bmrvmb/help_110_data_overflow_alarm/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Fanuc Variables</t>
+          <t>Lathe won’t gear change.</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/aepueg/fanuc_3d_calibration/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/s3cztj/found_a_correction_in_the_fanuc_mill_manual_i/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Fanuc or Motoman Robotics</t>
+          <t>Is there a way to search my memory with names. I have Fanuc Oi MD.</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/131qmlw/fanuc_variables/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1advmah/lathe_wont_gear_change/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cobot: Lincoln Cooper Cart with Fanuc arm vs Vectis Miller cart with Universal Robotics arm?</t>
+          <t>Beginner reading for a future machinist</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/6vu4sb/fanuc_or_motoman_robotics/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/rx5o31/is_there_a_way_to_search_my_memory_with_names_i/</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>[Q] Issues With Fanuc R30iA Teach Pendant</t>
+          <t>Fanuc 6M program call</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/zb69kk/cobot_lincoln_cooper_cart_with_fanuc_arm_vs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1c8lt8h/beginner_reading_for_a_future_machinist/</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Welds from the fanuc robots are getting offset</t>
+          <t>block skip system variable on funuc controller?</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/esxjsg/q_issues_with_fanuc_r30ia_teach_pendant/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/t6p5zl/fanuc_6m_program_call/</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Fanuc Fault Emergency!</t>
+          <t>Anyone got a Fanuc Robodrill? I'm trying to set up the coolant manager function</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/rhcsn2/welds_from_the_fanuc_robots_are_getting_offset/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/5vrkv7/block_skip_system_variable_on_funuc_controller/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Managing weird axis coupling on Fanuc R-1000iA/120F-7B Seven-Axis Robot</t>
+          <t>Doosan Puma 300L Fanuc Controller Screen Gone Out</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/32uj9m/fanuc_fault_emergency/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/oe8vrh/anyone_got_a_fanuc_robodrill_im_trying_to_set_up/</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>[Q] Is anyone here familiar with the fanuc scara robot? I’m using it without the teaching pendant. I’m using the irprogrammer on a pc.</t>
+          <t>I've always wondered this: Does anyone have any ideas why Mitsubishi CNC's typically have Fanuc controls instead of, I don't know, Mitsubishi ones?</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vwl8o5/managing_weird_axis_coupling_on_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/gs7ku7/doosan_puma_300l_fanuc_controller_screen_gone_out/</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FANUC/ Universal Robots: Their new cobots are no longer about the skills shortage</t>
+          <t>CNC Lathe Post Processor</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/d7fxvo/q_is_anyone_here_familiar_with_the_fanuc_scara/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/q2ofwk/ive_always_wondered_this_does_anyone_have_any/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Question for anyone with experience with FANUC robots. How exactly do I get Karel programs into the system, if the teach pendant only does the basic TPP programming?</t>
+          <t>Looking for best way to create this feature on a mill</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vncyw7/fanuc_universal_robots_their_new_cobots_are_no/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1bfnmix/cnc_lathe_post_processor/</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>How difficult is it to switching robots (ie. Universal to Robotics to Fanuc etc.)</t>
+          <t>Those of you with Cobot experience, what are some things that reps don't really tell you about them?</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5bbjhg/question_for_anyone_with_experience_with_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1g6mx3t/looking_for_best_way_to_create_this_feature_on_a/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Finally got all 6 joints running with kinematics</t>
+          <t>TORNOS (fanuc 31i) TISIS IP address question.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/p3tzpz/how_difficult_is_it_to_switching_robots_ie/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xmyrpv/those_of_you_with_cobot_experience_what_are_some/</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Fanuc KAREL programmer sought</t>
+          <t>Anyone ever run a Makino KE-55? Pro Jn control. Newest addition I picked up at an auction last week. Pretty excited about this guy.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/spjlk5/finally_got_all_6_joints_running_with_kinematics/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/r6u77x/tornos_fanuc_31i_tisis_ip_address_question/</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>[Question] What is the most commonly used brand of Industrial Robots in the United States?</t>
+          <t>"Tuning" a Fanuc VMC</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/tgokja/fanuc_karel_programmer_sought/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/p46h4x/anyone_ever_run_a_makino_ke55_pro_jn_control/</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>3rd party vision system, that works with Fanuc and Yaskawa</t>
+          <t>First machine</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/55szcq/question_what_is_the_most_commonly_used_brand_of/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/tajfre/tuning_a_fanuc_vmc/</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FANUC RoboGuide/HandlingPRO keyboard hotkeys/shortcuts</t>
+          <t>Help Learning Lathe Controller: Haas vs Fanuc</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sdfucl/3rd_party_vision_system_that_works_with_fanuc_and/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1cvxwn9/first_machine/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>My babies.</t>
+          <t>How to Allign "C axis" for livetool on bothe side of part on CNC Lathe?</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/93xpaj/fanuc_roboguidehandlingpro_keyboard/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/p241c2/help_learning_lathe_controller_haas_vs_fanuc/</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FANUC API or documentation</t>
+          <t>anyone run an old CNC lathe? fanuc 5T?</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/uam0cs/my_babies/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/t3q3ig/how_to_allign_c_axis_for_livetool_on_bothe_side/</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Question: What are the best tools for setting a robot's operational plane, or in the case of a FANUC robot, it's user frame and tool frame?</t>
+          <t>How to get my lathe to use G54 C work offset instead of G50 C in code?</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/28b60c/fanuc_api_or_documentation/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/tzh766/anyone_run_an_old_cnc_lathe_fanuc_5t/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Chinese industrial robots - are they any good?</t>
+          <t>How do you view the machine logic on a Fanuc OM controller.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/bjwf5f/question_what_are_the_best_tools_for_setting_a/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/19a4p1n/how_to_get_my_lathe_to_use_g54_c_work_offset/</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Fanuc teach pendent</t>
+          <t>Doosan Puma 400 Programming Guide?</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cbo0yy/chinese_industrial_robots_are_they_any_good/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/o9pzqy/how_do_you_view_the_machine_logic_on_a_fanuc_om/</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Question for someone familiar with Motoman robots</t>
+          <t>Fanuc maintenance management</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jj0pkf/fanuc_teach_pendent/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/8ftiwk/doosan_puma_400_programming_guide/</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Interfacing Fanuc robots with Fanuc CNC controls. How hard is this? What controls do I need?</t>
+          <t>old school</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1afmfp6/question_for_someone_familiar_with_motoman_robots/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/rias3b/fanuc_maintenance_management/</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Maybe an obvious question! How do robots not 'droop'?</t>
+          <t>What do you think of the Spindle outer diameter 150mm, is it weak on a 4 axis vmc 1270? People comment it is small for a big mill. I have fanuc controls and servo motors, 6 linear guides on z. Please tell me if this is not good enough</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8ve6ec/interfacing_fanuc_robots_with_fanuc_cnc_controls/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ytqk29/old_school/</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>[MISC] Automated Gantry System with FANUC LR Mate 200iD Robot – FLT’s New LGR-3 Demo Gantry Cell</t>
+          <t>Wire EDM Machining Questions</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3vfvht/maybe_an_obvious_question_how_do_robots_not_droop/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/mzudt4/what_do_you_think_of_the_spindle_outer_diameter/</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>I need an approximate price of an industrial robot for a project, but I'm not affiliated with any company.</t>
+          <t>Fanuc 10m from 1987 manual</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/c0mc8p/misc_automated_gantry_system_with_fanuc_lr_mate/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d9yd5w/wire_edm_machining_questions/</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>M-2000iA/2300: the world’s strongest robot is FANUC yellow</t>
+          <t>Persistent 2047 alarm</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8hvya9/i_need_an_approximate_price_of_an_industrial/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/s7f1js/fanuc_10m_from_1987_manual/</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Fanuc LR Mate 200iB</t>
+          <t>Help with older Fanuc controller/work coordinates</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4qzcwp/m2000ia2300_the_worlds_strongest_robot_is_fanuc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/zz5ukf/persistent_2047_alarm/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>What robotic arm is Cafe X using?</t>
+          <t>Fanuc Robodrill keep relay lookup</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/820u7t/fanuc_lr_mate_200ib/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/f9hwtz/help_with_older_fanuc_controllerwork_coordinates/</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Dual Arm, Dual pendant, 2 aux axis.. Fanuc + Lincoln MIG welding setup.. enjoy!</t>
+          <t>General question for fanuc controls. can you turn off tool change(m06)?</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jkk5xk/what_robotic_arm_is_cafe_x_using/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ctxsl5/fanuc_robodrill_keep_relay_lookup/</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>robotics</t>
+          <t>Machinists</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>What are the most common component fails in industrial robots?</t>
+          <t>Looping a Limited Number of Times</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9o9p0m/dual_arm_dual_pendant_2_aux_axis_fanuc_lincoln/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/kvgwin/general_question_for_fanuc_controls_can_you_turn/</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>What are the top companies for robotics?</t>
+          <t>I wanted to retrofit some fanuc paint robots with stmbls, when I failed I FORCED them to work with steppers.</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1czens7/what_are_the_most_common_component_fails_in/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1bzu4j8/so_i_could_buy_a_fanuc_robot_on_vention_for_60k/</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Resetting Servo Pulse Mismatch</t>
+          <t>hello people, can anyone help me identify which model fanuc robot this is? saw it rotting near an industrial unit</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fo6gom/what_are_the_top_companies_for_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vjsusl/i_wanted_to_retrofit_some_fanuc_paint_robots_with/</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FANUC Manufacturing Robots can now see objects in high-resolution 3D.</t>
+          <t>Very Large Fanuc Robot M-2000 Lifting Chevy Corvette @ IMTS2024, Int'l M...</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1aunuxa/resetting_servo_pulse_mismatch/</t>
+          <t>https://www.reddit.com/r/robotics/comments/k0wbws/hello_people_can_anyone_help_me_identify_which/</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Fast Robotic Bin Picking (see comments for more info)</t>
+          <t>Has anyone moved from UR collaborative robots to Fanuc collaborative robots and regretted it?</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2rerhj/fanuc_manufacturing_robots_can_now_see_objects_in/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1fnzj4v/very_large_fanuc_robot_m2000_lifting_chevy/</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Industrial robotics giant Fanuc is using AI to make automation even more automated</t>
+          <t>Servo motor selection guide for Fanuc</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/25gk59/fast_robotic_bin_picking_see_comments_for_more/</t>
+          <t>https://www.reddit.com/r/robotics/comments/hei0rx/has_anyone_moved_from_ur_collaborative_robots_to/</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Anyone using a 3-D printed robotic gripper?</t>
+          <t>Moving to UR from Fanuc CRX</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/bf4eyo/industrial_robotics_giant_fanuc_is_using_ai_to/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1e97v6w/servo_motor_selection_guide_for_fanuc/</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>I accidentally a whole robot. Fanuc R2000iA 165F. What now? / crosspost from r/fanuc</t>
+          <t>Fanuc Robot Arm with 3D Vision</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/33ip9c/anyone_using_a_3d_printed_robotic_gripper/</t>
+          <t>https://www.reddit.com/r/robotics/comments/14o566j/moving_to_ur_from_fanuc_crx/</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Where to go from here?</t>
+          <t>Learning fanuc robotics?</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/boyfia/i_accidentally_a_whole_robot_fanuc_r2000ia_165f/</t>
+          <t>https://www.reddit.com/r/robotics/comments/15uzkj7/fanuc_robot_arm_with_3d_vision/</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>looking for a Fanuc robotic simulator like Handling pro. For class any ideas?</t>
+          <t>Color Sensor for Fanuc CRX</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/zprpok/where_to_go_from_here/</t>
+          <t>https://www.reddit.com/r/robotics/comments/90igrp/learning_fanuc_robotics/</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Is offline programming software widely used in industry?</t>
+          <t>Can any Fanuc robot used to do welding?</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/6emyfx/looking_for_a_fanuc_robotic_simulator_like/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1cs0wn3/color_sensor_for_fanuc_crx/</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>What's the difference? FANUC Alpha 22 vs Alpha 12</t>
+          <t>Watch this FANUC multi-axis and machine vision system robotics doing demo cycles at the Automate 2024</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8211vu/is_offline_programming_software_widely_used_in/</t>
+          <t>https://www.reddit.com/r/robotics/comments/13usnah/can_any_fanuc_robot_used_to_do_welding/</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Pick &amp; place robots</t>
+          <t>Accidentally cleared PR on Fanuc robot. Any way to get it back?</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/7ibd6y/whats_the_difference_fanuc_alpha_22_vs_alpha_12/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1cpe48f/watch_this_fanuc_multiaxis_and_machine_vision/</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Fanuc capabilities (LR Mate 200iC robot and R-30iA controller)</t>
+          <t>Robodk with FANUC robot for 3D printing</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ibwfl2/pick_place_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/92crqy/accidentally_cleared_pr_on_fanuc_robot_any_way_to/</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Welding And Material Handling Robots In Action</t>
+          <t>Fanuc robot not leaving dcs.</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/31cg30/fanuc_capabilities_lr_mate_200ic_robot_and_r30ia/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1818f6r/robodk_with_fanuc_robot_for_3d_printing/</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Fanuc robot pick/place</t>
+          <t>Repairing a Fanuc LR Mate 200iB robotic arm. So far I have 1 burned motor, 3 broken cross roller bearing and a lot of solid grease.</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/pgeuk3/welding_and_material_handling_robots_in_action/</t>
+          <t>https://www.reddit.com/r/robotics/comments/17wjt67/fanuc_robot_not_leaving_dcs/</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>What's the easiest industrial robot to setup a picking job?</t>
+          <t>[Q] Issues With Fanuc R30iA Teach Pendant</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9jd661/fanuc_robot_pickplace/</t>
+          <t>https://www.reddit.com/r/robotics/comments/pzdh9o/repairing_a_fanuc_lr_mate_200ib_robotic_arm_so/</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Anyone with OTC Daihen, Fanuc, and Motoman experience? I have a couple questions</t>
+          <t>How Much is the PAYLOAD of this FANUC Robot? Watch till the end to get the number...</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17d4tet/whats_the_easiest_industrial_robot_to_setup_a/</t>
+          <t>https://www.reddit.com/r/robotics/comments/esxjsg/q_issues_with_fanuc_r30ia_teach_pendant/</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>How to get a job making robots?</t>
+          <t>Welds from the fanuc robots are getting offset</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/6pzn8z/anyone_with_otc_daihen_fanuc_and_motoman/</t>
+          <t>https://www.reddit.com/r/robotics/comments/185j0i2/how_much_is_the_payload_of_this_fanuc_robot_watch/</t>
         </is>
       </c>
     </row>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Sort of new to reddit.. Can I offer a service here perhaps? (Fanuc &amp; Lincoln specialist)</t>
+          <t>Fanuc robot not leaving dcs.</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16l8wmm/how_to_get_a_job_making_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/rhcsn2/welds_from_the_fanuc_robots_are_getting_offset/</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>What are some areas of innovation in industrial robotics?</t>
+          <t>Fanuc Fault Emergency!</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/a3uwla/sort_of_new_to_reddit_can_i_offer_a_service_here/</t>
+          <t>https://www.reddit.com/r/robotics/comments/17wjt7q/fanuc_robot_not_leaving_dcs/</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Fanuc I/O Operation</t>
+          <t>Fanuc Variables</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1civxf4/what_are_some_areas_of_innovation_in_industrial/</t>
+          <t>https://www.reddit.com/r/robotics/comments/32uj9m/fanuc_fault_emergency/</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Collaborative Robotic Machine Tending installation I did a while back - complete with dance music.</t>
+          <t>[Q] Is anyone here familiar with the fanuc scara robot? I’m using it without the teaching pendant. I’m using the irprogrammer on a pc.</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2tvny6/fanuc_io_operation/</t>
+          <t>https://www.reddit.com/r/robotics/comments/131qmlw/fanuc_variables/</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Fanuc R2000iB 165f</t>
+          <t>How do you say FANUC?</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/k1ndwn/collaborative_robotic_machine_tending/</t>
+          <t>https://www.reddit.com/r/robotics/comments/d7fxvo/q_is_anyone_here_familiar_with_the_fanuc_scara/</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Software for Offline Robot Programming</t>
+          <t>FANUC/ Universal Robots: Their new cobots are no longer about the skills shortage</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9fnvaz/fanuc_r2000ib_165f/</t>
+          <t>https://www.reddit.com/r/robotics/comments/123634v/how_do_you_say_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>There's no doubt SkyNet will use this FANUC sorting robot to pick your brains apart with unbelievable precision and speed...</t>
+          <t>Cobot: Lincoln Cooper Cart with Fanuc arm vs Vectis Miller cart with Universal Robotics arm?</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/767siu/software_for_offline_robot_programming/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vncyw7/fanuc_universal_robots_their_new_cobots_are_no/</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Where are robot arms typically housing their rotary encoders? (before or after the gearbox)</t>
+          <t>Can anyone help me with this issue?</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1572sk/theres_no_doubt_skynet_will_use_this_fanuc/</t>
+          <t>https://www.reddit.com/r/robotics/comments/zb69kk/cobot_lincoln_cooper_cart_with_fanuc_arm_vs/</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Weldpro with Fanuc</t>
+          <t>Managing weird axis coupling on Fanuc R-1000iA/120F-7B Seven-Axis Robot</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/12eejo2/where_are_robot_arms_typically_housing_their/</t>
+          <t>https://www.reddit.com/r/robotics/comments/17xs2uv/can_anyone_help_me_with_this_issue/</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Recommendations for a Robot</t>
+          <t>Finally got all 6 joints running with kinematics</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/7snwrs/weldpro_with_fanuc/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vwl8o5/managing_weird_axis_coupling_on_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5150,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FANUC Robotics trade?</t>
+          <t>How difficult is it to switching robots (ie. Universal to Robotics to Fanuc etc.)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9uinhs/recommendations_for_a_robot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/spjlk5/finally_got_all_6_joints_running_with_kinematics/</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Advice for getting into robotics?</t>
+          <t>Anyone with OTC Daihen, Fanuc, and Motoman experience? I have a couple questions</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3oaqxc/fanuc_robotics_trade/</t>
+          <t>https://www.reddit.com/r/robotics/comments/p3tzpz/how_difficult_is_it_to_switching_robots_ie/</t>
         </is>
       </c>
     </row>
@@ -5184,12 +5184,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Here is Integrated Solutions' new FANUC robot with a custom palletizing tool</t>
+          <t>Fanuc KAREL programmer sought</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f6zmq6/advice_for_getting_into_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/6pzn8z/anyone_with_otc_daihen_fanuc_and_motoman/</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Industrial Robots</t>
+          <t>Question for anyone with experience with FANUC robots. How exactly do I get Karel programs into the system, if the teach pendant only does the basic TPP programming?</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/22ozcj/here_is_integrated_solutions_new_fanuc_robot_with/</t>
+          <t>https://www.reddit.com/r/robotics/comments/tgokja/fanuc_karel_programmer_sought/</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>My school just got an industrial Delta Bot, a Fanuc M-3ia 6s, do anyone know where to start to learn to use this thing?</t>
+          <t>3rd party vision system, that works with Fanuc and Yaskawa</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/176b84y/industrial_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/5bbjhg/question_for_anyone_with_experience_with_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Robotic arm market question</t>
+          <t>FANUC RoboGuide/HandlingPRO keyboard hotkeys/shortcuts</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1v7ssb/my_school_just_got_an_industrial_delta_bot_a/</t>
+          <t>https://www.reddit.com/r/robotics/comments/sdfucl/3rd_party_vision_system_that_works_with_fanuc_and/</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>The largest collaborative robot on the market: The Green Fanuc</t>
+          <t>Fanuc 3D calibration</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15o6oqo/robotic_arm_market_question/</t>
+          <t>https://www.reddit.com/r/robotics/comments/93xpaj/fanuc_roboguidehandlingpro_keyboard/</t>
         </is>
       </c>
     </row>
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Robotic Cell Installation. Yaskawa Robot on a Track. 3 Work Zones: 1-axis Positioner, 1-axis Positioner with a Table, and Welding Table. What do you think about this setup?</t>
+          <t>Buying a used Fanuc robot, what should I look out for?</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3phj90/the_largest_collaborative_robot_on_the_market_the/</t>
+          <t>https://www.reddit.com/r/robotics/comments/aepueg/fanuc_3d_calibration/</t>
         </is>
       </c>
     </row>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Our school's Fanuc robot play the cup guessing game.</t>
+          <t>My babies.</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15s3ep3/robotic_cell_installation_yaskawa_robot_on_a/</t>
+          <t>https://www.reddit.com/r/robotics/comments/hdjczb/buying_a_used_fanuc_robot_what_should_i_look_out/</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5303,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cobot Pricing List</t>
+          <t>Chinese industrial robots - are they any good?</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cu6yq/our_schools_fanuc_robot_play_the_cup_guessing_game/</t>
+          <t>https://www.reddit.com/r/robotics/comments/uam0cs/my_babies/</t>
         </is>
       </c>
     </row>
@@ -5320,12 +5320,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>How are FANUC and other robot makers using big data to save customers money?</t>
+          <t>Question: What are the best tools for setting a robot's operational plane, or in the case of a FANUC robot, it's user frame and tool frame?</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/m6b4n2/cobot_pricing_list/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1cbo0yy/chinese_industrial_robots_are_they_any_good/</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5337,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Industrial Robots Stiffnesses</t>
+          <t>I need an approximate price of an industrial robot for a project, but I'm not affiliated with any company.</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4n1p7o/how_are_fanuc_and_other_robot_makers_using_big/</t>
+          <t>https://www.reddit.com/r/robotics/comments/bjwf5f/question_what_are_the_best_tools_for_setting_a/</t>
         </is>
       </c>
     </row>
@@ -5354,12 +5354,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Robotic Software Platforms Market - ABB, Fanuc, KUKA, iRobot, Cyberbotics, Skilligent, and The Orocos Project are Key Companies</t>
+          <t>Fanuc teach pendent</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/q66zkb/industrial_robots_stiffnesses/</t>
+          <t>https://www.reddit.com/r/robotics/comments/8hvya9/i_need_an_approximate_price_of_an_industrial/</t>
         </is>
       </c>
     </row>
@@ -5371,12 +5371,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>I keep hearing everywhere that factory automating keeps getting cheaper. Can someone give me price examples how industrial robotic systems have developed over the last decade or so?</t>
+          <t>What robotic arm is Cafe X using?</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4q8811/robotic_software_platforms_market_abb_fanuc_kuka/</t>
+          <t>https://www.reddit.com/r/robotics/comments/jj0pkf/fanuc_teach_pendent/</t>
         </is>
       </c>
     </row>
@@ -5388,12 +5388,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>I made a new subreddit! r/Fanuc</t>
+          <t>Interfacing Fanuc robots with Fanuc CNC controls. How hard is this? What controls do I need?</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5q0snl/i_keep_hearing_everywhere_that_factory_automating/</t>
+          <t>https://www.reddit.com/r/robotics/comments/jkk5xk/what_robotic_arm_is_cafe_x_using/</t>
         </is>
       </c>
     </row>
@@ -5405,12 +5405,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Id like to buy stocks in a robotic company. What’s the company you think will be have the biggest impact in robotics in the next 10 years?</t>
+          <t>Software for Offline Robot Programming</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1thzcm/i_made_a_new_subreddit_rfanuc/</t>
+          <t>https://www.reddit.com/r/robotics/comments/8ve6ec/interfacing_fanuc_robots_with_fanuc_cnc_controls/</t>
         </is>
       </c>
     </row>
@@ -5422,12 +5422,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Fanuc communications</t>
+          <t>Fanuc or Motoman Robotics</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/13r370n/id_like_to_buy_stocks_in_a_robotic_company_whats/</t>
+          <t>https://www.reddit.com/r/robotics/comments/767siu/software_for_offline_robot_programming/</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5439,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Running a 1.5 ton Industrial Robot With an Open Source Controller</t>
+          <t>Question for someone familiar with Motoman robots</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4fhdud/fanuc_communications/</t>
+          <t>https://www.reddit.com/r/robotics/comments/6vu4sb/fanuc_or_motoman_robotics/</t>
         </is>
       </c>
     </row>
@@ -5456,12 +5456,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FANUC Robots Display Incredible Precision on a Basketball</t>
+          <t>[MISC] Automated Gantry System with FANUC LR Mate 200iD Robot – FLT’s New LGR-3 Demo Gantry Cell</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ssuyhi/running_a_15_ton_industrial_robot_with_an_open/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1afmfp6/question_for_someone_familiar_with_motoman_robots/</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Where to find customers for industrial robots, integration services?</t>
+          <t>What are the most common component fails in industrial robots?</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/lxsp4/fanuc_robots_display_incredible_precision_on_a/</t>
+          <t>https://www.reddit.com/r/robotics/comments/c0mc8p/misc_automated_gantry_system_with_fanuc_lr_mate/</t>
         </is>
       </c>
     </row>
@@ -5490,12 +5490,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Fanuc's robotics experiment with deep learning</t>
+          <t>M-2000iA/2300: the world’s strongest robot is FANUC yellow</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9os8ee/where_to_find_customers_for_industrial_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1czens7/what_are_the_most_common_component_fails_in/</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Why have KUKA Robots become so popular in the last few years??</t>
+          <t>Does anyone use ROS in manufacturing?</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3vcl6t/fanucs_robotics_experiment_with_deep_learning/</t>
+          <t>https://www.reddit.com/r/robotics/comments/4qzcwp/m2000ia2300_the_worlds_strongest_robot_is_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5524,12 +5524,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Help needed with FANUC P-145 Paint robot - Axis 5 Servo motor</t>
+          <t>Fanuc LR Mate 200iB</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1bwf238/why_have_kuka_robots_become_so_popular_in_the/</t>
+          <t>https://www.reddit.com/r/robotics/comments/17bvmor/does_anyone_use_ros_in_manufacturing/</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>3d printed 6dof robot arm</t>
+          <t>Inverse Kinematics CRX-10iA</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/40q9x2/help_needed_with_fanuc_p145_paint_robot_axis_5/</t>
+          <t>https://www.reddit.com/r/robotics/comments/820u7t/fanuc_lr_mate_200ib/</t>
         </is>
       </c>
     </row>
@@ -5558,12 +5558,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>High School Fanuc Robot</t>
+          <t>Dual Arm, Dual pendant, 2 aux axis.. Fanuc + Lincoln MIG welding setup.. enjoy!</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/172leqf/3d_printed_6dof_robot_arm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/rcwytg/inverse_kinematics_crx10ia/</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5575,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Why are there fewer "big tech or openai like" success stories in robotics field?</t>
+          <t>Where to go from here?</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3b81h7/high_school_fanuc_robot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/9o9p0m/dual_arm_dual_pendant_2_aux_axis_fanuc_lincoln/</t>
         </is>
       </c>
     </row>
@@ -5592,12 +5592,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Robot axes and joints</t>
+          <t>FANUC Manufacturing Robots can now see objects in high-resolution 3D.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1e9kor5/why_are_there_fewer_big_tech_or_openai_like/</t>
+          <t>https://www.reddit.com/r/robotics/comments/zprpok/where_to_go_from_here/</t>
         </is>
       </c>
     </row>
@@ -5609,12 +5609,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Question about collision detection</t>
+          <t>Id like to buy stocks in a robotic company. What’s the company you think will be have the biggest impact in robotics in the next 10 years?</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fjnxmx/robot_axes_and_joints/</t>
+          <t>https://www.reddit.com/r/robotics/comments/2rerhj/fanuc_manufacturing_robots_can_now_see_objects_in/</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FANUC Robotics Automation Systems Integrators</t>
+          <t>What are the top companies for robotics?</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ijw294/question_about_collision_detection/</t>
+          <t>https://www.reddit.com/r/robotics/comments/13r370n/id_like_to_buy_stocks_in_a_robotic_company_whats/</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Robotic Welding Production Line</t>
+          <t>Pick &amp; place robots</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mek0w/fanuc_robotics_automation_systems_integrators/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1fo6gom/what_are_the_top_companies_for_robotics/</t>
         </is>
       </c>
     </row>
@@ -5660,12 +5660,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Is ROS the most popular system for designing robots?</t>
+          <t>Industrial robotics giant Fanuc is using AI to make automation even more automated</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/p9mi16/robotic_welding_production_line/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ibwfl2/pick_place_robots/</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>How important is simulation in automation and mechatronics engineering?</t>
+          <t>Collaborative Robotic Machine Tending installation I did a while back - complete with dance music.</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9kr2b4/is_ros_the_most_popular_system_for_designing/</t>
+          <t>https://www.reddit.com/r/robotics/comments/bf4eyo/industrial_robotics_giant_fanuc_is_using_ai_to/</t>
         </is>
       </c>
     </row>
@@ -5694,12 +5694,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>[Question] Which programming language is widely used in robotics programming? Which courses should I opt for as a mechanical engineering graduate?</t>
+          <t>I accidentally a whole robot. Fanuc R2000iA 165F. What now? / crosspost from r/fanuc</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1feilrp/how_important_is_simulation_in_automation_and/</t>
+          <t>https://www.reddit.com/r/robotics/comments/k1ndwn/collaborative_robotic_machine_tending/</t>
         </is>
       </c>
     </row>
@@ -5711,12 +5711,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Fabuc robot motor humming</t>
+          <t>What are some areas of innovation in industrial robotics?</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/d18fxd/question_which_programming_language_is_widely/</t>
+          <t>https://www.reddit.com/r/robotics/comments/boyfia/i_accidentally_a_whole_robot_fanuc_r2000ia_165f/</t>
         </is>
       </c>
     </row>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Are there any companies that are creating robotics that are not human related?</t>
+          <t>looking for a Fanuc robotic simulator like Handling pro. For class any ideas?</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1frtwcg/fabuc_robot_motor_humming/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1civxf4/what_are_some_areas_of_innovation_in_industrial/</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5745,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Which countries are most advanced in terms of robotics and ai?</t>
+          <t>Welding And Material Handling Robots In Action</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/18saq92/are_there_any_companies_that_are_creating/</t>
+          <t>https://www.reddit.com/r/robotics/comments/6emyfx/looking_for_a_fanuc_robotic_simulator_like/</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>[Q] Books on Industrial Robotics</t>
+          <t>What's the difference? FANUC Alpha 22 vs Alpha 12</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1ayfgmd/which_countries_are_most_advanced_in_terms_of/</t>
+          <t>https://www.reddit.com/r/robotics/comments/pgeuk3/welding_and_material_handling_robots_in_action/</t>
         </is>
       </c>
     </row>
@@ -5779,12 +5779,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>We're hiring a Robotics Control Engineer - let me know if you're interested</t>
+          <t>What's the easiest industrial robot to setup a picking job?</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ea4z9h/q_books_on_industrial_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/7ibd6y/whats_the_difference_fanuc_alpha_22_vs_alpha_12/</t>
         </is>
       </c>
     </row>
@@ -5796,12 +5796,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Building a Robot Roller Coaster (Safety Focused)</t>
+          <t>Fanuc capabilities (LR Mate 200iC robot and R-30iA controller)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1c0379r/were_hiring_a_robotics_control_engineer_let_me/</t>
+          <t>https://www.reddit.com/r/robotics/comments/17d4tet/whats_the_easiest_industrial_robot_to_setup_a/</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Gazebo Harmonic Gripper Plugin</t>
+          <t>Where are robot arms typically housing their rotary encoders? (before or after the gearbox)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1czoc74/building_a_robot_roller_coaster_safety_focused/</t>
+          <t>https://www.reddit.com/r/robotics/comments/31cg30/fanuc_capabilities_lr_mate_200ic_robot_and_r30ia/</t>
         </is>
       </c>
     </row>
@@ -5830,12 +5830,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Why isn't industrial robotics / automation more widespread?</t>
+          <t>Fanuc robot pick/place</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fp4jag/gazebo_harmonic_gripper_plugin/</t>
+          <t>https://www.reddit.com/r/robotics/comments/12eejo2/where_are_robot_arms_typically_housing_their/</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ABB IRB 4600 fault</t>
+          <t>How to get a job making robots?</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gaw6tm/why_isnt_industrial_robotics_automation_more/</t>
+          <t>https://www.reddit.com/r/robotics/comments/9jd661/fanuc_robot_pickplace/</t>
         </is>
       </c>
     </row>
@@ -5864,12 +5864,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Does learning Computer Science will help me in Robotics? What should I focus on Software or Hardware?</t>
+          <t>Sort of new to reddit.. Can I offer a service here perhaps? (Fanuc &amp; Lincoln specialist)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fdnhzz/abb_irb_4600_fault/</t>
+          <t>https://www.reddit.com/r/robotics/comments/16l8wmm/how_to_get_a_job_making_robots/</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Reddit, meet Flippy, the first fully autonomous fry cook assistant!</t>
+          <t>Industrial Robots</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1awjy9z/does_learning_computer_science_will_help_me_in/</t>
+          <t>https://www.reddit.com/r/robotics/comments/a3uwla/sort_of_new_to_reddit_can_i_offer_a_service_here/</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Best Joint Torque Controlled Cobot Manipulators?</t>
+          <t>Fanuc I/O Operation</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/q8niqn/reddit_meet_flippy_the_first_fully_autonomous_fry/</t>
+          <t>https://www.reddit.com/r/robotics/comments/176b84y/industrial_robots/</t>
         </is>
       </c>
     </row>
@@ -5915,12 +5915,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Does anyone use ROS in manufacturing?</t>
+          <t>Advice for getting into robotics?</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17jhiar/best_joint_torque_controlled_cobot_manipulators/</t>
+          <t>https://www.reddit.com/r/robotics/comments/2tvny6/fanuc_io_operation/</t>
         </is>
       </c>
     </row>
@@ -5932,12 +5932,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>6dof robot arm link lengths</t>
+          <t>Fanuc R2000iB 165f</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17bvmor/does_anyone_use_ros_in_manufacturing/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1f6zmq6/advice_for_getting_into_robotics/</t>
         </is>
       </c>
     </row>
@@ -5949,12 +5949,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ABB skip alarm multiple times</t>
+          <t>I keep hearing everywhere that factory automating keeps getting cheaper. Can someone give me price examples how industrial robotic systems have developed over the last decade or so?</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/184f9v9/6dof_robot_arm_link_lengths/</t>
+          <t>https://www.reddit.com/r/robotics/comments/9fnvaz/fanuc_r2000ib_165f/</t>
         </is>
       </c>
     </row>
@@ -5966,12 +5966,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Can anyone share or provide resources on real-world applications for robotic arms for actual companies / businesses?</t>
+          <t>There's no doubt SkyNet will use this FANUC sorting robot to pick your brains apart with unbelievable precision and speed...</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1einjlh/abb_skip_alarm_multiple_times/</t>
+          <t>https://www.reddit.com/r/robotics/comments/5q0snl/i_keep_hearing_everywhere_that_factory_automating/</t>
         </is>
       </c>
     </row>
@@ -5983,12 +5983,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>My first brand new robot. Can't wait to start programming.</t>
+          <t>Is offline programming software widely used in industry?</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/11nbdvl/can_anyone_share_or_provide_resources_on/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1572sk/theres_no_doubt_skynet_will_use_this_fanuc/</t>
         </is>
       </c>
     </row>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>I feel like Disney robotics is really underrated.</t>
+          <t>Weldpro with Fanuc</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/talsbw/my_first_brand_new_robot_cant_wait_to_start/</t>
+          <t>https://www.reddit.com/r/robotics/comments/8211vu/is_offline_programming_software_widely_used_in/</t>
         </is>
       </c>
     </row>
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Applications for a small 6-DOF arm?</t>
+          <t>Robotic arm market question</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/124b3zs/i_feel_like_disney_robotics_is_really_underrated/</t>
+          <t>https://www.reddit.com/r/robotics/comments/7snwrs/weldpro_with_fanuc/</t>
         </is>
       </c>
     </row>
@@ -6034,12 +6034,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>[Q] When Robot arms like these cost around 30k USD, what contributes the most to its price?</t>
+          <t>FANUC Robotics trade?</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1clnqrc/applications_for_a_small_6dof_arm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/15o6oqo/robotic_arm_market_question/</t>
         </is>
       </c>
     </row>
@@ -6051,12 +6051,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>What is the methodology used at robot companies to design and develop a new robot?</t>
+          <t>Industrial Robots Stiffnesses</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ducmay/q_when_robot_arms_like_these_cost_around_30k_usd/</t>
+          <t>https://www.reddit.com/r/robotics/comments/3oaqxc/fanuc_robotics_trade/</t>
         </is>
       </c>
     </row>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Need path in RoboDK</t>
+          <t>Here is Integrated Solutions' new FANUC robot with a custom palletizing tool</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1d3fptt/what_is_the_methodology_used_at_robot_companies/</t>
+          <t>https://www.reddit.com/r/robotics/comments/q66zkb/industrial_robots_stiffnesses/</t>
         </is>
       </c>
     </row>
@@ -6085,12 +6085,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Help with finding existing model of LM rail</t>
+          <t>Cobot Pricing List</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17gu7p5/need_path_in_robodk/</t>
+          <t>https://www.reddit.com/r/robotics/comments/22ozcj/here_is_integrated_solutions_new_fanuc_robot_with/</t>
         </is>
       </c>
     </row>
@@ -6102,12 +6102,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>In which US states are most of the robotics companies based in the US?</t>
+          <t>My school just got an industrial Delta Bot, a Fanuc M-3ia 6s, do anyone know where to start to learn to use this thing?</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1dv3mfj/help_with_finding_existing_model_of_lm_rail/</t>
+          <t>https://www.reddit.com/r/robotics/comments/m6b4n2/cobot_pricing_list/</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Universal robot erfahrungen</t>
+          <t>[Question] Which programming language is widely used in robotics programming? Which courses should I opt for as a mechanical engineering graduate?</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9gop7j/in_which_us_states_are_most_of_the_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1v7ssb/my_school_just_got_an_industrial_delta_bot_a/</t>
         </is>
       </c>
     </row>
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>5 axis milling with a KUKA</t>
+          <t>The largest collaborative robot on the market: The Green Fanuc</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1bl77cb/universal_robot_erfahrungen/</t>
+          <t>https://www.reddit.com/r/robotics/comments/d18fxd/question_which_programming_language_is_widely/</t>
         </is>
       </c>
     </row>
@@ -6153,12 +6153,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ABB robot</t>
+          <t>Running a 1.5 ton Industrial Robot With an Open Source Controller</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/aei0an/5_axis_milling_with_a_kuka/</t>
+          <t>https://www.reddit.com/r/robotics/comments/3phj90/the_largest_collaborative_robot_on_the_market_the/</t>
         </is>
       </c>
     </row>
@@ -6170,12 +6170,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Buying a robotic arm</t>
+          <t>Our school's Fanuc robot play the cup guessing game.</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1asij4n/abb_robot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ssuyhi/running_a_15_ton_industrial_robot_with_an_open/</t>
         </is>
       </c>
     </row>
@@ -6187,12 +6187,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>This is what a worn reducer looks like - the grease goes in white and comes out like this.</t>
+          <t>French fries go hi-tech with ‘Flippy 2’ robot | Reuters Video</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jcohh1/buying_a_robotic_arm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1cu6yq/our_schools_fanuc_robot_play_the_cup_guessing_game/</t>
         </is>
       </c>
     </row>
@@ -6204,12 +6204,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Industry best practices for robot simulation (Gazebo)</t>
+          <t>How are FANUC and other robot makers using big data to save customers money?</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/x8e6d4/this_is_what_a_worn_reducer_looks_like_the_grease/</t>
+          <t>https://www.reddit.com/r/robotics/comments/xwd92d/french_fries_go_hitech_with_flippy_2_robot/</t>
         </is>
       </c>
     </row>
@@ -6221,12 +6221,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Craftsman's $90M plan to bring manufacturing back to Texas flopped because of faulty robots</t>
+          <t>Robotics operating system</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fhysw9/industry_best_practices_for_robot_simulation/</t>
+          <t>https://www.reddit.com/r/robotics/comments/4n1p7o/how_are_fanuc_and_other_robot_makers_using_big/</t>
         </is>
       </c>
     </row>
@@ -6238,12 +6238,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>This video shows the evolution of humanoid robots from 2009 to 2020</t>
+          <t>Robotic Software Platforms Market - ABB, Fanuc, KUKA, iRobot, Cyberbotics, Skilligent, and The Orocos Project are Key Companies</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/156p1w3/craftsmans_90m_plan_to_bring_manufacturing_back/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1279r74/robotics_operating_system/</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6255,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mobile manipulator with a 2kg payload and 740mm reach under 6k USD!</t>
+          <t>FANUC API or documentation</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/12n1pob/this_video_shows_the_evolution_of_humanoid_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/4q8811/robotic_software_platforms_market_abb_fanuc_kuka/</t>
         </is>
       </c>
     </row>
@@ -6272,12 +6272,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>My dream job is robotics repairs, maintainence, construction, basically anything about robots that isn't software. What are my best paths for my career?</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vrt4d9/mobile_manipulator_with_a_2kg_payload_and_740mm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/28b60c/fanuc_api_or_documentation/</t>
         </is>
       </c>
     </row>
@@ -6289,12 +6289,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cool view of gears in an expensive robot wrist joint</t>
+          <t>I made a new subreddit! r/Fanuc</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/np61bd/my_dream_job_is_robotics_repairs_maintainence/</t>
+          <t>https://www.reddit.com/r/robotics/comments/z2fhr5/ama/</t>
         </is>
       </c>
     </row>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Finally got the Omron TM12 out of the crate!</t>
+          <t>Is ROS the most popular system for designing robots?</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16xsfuk/cool_view_of_gears_in_an_expensive_robot_wrist/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1thzcm/i_made_a_new_subreddit_rfanuc/</t>
         </is>
       </c>
     </row>
@@ -6323,12 +6323,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Robotics gift for beginner child?</t>
+          <t>Fanuc communications</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/oon1x3/finally_got_the_omron_tm12_out_of_the_crate/</t>
+          <t>https://www.reddit.com/r/robotics/comments/9kr2b4/is_ros_the_most_popular_system_for_designing/</t>
         </is>
       </c>
     </row>
@@ -6340,12 +6340,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Can anyone offer guidance on the robotics technician career path?</t>
+          <t>Why are there fewer "big tech or openai like" success stories in robotics field?</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15mmda7/robotics_gift_for_beginner_child/</t>
+          <t>https://www.reddit.com/r/robotics/comments/4fhdud/fanuc_communications/</t>
         </is>
       </c>
     </row>
@@ -6357,12 +6357,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>What is "missing" in robotics?</t>
+          <t>FANUC Robots Display Incredible Precision on a Basketball</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ijrthu/can_anyone_offer_guidance_on_the_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1e9kor5/why_are_there_fewer_big_tech_or_openai_like/</t>
         </is>
       </c>
     </row>
@@ -6374,12 +6374,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>How to open a TP controller of a robot in Robo DK</t>
+          <t>Craftsman's $90M plan to bring manufacturing back to Texas flopped because of faulty robots</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/up0449/what_is_missing_in_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/lxsp4/fanuc_robots_display_incredible_precision_on_a/</t>
         </is>
       </c>
     </row>
@@ -6391,12 +6391,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Amber b1 up and running MoveIt 🥳</t>
+          <t>Fanuc's robotics experiment with deep learning</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16fzsgy/how_to_open_a_tp_controller_of_a_robot_in_robo_dk/</t>
+          <t>https://www.reddit.com/r/robotics/comments/156p1w3/craftsmans_90m_plan_to_bring_manufacturing_back/</t>
         </is>
       </c>
     </row>
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>People who are working with robots: Are you worried to damage the robot when it crashes?</t>
+          <t>Question about collision detection</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/tf26al/amber_b1_up_and_running_moveit/</t>
+          <t>https://www.reddit.com/r/robotics/comments/3vcl6t/fanucs_robotics_experiment_with_deep_learning/</t>
         </is>
       </c>
     </row>
@@ -6425,12 +6425,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Industrial robotics question</t>
+          <t>Help needed with FANUC P-145 Paint robot - Axis 5 Servo motor</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/a1rkhn/people_who_are_working_with_robots_are_you/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ijw294/question_about_collision_detection/</t>
         </is>
       </c>
     </row>
@@ -6442,12 +6442,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Brief history of robotics</t>
+          <t>3d printed 6dof robot arm</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/11dl6zx/industrial_robotics_question/</t>
+          <t>https://www.reddit.com/r/robotics/comments/40q9x2/help_needed_with_fanuc_p145_paint_robot_axis_5/</t>
         </is>
       </c>
     </row>
@@ -6459,12 +6459,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Kuka Robotic Arm Base Price Cost</t>
+          <t>High School Fanuc Robot</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/122t06e/brief_history_of_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/172leqf/3d_printed_6dof_robot_arm/</t>
         </is>
       </c>
     </row>
@@ -6476,12 +6476,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Small Update: Currently working on my cubic B-Spline Interpolation! Seems to work fine tho :)</t>
+          <t>Are there any companies that are creating robotics that are not human related?</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5vsezh/kuka_robotic_arm_base_price_cost/</t>
+          <t>https://www.reddit.com/r/robotics/comments/3b81h7/high_school_fanuc_robot/</t>
         </is>
       </c>
     </row>
@@ -6493,12 +6493,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Overwhelmed about motor choices</t>
+          <t>FANUC Robotics Automation Systems Integrators</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9rd6a0/small_update_currently_working_on_my_cubic/</t>
+          <t>https://www.reddit.com/r/robotics/comments/18saq92/are_there_any_companies_that_are_creating/</t>
         </is>
       </c>
     </row>
@@ -6510,12 +6510,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Giant industrial robot arm making s’mores</t>
+          <t>Does learning Computer Science will help me in Robotics? What should I focus on Software or Hardware?</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fjutw3/overwhelmed_about_motor_choices/</t>
+          <t>https://www.reddit.com/r/robotics/comments/mek0w/fanuc_robotics_automation_systems_integrators/</t>
         </is>
       </c>
     </row>
@@ -6527,12 +6527,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>How do I calculate the movements of a robotic arm to reach a certain point?</t>
+          <t>Robot axes and joints</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ahupqj/giant_industrial_robot_arm_making_smores/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1awjy9z/does_learning_computer_science_will_help_me_in/</t>
         </is>
       </c>
     </row>
@@ -6544,12 +6544,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Dude tries to sit in a chair that's being controlled by a large robotic arm.</t>
+          <t>"Off the shelf" robotic arm option with very specific requirements</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/955kpi/how_do_i_calculate_the_movements_of_a_robotic_arm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1fjnxmx/robot_axes_and_joints/</t>
         </is>
       </c>
     </row>
@@ -6561,12 +6561,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>What is the highest paying job in the field of automation and robotics? How much do you make?</t>
+          <t>Robotic Welding Production Line</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mix4jt/dude_tries_to_sit_in_a_chair_thats_being/</t>
+          <t>https://www.reddit.com/r/robotics/comments/14b2reb/off_the_shelf_robotic_arm_option_with_very/</t>
         </is>
       </c>
     </row>
@@ -6578,12 +6578,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>I feel like Disney robotics is really underrated.</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jlq8kk/what_is_the_highest_paying_job_in_the_field_of/</t>
+          <t>https://www.reddit.com/r/robotics/comments/p9mi16/robotic_welding_production_line/</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Rotational offset position relative to workobject ABB robot?</t>
+          <t>How important is simulation in automation and mechatronics engineering?</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/z2fhr5/ama/</t>
+          <t>https://www.reddit.com/r/robotics/comments/124b3zs/i_feel_like_disney_robotics_is_really_underrated/</t>
         </is>
       </c>
     </row>
@@ -6612,12 +6612,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transformation from Flange to End Effector Tip</t>
+          <t>Best Joint Torque Controlled Cobot Manipulators?</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1b1ixfv/rotational_offset_position_relative_to_workobject/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1feilrp/how_important_is_simulation_in_automation_and/</t>
         </is>
       </c>
     </row>
@@ -6629,12 +6629,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Publicly Traded Robotics Companies</t>
+          <t>Fabuc robot motor humming</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/10dl1cb/transformation_from_flange_to_end_effector_tip/</t>
+          <t>https://www.reddit.com/r/robotics/comments/17jhiar/best_joint_torque_controlled_cobot_manipulators/</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Robot unaccurate</t>
+          <t>Building a Robot Roller Coaster (Safety Focused)</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/atxrwz/publicly_traded_robotics_companies/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1frtwcg/fabuc_robot_motor_humming/</t>
         </is>
       </c>
     </row>
@@ -6663,12 +6663,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Using machine learning, computer vision, and automation to rethink waste sorting.</t>
+          <t>Which countries are most advanced in terms of robotics and ai?</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ykxlkb/robot_unaccurate/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1czoc74/building_a_robot_roller_coaster_safety_focused/</t>
         </is>
       </c>
     </row>
@@ -6680,12 +6680,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Used Baxter for sale</t>
+          <t>I suck at programming.</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/10w7ttf/using_machine_learning_computer_vision_and/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1ayfgmd/which_countries_are_most_advanced_in_terms_of/</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6697,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Next big things in robotics?</t>
+          <t>We're hiring a Robotics Control Engineer - let me know if you're interested</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3torhc/used_baxter_for_sale/</t>
+          <t>https://www.reddit.com/r/robotics/comments/j984go/i_suck_at_programming/</t>
         </is>
       </c>
     </row>
@@ -6714,12 +6714,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>I believe it was reported that Amazon has a new robot called Sparrow that did a lot of things, but, I don't think there was any video of the robotic arm posted.</t>
+          <t>Can anyone share or provide resources on real-world applications for robotic arms for actual companies / businesses?</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1diw6eq/next_big_things_in_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1c0379r/were_hiring_a_robotics_control_engineer_let_me/</t>
         </is>
       </c>
     </row>
@@ -6731,12 +6731,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>I had a great time designing and building this robotic arm. If anyone interested, files, bom and assembly manual will be available.</t>
+          <t>Gazebo Harmonic Gripper Plugin</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/yrw81f/i_believe_it_was_reported_that_amazon_has_a_new/</t>
+          <t>https://www.reddit.com/r/robotics/comments/11nbdvl/can_anyone_share_or_provide_resources_on/</t>
         </is>
       </c>
     </row>
@@ -6748,12 +6748,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Inspiration for a major academic robotics task</t>
+          <t>My babies.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/11l56bb/i_had_a_great_time_designing_and_building_this/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1fp4jag/gazebo_harmonic_gripper_plugin/</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>So why doesn't robotics work?</t>
+          <t>Reddit, meet Flippy, the first fully autonomous fry cook assistant!</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/y1ytkn/inspiration_for_a_major_academic_robotics_task/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1dluik4/my_babies/</t>
         </is>
       </c>
     </row>
@@ -6782,12 +6782,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>German AI-Startup: Older industrial robots can now be upgraded using software - regardless of manufacturer</t>
+          <t>[Q] When Robot arms like these cost around 30k USD, what contributes the most to its price?</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/kma1ld/so_why_doesnt_robotics_work/</t>
+          <t>https://www.reddit.com/r/robotics/comments/q8niqn/reddit_meet_flippy_the_first_fully_autonomous_fry/</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6799,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Making a Business of Robotics - How do I go from a prototype to a product?</t>
+          <t>ABB IRB 4600 fault</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vowh3p/german_aistartup_older_industrial_robots_can_now/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ducmay/q_when_robot_arms_like_these_cost_around_30k_usd/</t>
         </is>
       </c>
     </row>
@@ -6816,12 +6816,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Any recommendations on a 6 axis robot to build and another for commercial use?</t>
+          <t>6dof robot arm link lengths</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/i5u2cc/making_a_business_of_robotics_how_do_i_go_from_a/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1fdnhzz/abb_irb_4600_fault/</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Draw and write anything with ABB robots - IRB Drawing Interface</t>
+          <t>ABB skip alarm multiple times</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/pmj7qm/any_recommendations_on_a_6_axis_robot_to_build/</t>
+          <t>https://www.reddit.com/r/robotics/comments/184f9v9/6dof_robot_arm_link_lengths/</t>
         </is>
       </c>
     </row>
@@ -6850,12 +6850,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>In which US states are most of the robotics companies based in the US?</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9mpcu7/draw_and_write_anything_with_abb_robots_irb/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1einjlh/abb_skip_alarm_multiple_times/</t>
         </is>
       </c>
     </row>
@@ -6867,12 +6867,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Minimum RAM required for a robot?</t>
+          <t>My first brand new robot. Can't wait to start programming.</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/n1kxq0/automation/</t>
+          <t>https://www.reddit.com/r/robotics/comments/9gop7j/in_which_us_states_are_most_of_the_robotics/</t>
         </is>
       </c>
     </row>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>What to do with a giant industrial robot arm</t>
+          <t>Applications for a small 6-DOF arm?</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/10rr1ji/minimum_ram_required_for_a_robot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/talsbw/my_first_brand_new_robot_cant_wait_to_start/</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Anyone here work in robotics? Bonus points if you're Canadian</t>
+          <t>What is the methodology used at robot companies to design and develop a new robot?</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/abfbda/what_to_do_with_a_giant_industrial_robot_arm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1clnqrc/applications_for_a_small_6dof_arm/</t>
         </is>
       </c>
     </row>
@@ -6918,12 +6918,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Automotive industry shop with 4 different robots - Best offline programming software?</t>
+          <t>Industry best practices for robot simulation (Gazebo)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/nxnp0n/anyone_here_work_in_robotics_bonus_points_if/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1d3fptt/what_is_the_methodology_used_at_robot_companies/</t>
         </is>
       </c>
     </row>
@@ -6935,12 +6935,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>A robotic arm simulation software</t>
+          <t>Help with finding existing model of LM rail</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vhz2qh/automotive_industry_shop_with_4_different_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1fhysw9/industry_best_practices_for_robot_simulation/</t>
         </is>
       </c>
     </row>
@@ -6952,12 +6952,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Career Advice?</t>
+          <t>Need path in RoboDK</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/j8sepa/a_robotic_arm_simulation_software/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1dv3mfj/help_with_finding_existing_model_of_lm_rail/</t>
         </is>
       </c>
     </row>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Finally: childhood dream fulfilled. It just came in the mail, the HeathKit Hero. I want to rebuild him for the modern era.</t>
+          <t>Universal robot erfahrungen</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vatu9i/career_advice/</t>
+          <t>https://www.reddit.com/r/robotics/comments/17gu7p5/need_path_in_robodk/</t>
         </is>
       </c>
     </row>
@@ -6986,12 +6986,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Weekly Question - Recommendation - Help Thread</t>
+          <t>This video shows the evolution of humanoid robots from 2009 to 2020</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gcwf8b/finally_childhood_dream_fulfilled_it_just_came_in/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1bl77cb/universal_robot_erfahrungen/</t>
         </is>
       </c>
     </row>
@@ -7003,12 +7003,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Why are Universal Robots so expensive?</t>
+          <t>This is what a worn reducer looks like - the grease goes in white and comes out like this.</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vw4q5h/weekly_question_recommendation_help_thread/</t>
+          <t>https://www.reddit.com/r/robotics/comments/12n1pob/this_video_shows_the_evolution_of_humanoid_robots/</t>
         </is>
       </c>
     </row>
@@ -7020,12 +7020,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>New robot came today, we decided to make it taller (6 ft ladder for scale).</t>
+          <t>Finally got the Omron TM12 out of the crate!</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/14bawkt/why_are_universal_robots_so_expensive/</t>
+          <t>https://www.reddit.com/r/robotics/comments/x8e6d4/this_is_what_a_worn_reducer_looks_like_the_grease/</t>
         </is>
       </c>
     </row>
@@ -7037,12 +7037,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Palletizing with CoBots by Universal Robotics (UR5E)</t>
+          <t>ABB robot</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3ihr8c/new_robot_came_today_we_decided_to_make_it_taller/</t>
+          <t>https://www.reddit.com/r/robotics/comments/oon1x3/finally_got_the_omron_tm12_out_of_the_crate/</t>
         </is>
       </c>
     </row>
@@ -7054,12 +7054,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Need help with an Automation project I'm working on</t>
+          <t>My dream job is robotics repairs, maintainence, construction, basically anything about robots that isn't software. What are my best paths for my career?</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/r4wj1z/palletizing_with_cobots_by_universal_robotics_ur5e/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1asij4n/abb_robot/</t>
         </is>
       </c>
     </row>
@@ -7071,12 +7071,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Chances of getting a job in robotics</t>
+          <t>Mobile manipulator with a 2kg payload and 740mm reach under 6k USD!</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sptzx8/need_help_with_an_automation_project_im_working_on/</t>
+          <t>https://www.reddit.com/r/robotics/comments/np61bd/my_dream_job_is_robotics_repairs_maintainence/</t>
         </is>
       </c>
     </row>
@@ -7088,12 +7088,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>I suck at programming.</t>
+          <t>How to implement Limp Mode?</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9cc270/chances_of_getting_a_job_in_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vrt4d9/mobile_manipulator_with_a_2kg_payload_and_740mm/</t>
         </is>
       </c>
     </row>
@@ -7105,12 +7105,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Robotics jobs - recession proof</t>
+          <t>Cool view of gears in an expensive robot wrist joint</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/j984go/i_suck_at_programming/</t>
+          <t>https://www.reddit.com/r/robotics/comments/x5xsoh/how_to_implement_limp_mode/</t>
         </is>
       </c>
     </row>
@@ -7122,12 +7122,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Ergonomics record of a cobot</t>
+          <t>Why have KUKA Robots become so popular in the last few years??</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/121dx9p/robotics_jobs_recession_proof/</t>
+          <t>https://www.reddit.com/r/robotics/comments/16xsfuk/cool_view_of_gears_in_an_expensive_robot_wrist/</t>
         </is>
       </c>
     </row>
@@ -7139,12 +7139,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Cobot recommendations for R&amp;D</t>
+          <t>Robotics gift for beginner child?</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ti0560/ergonomics_record_of_a_cobot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1bwf238/why_have_kuka_robots_become_so_popular_in_the/</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Robot Selection Help</t>
+          <t>Brief history of robotics</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/z3ska0/cobot_recommendations_for_rd/</t>
+          <t>https://www.reddit.com/r/robotics/comments/15mmda7/robotics_gift_for_beginner_child/</t>
         </is>
       </c>
     </row>
@@ -7173,12 +7173,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Recommendation for a robot arm with SDK or API to perform gripper research</t>
+          <t>What is "missing" in robotics?</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ozxtot/robot_selection_help/</t>
+          <t>https://www.reddit.com/r/robotics/comments/122t06e/brief_history_of_robotics/</t>
         </is>
       </c>
     </row>
@@ -7190,12 +7190,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Can I apply reinforcement learning to robot teaching?</t>
+          <t>Any recommendations on a 6 axis robot to build and another for commercial use?</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9vd57y/recommendation_for_a_robot_arm_with_sdk_or_api_to/</t>
+          <t>https://www.reddit.com/r/robotics/comments/up0449/what_is_missing_in_robotics/</t>
         </is>
       </c>
     </row>
@@ -7207,12 +7207,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>What course should I take at University to become a robotic engineer?</t>
+          <t>How to open a TP controller of a robot in Robo DK</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/b6j31p/can_i_apply_reinforcement_learning_to_robot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/pmj7qm/any_recommendations_on_a_6_axis_robot_to_build/</t>
         </is>
       </c>
     </row>
@@ -7224,12 +7224,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>7 Axis Articulated Arm from Scratch.</t>
+          <t>Industrial robotics question</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/klwl7a/what_course_should_i_take_at_university_to_become/</t>
+          <t>https://www.reddit.com/r/robotics/comments/16fzsgy/how_to_open_a_tp_controller_of_a_robot_in_robo_dk/</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>I'm a college student who wants to work on the business end of robotics. What should I major in and how should I spend my time?</t>
+          <t>People who are working with robots: Are you worried to damage the robot when it crashes?</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mjydvx/7_axis_articulated_arm_from_scratch/</t>
+          <t>https://www.reddit.com/r/robotics/comments/11dl6zx/industrial_robotics_question/</t>
         </is>
       </c>
     </row>
@@ -7258,12 +7258,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Need Help for a school project</t>
+          <t>Kuka Robotic Arm Base Price Cost</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2dzzl8/im_a_college_student_who_wants_to_work_on_the/</t>
+          <t>https://www.reddit.com/r/robotics/comments/a1rkhn/people_who_are_working_with_robots_are_you/</t>
         </is>
       </c>
     </row>
@@ -7275,12 +7275,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>[Q] Anyone know Semi-Professional Robot Arms available on the internet? Something like AR2</t>
+          <t>Small Update: Currently working on my cubic B-Spline Interpolation! Seems to work fine tho :)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/q5epa7/need_help_for_a_school_project/</t>
+          <t>https://www.reddit.com/r/robotics/comments/5vsezh/kuka_robotic_arm_base_price_cost/</t>
         </is>
       </c>
     </row>
@@ -7292,12 +7292,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Residential Construction Robot - Looking to Hire</t>
+          <t>Servo Jitter</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/f4py3x/q_anyone_know_semiprofessional_robot_arms/</t>
+          <t>https://www.reddit.com/r/robotics/comments/9rd6a0/small_update_currently_working_on_my_cubic/</t>
         </is>
       </c>
     </row>
@@ -7309,12 +7309,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Kind of servo is this? Modbot.</t>
+          <t>Giant industrial robot arm making s’mores</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/k3bh9c/residential_construction_robot_looking_to_hire/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1d73gfr/servo_jitter/</t>
         </is>
       </c>
     </row>
@@ -7326,12 +7326,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Anyone have experience with the AR3</t>
+          <t>Overwhelmed about motor choices</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5s9e9l/kind_of_servo_is_this_modbot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ahupqj/giant_industrial_robot_arm_making_smores/</t>
         </is>
       </c>
     </row>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Is the US job market really bad right now?</t>
+          <t>Dude tries to sit in a chair that's being controlled by a large robotic arm.</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jl9k9e/anyone_have_experience_with_the_ar3/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1fjutw3/overwhelmed_about_motor_choices/</t>
         </is>
       </c>
     </row>
@@ -7360,12 +7360,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Newbie question: Am interested in robootics and have a programming background but I have no idea where to start</t>
+          <t>Amber b1 up and running MoveIt 🥳</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15gj4x1/is_the_us_job_market_really_bad_right_now/</t>
+          <t>https://www.reddit.com/r/robotics/comments/mix4jt/dude_tries_to_sit_in_a_chair_thats_being/</t>
         </is>
       </c>
     </row>
@@ -7377,12 +7377,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Why Isn't Robotics as Advanced as Web Development?</t>
+          <t>Transformation from Flange to End Effector Tip</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2m6nzp/newbie_question_am_interested_in_robootics_and/</t>
+          <t>https://www.reddit.com/r/robotics/comments/tf26al/amber_b1_up_and_running_moveit/</t>
         </is>
       </c>
     </row>
@@ -7394,12 +7394,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Open Source (Industrial) Robotics Controller - what do you think?</t>
+          <t>How do I calculate the movements of a robotic arm to reach a certain point?</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f8now8/why_isnt_robotics_as_advanced_as_web_development/</t>
+          <t>https://www.reddit.com/r/robotics/comments/10dl1cb/transformation_from_flange_to_end_effector_tip/</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Careers in robotics?</t>
+          <t>What is the highest paying job in the field of automation and robotics? How much do you make?</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9b7sri/open_source_industrial_robotics_controller_what/</t>
+          <t>https://www.reddit.com/r/robotics/comments/955kpi/how_do_i_calculate_the_movements_of_a_robotic_arm/</t>
         </is>
       </c>
     </row>
@@ -7428,12 +7428,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>How can I become a robotics engineer?</t>
+          <t>[Q] Anyone know Semi-Professional Robot Arms available on the internet? Something like AR2</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mo0w5/careers_in_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/jlq8kk/what_is_the_highest_paying_job_in_the_field_of/</t>
         </is>
       </c>
     </row>
@@ -7445,12 +7445,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>CAD software with the easiest learning curve</t>
+          <t>Robot unaccurate</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/isfo0b/how_can_i_become_a_robotics_engineer/</t>
+          <t>https://www.reddit.com/r/robotics/comments/f4py3x/q_anyone_know_semiprofessional_robot_arms/</t>
         </is>
       </c>
     </row>
@@ -7462,12 +7462,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Is "in-house" ever going to be a phenomenon in industrial robotics</t>
+          <t>Publicly Traded Robotics Companies</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f9mp81/cad_software_with_the_easiest_learning_curve/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ykxlkb/robot_unaccurate/</t>
         </is>
       </c>
     </row>
@@ -7479,12 +7479,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Advice on learning industrial robotics</t>
+          <t>Used Baxter for sale</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8qoked/is_inhouse_ever_going_to_be_a_phenomenon_in/</t>
+          <t>https://www.reddit.com/r/robotics/comments/atxrwz/publicly_traded_robotics_companies/</t>
         </is>
       </c>
     </row>
@@ -7496,12 +7496,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Palletization problems with a giant handling robot... any ideas?</t>
+          <t>Rotational offset position relative to workobject ABB robot?</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1g2t5zo/advice_on_learning_industrial_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/3torhc/used_baxter_for_sale/</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Passing Ethernet/USB through a robot?</t>
+          <t>I believe it was reported that Amazon has a new robot called Sparrow that did a lot of things, but, I don't think there was any video of the robotic arm posted.</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5o2zhu/palletization_problems_with_a_giant_handling/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1b1ixfv/rotational_offset_position_relative_to_workobject/</t>
         </is>
       </c>
     </row>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Anyone interested in Industrial Weld and Material Handling robots?</t>
+          <t>Building bipedal walking robots that look like humans is a waste of time and efforts are better else spent on more useful projects</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sq3t9f/passing_ethernetusb_through_a_robot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/yrw81f/i_believe_it_was_reported_that_amazon_has_a_new/</t>
         </is>
       </c>
     </row>
@@ -7547,12 +7547,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>[Advice] Looking to switch career paths to robotics</t>
+          <t>Inspiration for a major academic robotics task</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/52562i/anyone_interested_in_industrial_weld_and_material/</t>
+          <t>https://www.reddit.com/r/robotics/comments/kjoncl/building_bipedal_walking_robots_that_look_like/</t>
         </is>
       </c>
     </row>
@@ -7564,12 +7564,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Robotic System for Sorting Recyclables – Waste Robotics</t>
+          <t>Cool 3D printed robot arm</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/aljt3h/advice_looking_to_switch_career_paths_to_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/y1ytkn/inspiration_for_a_major_academic_robotics_task/</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>How can I get into robotics?</t>
+          <t>German AI-Startup: Older industrial robots can now be upgraded using software - regardless of manufacturer</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/bepv7g/robotic_system_for_sorting_recyclables_waste/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1f0eud7/cool_3d_printed_robot_arm/</t>
         </is>
       </c>
     </row>
@@ -7598,12 +7598,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Question on KAREL and Roboguide</t>
+          <t>I had a great time designing and building this robotic arm. If anyone interested, files, bom and assembly manual will be available.</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f6gw01/how_can_i_get_into_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vowh3p/german_aistartup_older_industrial_robots_can_now/</t>
         </is>
       </c>
     </row>
@@ -7615,12 +7615,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>I'm giving robotics lessons to kids 5-12 years. Any ideas?</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/km15d3/question_on_karel_and_roboguide/</t>
+          <t>https://www.reddit.com/r/robotics/comments/11l56bb/i_had_a_great_time_designing_and_building_this/</t>
         </is>
       </c>
     </row>
@@ -7632,12 +7632,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Foxconn's First Robot is Here</t>
+          <t>Making a Business of Robotics - How do I go from a prototype to a product?</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/quhtqc/im_giving_robotics_lessons_to_kids_512_years_any/</t>
+          <t>https://www.reddit.com/r/robotics/comments/n1kxq0/automation/</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Plumbing robot</t>
+          <t>What to do with a giant industrial robot arm</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/13cv63/foxconns_first_robot_is_here/</t>
+          <t>https://www.reddit.com/r/robotics/comments/i5u2cc/making_a_business_of_robotics_how_do_i_go_from_a/</t>
         </is>
       </c>
     </row>
@@ -7666,12 +7666,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>This Company’s Robots Are Making Everything—and Reshaping the World</t>
+          <t>Draw and write anything with ABB robots - IRB Drawing Interface</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1d79cz1/plumbing_robot/</t>
+          <t>https://www.reddit.com/r/robotics/comments/abfbda/what_to_do_with_a_giant_industrial_robot_arm/</t>
         </is>
       </c>
     </row>
@@ -7683,12 +7683,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tipsy Robot Bar in Las Vegas</t>
+          <t>Automotive industry shop with 4 different robots - Best offline programming software?</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/777zty/this_companys_robots_are_making_everythingand/</t>
+          <t>https://www.reddit.com/r/robotics/comments/9mpcu7/draw_and_write_anything_with_abb_robots_irb/</t>
         </is>
       </c>
     </row>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>What can you use robotic arms for?</t>
+          <t>Next big things in robotics?</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9011d9/tipsy_robot_bar_in_las_vegas/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vhz2qh/automotive_industry_shop_with_4_different_robots/</t>
         </is>
       </c>
     </row>
@@ -7717,12 +7717,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Anyone ever take the construct robotics software development program?</t>
+          <t>Career Advice?</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5u8y97/what_can_you_use_robotic_arms_for/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1diw6eq/next_big_things_in_robotics/</t>
         </is>
       </c>
     </row>
@@ -7734,12 +7734,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Hobbyist robot to learn how to program industrial ones</t>
+          <t>So why doesn't robotics work?</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/14a7hwu/anyone_ever_take_the_construct_robotics_software/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vatu9i/career_advice/</t>
         </is>
       </c>
     </row>
@@ -7751,12 +7751,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>If any of you are Robotics/Automation technicians, what are your typical duties? Also, what training led you to get your job?</t>
+          <t>Weekly Question - Recommendation - Help Thread</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/aco4qd/hobbyist_robot_to_learn_how_to_program_industrial/</t>
+          <t>https://www.reddit.com/r/robotics/comments/kma1ld/so_why_doesnt_robotics_work/</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>New guy needs help</t>
+          <t>'99 Seiko/Epson SCARA Hobby Retrofit</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gs6pbo/if_any_of_you_are_roboticsautomation_technicians/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vw4q5h/weekly_question_recommendation_help_thread/</t>
         </is>
       </c>
     </row>
@@ -7785,12 +7785,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>*need advice* student looking to order ~$10K of robotics components for a college</t>
+          <t>New robot came today, we decided to make it taller (6 ft ladder for scale).</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9f16l4/new_guy_needs_help/</t>
+          <t>https://www.reddit.com/r/robotics/comments/rvzc1c/99_seikoepson_scara_hobby_retrofit/</t>
         </is>
       </c>
     </row>
@@ -7802,12 +7802,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Best industrial robots?</t>
+          <t>Robotics engineers, how did YOU get into the field?</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/qht13e/need_advice_student_looking_to_order_10k_of/</t>
+          <t>https://www.reddit.com/r/robotics/comments/3ihr8c/new_robot_came_today_we_decided_to_make_it_taller/</t>
         </is>
       </c>
     </row>
@@ -7819,12 +7819,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TL:DR – I’m looking for problems people face in their work.</t>
+          <t>Need help with an Automation project I'm working on</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hc45fc/best_industrial_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/4issvb/robotics_engineers_how_did_you_get_into_the_field/</t>
         </is>
       </c>
     </row>
@@ -7836,12 +7836,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Process I/O Board</t>
+          <t>Minimum RAM required for a robot?</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fqvkoa/tldr_im_looking_for_problems_people_face_in_their/</t>
+          <t>https://www.reddit.com/r/robotics/comments/sptzx8/need_help_with_an_automation_project_im_working_on/</t>
         </is>
       </c>
     </row>
@@ -7853,12 +7853,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Did I choose wrong?</t>
+          <t>Ergonomics record of a cobot</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hnco6n/process_io_board/</t>
+          <t>https://www.reddit.com/r/robotics/comments/10rr1ji/minimum_ram_required_for_a_robot/</t>
         </is>
       </c>
     </row>
@@ -7870,12 +7870,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Language Between Brands</t>
+          <t>A robotic arm simulation software</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fgmmcb/did_i_choose_wrong/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ti0560/ergonomics_record_of_a_cobot/</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Why is ROS only used in academia?</t>
+          <t>Robot Selection Help</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gyobnf/language_between_brands/</t>
+          <t>https://www.reddit.com/r/robotics/comments/j8sepa/a_robotic_arm_simulation_software/</t>
         </is>
       </c>
     </row>
@@ -7904,12 +7904,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Panasonic Robotic Welder</t>
+          <t>Finally: childhood dream fulfilled. It just came in the mail, the HeathKit Hero. I want to rebuild him for the modern era.</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f95pvk/why_is_ros_only_used_in_academia/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ozxtot/robot_selection_help/</t>
         </is>
       </c>
     </row>
@@ -7921,12 +7921,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Career path for programming robots?</t>
+          <t>Can I apply reinforcement learning to robot teaching?</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/fwudbd/panasonic_robotic_welder/</t>
+          <t>https://www.reddit.com/r/robotics/comments/gcwf8b/finally_childhood_dream_fulfilled_it_just_came_in/</t>
         </is>
       </c>
     </row>
@@ -7938,12 +7938,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Robotics in Colorado?</t>
+          <t>Why are Universal Robots so expensive?</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8pdyst/career_path_for_programming_robots/</t>
+          <t>https://www.reddit.com/r/robotics/comments/b6j31p/can_i_apply_reinforcement_learning_to_robot/</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,913 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Two motor spider bot</t>
+          <t>Why isn't industrial robotics / automation more widespread?</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
+          <t>https://www.reddit.com/r/robotics/comments/14bawkt/why_are_universal_robots_so_expensive/</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Robotics jobs - recession proof</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/gaw6tm/why_isnt_industrial_robotics_automation_more/</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>7 Axis Articulated Arm from Scratch.</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/121dx9p/robotics_jobs_recession_proof/</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Recommendation for a robot arm with SDK or API to perform gripper research</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/mjydvx/7_axis_articulated_arm_from_scratch/</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Need Help for a school project</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9vd57y/recommendation_for_a_robot_arm_with_sdk_or_api_to/</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Chances of getting a job in robotics</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/q5epa7/need_help_for_a_school_project/</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Residential Construction Robot - Looking to Hire</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9cc270/chances_of_getting_a_job_in_robotics/</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Does anyone have experience with UFactory's xArm 6/7?</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/k3bh9c/residential_construction_robot_looking_to_hire/</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Anyone have experience with the AR3</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/jkhnff/does_anyone_have_experience_with_ufactorys_xarm_67/</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Advice on learning industrial robotics</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/jl9k9e/anyone_have_experience_with_the_ar3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Newbie question: Am interested in robootics and have a programming background but I have no idea where to start</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1g2t5zo/advice_on_learning_industrial_robotics/</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Welding Robotics</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/2m6nzp/newbie_question_am_interested_in_robootics_and/</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Open Source (Industrial) Robotics Controller - what do you think?</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/15jd962/welding_robotics/</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Palletizing with CoBots by Universal Robotics (UR5E)</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9b7sri/open_source_industrial_robotics_controller_what/</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>How can I become a robotics engineer?</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/r4wj1z/palletizing_with_cobots_by_universal_robotics_ur5e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Multi-physics engine simulation</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/isfo0b/how_can_i_become_a_robotics_engineer/</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Is "in-house" ever going to be a phenomenon in industrial robotics</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1dz0hst/multiphysics_engine_simulation/</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Questions about choosing the right master project and RAPID programming.</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/8qoked/is_inhouse_ever_going_to_be_a_phenomenon_in/</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Palletization problems with a giant handling robot... any ideas?</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1df4sl/questions_about_choosing_the_right_master_project/</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Is the US job market really bad right now?</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5o2zhu/palletization_problems_with_a_giant_handling/</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Anyone interested in Industrial Weld and Material Handling robots?</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/15gj4x1/is_the_us_job_market_really_bad_right_now/</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Careers in robotics?</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/52562i/anyone_interested_in_industrial_weld_and_material/</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Robotic System for Sorting Recyclables – Waste Robotics</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/mo0w5/careers_in_robotics/</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Passing Ethernet/USB through a robot?</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/bepv7g/robotic_system_for_sorting_recyclables_waste/</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Foxconn's First Robot is Here</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/sq3t9f/passing_ethernetusb_through_a_robot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>TL:DR – I’m looking for problems people face in their work.</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/13cv63/foxconns_first_robot_is_here/</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Question on KAREL and Roboguide</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1fqvkoa/tldr_im_looking_for_problems_people_face_in_their/</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>If any of you are Robotics/Automation technicians, what are your typical duties? Also, what training led you to get your job?</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/km15d3/question_on_karel_and_roboguide/</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Where to find customers for industrial robots, integration services?</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/gs6pbo/if_any_of_you_are_roboticsautomation_technicians/</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>CAD software with the easiest learning curve</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9os8ee/where_to_find_customers_for_industrial_robots/</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>This Company’s Robots Are Making Everything—and Reshaping the World</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1f9mp81/cad_software_with_the_easiest_learning_curve/</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>I'm giving robotics lessons to kids 5-12 years. Any ideas?</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/777zty/this_companys_robots_are_making_everythingand/</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>What can you use robotic arms for?</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/quhtqc/im_giving_robotics_lessons_to_kids_512_years_any/</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Industrial Robotic Arm Programming.</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5u8y97/what_can_you_use_robotic_arms_for/</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Hobbyist robot to learn how to program industrial ones</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ki3y59/industrial_robotic_arm_programming/</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>*need advice* student looking to order ~$10K of robotics components for a college</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/aco4qd/hobbyist_robot_to_learn_how_to_program_industrial/</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>[Question] What is the most commonly used brand of Industrial Robots in the United States?</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/qht13e/need_advice_student_looking_to_order_10k_of/</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Devlog 3rd, 4th and 5th Axis (6DOF)</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/55szcq/question_what_is_the_most_commonly_used_brand_of/</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>New guy needs help</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/16zrbdx/devlog_3rd_4th_and_5th_axis_6dof/</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>KUKA 6-Axis Robot Arm Capabilities</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9f16l4/new_guy_needs_help/</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Best industrial robots?</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/rb0xo7/kuka_6axis_robot_arm_capabilities/</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Anyone ever take the construct robotics software development program?</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/hc45fc/best_industrial_robots/</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Anyone using a 3-D printed robotic gripper?</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/14a7hwu/anyone_ever_take_the_construct_robotics_software/</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Career path for programming robots?</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/33ip9c/anyone_using_a_3d_printed_robotic_gripper/</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Process I/O Board</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/8pdyst/career_path_for_programming_robots/</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Did I choose wrong?</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/hnco6n/process_io_board/</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Language Between Brands</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1fgmmcb/did_i_choose_wrong/</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Tipsy Robot Bar in Las Vegas</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/gyobnf/language_between_brands/</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Panasonic Robotic Welder</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9011d9/tipsy_robot_bar_in_las_vegas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Looking to buy a robotic arm</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/fwudbd/panasonic_robotic_welder/</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Robotics in Colorado?</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/sl0mrj/looking_to_buy_a_robotic_arm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Please help with ABB IRB6600</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/robotics/comments/1wuit3/robotics_in_colorado/</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Robotic Engineering</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/197xmv3/please_help_with_abb_irb6600/</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Robots Operating Fablabs To Make More Robots?</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/8imud7/robotic_engineering/</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/8_競品分析_fanuc.xlsx
+++ b/auto/new_data/8_競品分析_fanuc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C496"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>website</t>
         </is>
       </c>
@@ -458,12 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FANUC Guys do you use the FANUC manual guide conversational programming?</t>
+          <t>10+ Years Running Fanuc. New Job Has a Lot of HAAS. Good place to learn their basics? (Mills)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12g8lc1/cnc_simulator/</t>
+          <t>2023-05-16T14:34:05.839Z</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/13j6y32/today_i_learned_fanuc_needs_to_know_your_mills/</t>
         </is>
       </c>
     </row>
@@ -475,12 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Today i learned Fanuc needs to know your Mills Radius in the tool-menu and it's not given in the program</t>
+          <t>Ez guide I for fanuc.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b7bcgc/fanuc_guys_do_you_use_the_fanuc_manual_guide/</t>
+          <t>2023-10-19T14:49:51.175Z</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/17bkyl8/10_years_running_fanuc_new_job_has_a_lot_of_haas/</t>
         </is>
       </c>
     </row>
@@ -492,12 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fanuc. Fuhnook or Fannik ?</t>
+          <t>Fanuc 31i-model A sub programs?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13j6y32/today_i_learned_fanuc_needs_to_know_your_mills/</t>
+          <t>2024-10-06T22:05:28.246Z</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fxs87g/ez_guide_i_for_fanuc/</t>
         </is>
       </c>
     </row>
@@ -509,12 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ez guide I for fanuc.</t>
+          <t>1981 old school Fanuc.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pmz4sr/fanuc_fuhnook_or_fannik/</t>
+          <t>2017-08-29T02:52:36.112Z</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/6wogms/fanuc_31imodel_a_sub_programs/</t>
         </is>
       </c>
     </row>
@@ -526,12 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10+ Years Running Fanuc. New Job Has a Lot of HAAS. Good place to learn their basics? (Mills)</t>
+          <t>Fanuc question</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fxs87g/ez_guide_i_for_fanuc/</t>
+          <t>2024-11-10T14:47:56.314Z</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1go28l5/1981_old_school_fanuc/</t>
         </is>
       </c>
     </row>
@@ -543,12 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fanuc question</t>
+          <t>Fanuc 3T Calling all Dinosaurs. Anyone have experience with this controller??</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17bkyl8/10_years_running_fanuc_new_job_has_a_lot_of_haas/</t>
+          <t>2024-09-13T15:05:32.526Z</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1ffwzqg/fanuc_question/</t>
         </is>
       </c>
     </row>
@@ -560,12 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fanuc I series conversational programming</t>
+          <t>Fanuc Search in Auto Parameter</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ffwzqg/fanuc_question/</t>
+          <t>2024-10-09T01:47:09.040Z</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fzgifz/fanuc_3t_calling_all_dinosaurs_anyone_have/</t>
         </is>
       </c>
     </row>
@@ -577,12 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fanuc 3T Calling all Dinosaurs. Anyone have experience with this controller??</t>
+          <t>And/or statements Fanuc Oi-TD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cy8b2q/fanuc_i_series_conversational_programming/</t>
+          <t>2024-01-23T17:12:18.929Z</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/19dtcgr/fanuc_search_in_auto_parameter/</t>
         </is>
       </c>
     </row>
@@ -594,12 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fanuc programming help.</t>
+          <t>Fanuc I series conversational programming</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fzgifz/fanuc_3t_calling_all_dinosaurs_anyone_have/</t>
+          <t>2024-11-12T05:16:39.225Z</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1gpdgba/andor_statements_fanuc_oitd/</t>
         </is>
       </c>
     </row>
@@ -616,7 +666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15rc8ph/fanuc_programming_help/</t>
+          <t>2024-05-22T19:01:02.153Z</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1cy8b2q/fanuc_i_series_conversational_programming/</t>
         </is>
       </c>
     </row>
@@ -628,10 +683,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dear FANUC enjoyers…</t>
+          <t>Fanuc changes machine position when powering off</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-07-23T15:38:42.167Z</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/Machinists/comments/1eaayle/how_to_change_program_files_text_inside_fanuc/</t>
         </is>
@@ -645,12 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SMEC lathe with fanuc oi-TF control question</t>
+          <t>Fanuc adjustment confirmation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d855w7/dear_fanuc_enjoyers/</t>
+          <t>2023-07-05T17:25:29.279Z</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/14rhagl/fanuc_changes_machine_position_when_powering_off/</t>
         </is>
       </c>
     </row>
@@ -662,12 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fanuc changes machine position when powering off</t>
+          <t>SMEC lathe with fanuc oi-TF control question</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1g5kawy/smec_lathe_with_fanuc_oitf_control_question/</t>
+          <t>2024-11-07T13:46:06.821Z</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1glqsb6/fanuc_adjustment_confirmation/</t>
         </is>
       </c>
     </row>
@@ -679,12 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Anyone use tool life monitoring on regular or swiss lathes with Fanuc oi controls?</t>
+          <t>Trying to output variables to a text file, please help (FANUC)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14rhagl/fanuc_changes_machine_position_when_powering_off/</t>
+          <t>2024-10-17T06:09:00.579Z</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1g5kawy/smec_lathe_with_fanuc_oitf_control_question/</t>
         </is>
       </c>
     </row>
@@ -696,12 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Anyone have experience with using PCMIA memory cards on fanuc controls?</t>
+          <t>Anyone use tool life monitoring on regular or swiss lathes with Fanuc oi controls?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fqsuu9/anyone_use_tool_life_monitoring_on_regular_or/</t>
+          <t>2024-06-24T00:02:12.963Z</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1dn01kt/trying_to_output_variables_to_a_text_file_please/</t>
         </is>
       </c>
     </row>
@@ -713,12 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fanuc fixed form</t>
+          <t>New to Fanuc control</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dsxgim/anyone_have_experience_with_using_pcmia_memory/</t>
+          <t>2024-09-27T17:13:25.798Z</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fqsuu9/anyone_use_tool_life_monitoring_on_regular_or/</t>
         </is>
       </c>
     </row>
@@ -730,12 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fanuc gets to same line in program then just stops… no errors</t>
+          <t>Anyone have experience with using PCMIA memory cards on fanuc controls?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fwqxxj/fanuc_fixed_form/</t>
+          <t>2023-02-02T14:46:11.967Z</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/10rri6q/new_to_fanuc_control/</t>
         </is>
       </c>
     </row>
@@ -747,12 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fanuc Waveform Trace</t>
+          <t>Struggling with Fanuc Drilling</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x7bzle/fanuc_gets_to_same_line_in_program_then_just/</t>
+          <t>2024-07-01T16:35:19.672Z</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1dsxgim/anyone_have_experience_with_using_pcmia_memory/</t>
         </is>
       </c>
     </row>
@@ -764,12 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Need Help with macro variables (Fanuc O/ mf-d4)</t>
+          <t>Fanuc fixed form</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fuyfxr/fanuc_waveform_trace/</t>
+          <t>2024-01-23T16:06:04.077Z</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/19drsyf/struggling_with_fanuc_drilling/</t>
         </is>
       </c>
     </row>
@@ -781,12 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What the Fanuc (Sketch and the muse I used for reference)</t>
+          <t>Fanuc programming help.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1eextkz/need_help_with_macro_variables_fanuc_o_mfd4/</t>
+          <t>2024-10-05T13:54:47.280Z</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fwqxxj/fanuc_fixed_form/</t>
         </is>
       </c>
     </row>
@@ -798,12 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Eco mode on Fanuc?</t>
+          <t>Dear FANUC enjoyers…</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fvxqed/what_the_fanuc_sketch_and_the_muse_i_used_for/</t>
+          <t>2023-08-15T00:23:10.032Z</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/15rc8ph/fanuc_programming_help/</t>
         </is>
       </c>
     </row>
@@ -815,12 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fanuc local pass through variables</t>
+          <t>Fanuc Door Lock Parameter</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xohlta/eco_mode_on_fanuc/</t>
+          <t>2024-06-04T19:02:45.034Z</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1d855w7/dear_fanuc_enjoyers/</t>
         </is>
       </c>
     </row>
@@ -832,12 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fanuc 31i model B help</t>
+          <t>Fanuc Waveform Trace</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fr5h5j/fanuc_local_pass_through_variables/</t>
+          <t>2024-06-03T15:45:49.749Z</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1d77lzs/fanuc_door_lock_parameter/</t>
         </is>
       </c>
     </row>
@@ -849,12 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fanuc programming help to disable chuck sensor during part change</t>
+          <t>how do i get the fanuc manual guide-i manual out of my machine?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dvcl0y/fanuc_31i_model_b_help/</t>
+          <t>2024-10-03T03:14:38.200Z</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fuyfxr/fanuc_waveform_trace/</t>
         </is>
       </c>
     </row>
@@ -866,12 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Trying to output variables to a text file, please help (FANUC)</t>
+          <t>What the Fanuc (Sketch and the muse I used for reference)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fkkcyh/fanuc_programming_help_to_disable_chuck_sensor/</t>
+          <t>2023-12-07T21:57:49.830Z</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/18d6syc/how_do_i_get_the_fanuc_manual_guidei_manual_out/</t>
         </is>
       </c>
     </row>
@@ -883,12 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lost parameters on Fanuc 18-T</t>
+          <t>Fanuc program transfer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dn01kt/trying_to_output_variables_to_a_text_file_please/</t>
+          <t>2024-10-04T12:17:13.900Z</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fvxqed/what_the_fanuc_sketch_and_the_muse_i_used_for/</t>
         </is>
       </c>
     </row>
@@ -900,12 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fanuc program transfer</t>
+          <t>Fanuc local pass through variables</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ff7r60/lost_parameters_on_fanuc_18t/</t>
+          <t>2023-03-21T15:41:14.478Z</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/11xkl25/fanuc_program_transfer/</t>
         </is>
       </c>
     </row>
@@ -917,12 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fanuc Door Lock Parameter</t>
+          <t>Need Help with macro variables (Fanuc O/ mf-d4)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11xkl25/fanuc_program_transfer/</t>
+          <t>2024-09-28T03:29:54.576Z</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fr5h5j/fanuc_local_pass_through_variables/</t>
         </is>
       </c>
     </row>
@@ -934,12 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Using GOTO in Fanuc</t>
+          <t>Fanuc programming help to disable chuck sensor during part change</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d77lzs/fanuc_door_lock_parameter/</t>
+          <t>2024-07-29T12:06:11.081Z</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1eextkz/need_help_with_macro_variables_fanuc_o_mfd4/</t>
         </is>
       </c>
     </row>
@@ -951,12 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Anyone know how to change signal tree lamp settings Fanuc Oi-TD?</t>
+          <t>Using GOTO in Fanuc</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/nhde37/using_goto_in_fanuc/</t>
+          <t>2024-09-19T13:05:17.117Z</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fkkcyh/fanuc_programming_help_to_disable_chuck_sensor/</t>
         </is>
       </c>
     </row>
@@ -968,12 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What is the most accurate way or quickest way of setting your G 54 aka X diameter and Z zero on CNC lathe (Fanuc ISO G code MCU.)</t>
+          <t>Lost parameters on Fanuc 18-T</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fffx8d/anyone_know_how_to_change_signal_tree_lamp/</t>
+          <t>2021-05-20T22:29:52.999Z</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/nhde37/using_goto_in_fanuc/</t>
         </is>
       </c>
     </row>
@@ -985,12 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Help with fanuc-I error</t>
+          <t>How to cold start a fanuc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1azdv2c/what_is_the_most_accurate_way_or_quickest_way_of/</t>
+          <t>2024-09-12T17:08:51.285Z</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1ff7r60/lost_parameters_on_fanuc_18t/</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Calculating minor diameter in thread cutting g 76 fanuc.</t>
+          <t>What is the most accurate way or quickest way of setting your G 54 aka X diameter and Z zero on CNC lathe (Fanuc ISO G code MCU.)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/142trsb/help_with_fanuci_error/</t>
+          <t>2019-05-30T20:46:53.825Z</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/buybwj/how_to_cold_start_a_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1189,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>How to cold start a fanuc</t>
+          <t>Anyone know how to change signal tree lamp settings Fanuc Oi-TD?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d5tx3g/calculating_minor_diameter_in_thread_cutting_g_76/</t>
+          <t>2024-02-25T03:25:45.744Z</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1azdv2c/what_is_the_most_accurate_way_or_quickest_way_of/</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>New doosan fanuc mill problems.</t>
+          <t>Any way to add more memory to Fanuc 0i-MF control, its a hardinge bridgeport v1000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/buybwj/how_to_cold_start_a_fanuc/</t>
+          <t>2024-09-12T22:58:28.684Z</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1fffx8d/anyone_know_how_to_change_signal_tree_lamp/</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fanuc Error on Series 35i-Model B</t>
+          <t>Calculating minor diameter in thread cutting g 76 fanuc.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1errl1i/new_doosan_fanuc_mill_problems/</t>
+          <t>2022-02-23T15:49:23.840Z</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/szkkav/any_way_to_add_more_memory_to_fanuc_0imf_control/</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1255,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fanuc to Tosnuc variable equivalents</t>
+          <t>Fanuc 31i model B help</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14g2ywk/fanuc_error_on_series_35imodel_b/</t>
+          <t>2024-06-01T18:50:25.922Z</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1d5tx3g/calculating_minor_diameter_in_thread_cutting_g_76/</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>I've made a huge mistake - Fanuc 21-T</t>
+          <t>New doosan fanuc mill problems.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1f45nxb/fanuc_to_tosnuc_variable_equivalents/</t>
+          <t>2024-07-04T17:36:37.124Z</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1dvcl0y/fanuc_31i_model_b_help/</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1299,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fanuc 5-axis Programming?</t>
+          <t>I've made a huge mistake - Fanuc 21-T</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pudavy/ive_made_a_huge_mistake_fanuc_21t/</t>
+          <t>2024-08-14T03:34:21.803Z</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1errl1i/new_doosan_fanuc_mill_problems/</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Any way to add more memory to Fanuc 0i-MF control, its a hardinge bridgeport v1000</t>
+          <t>Fanuc 5-axis Programming?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1amurnv/fanuc_5axis_programming/</t>
+          <t>2021-09-24T05:34:23.864Z</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/pudavy/ive_made_a_huge_mistake_fanuc_21t/</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1343,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Learning resources on programming and setting off center holes pattern drilling, tapping and boring for fanuc cnc lathe</t>
+          <t>New Machine Day: Fanuc Wire. Never to be this clean again.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/szkkav/any_way_to_add_more_memory_to_fanuc_0imf_control/</t>
+          <t>2024-02-09T18:19:27.891Z</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1amurnv/fanuc_5axis_programming/</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1365,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Advice on Increasing My Skill with Fanuc</t>
+          <t>Fanuc to Tosnuc variable equivalents</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1f1x4um/learning_resources_on_programming_and_setting_off/</t>
+          <t>2021-03-17T14:49:59.060Z</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/m723fh/new_machine_day_fanuc_wire_never_to_be_this_clean/</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Recover pallet kitamura mycenter hx800g fanuc control</t>
+          <t>Advice on Increasing My Skill with Fanuc</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ca8d90/advice_on_increasing_my_skill_with_fanuc/</t>
+          <t>2024-08-29T15:43:23.851Z</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1f45nxb/fanuc_to_tosnuc_variable_equivalents/</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Be dead honest...</t>
+          <t>Learning resources on programming and setting off center holes pattern drilling, tapping and boring for fanuc cnc lathe</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1f41n51/recover_pallet_kitamura_mycenter_hx800g_fanuc/</t>
+          <t>2019-07-07T16:00:11.214Z</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/ca8d90/advice_on_increasing_my_skill_with_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DMG CMX1100V FANUC ISSUE</t>
+          <t>Fanuc Error on Series 35i-Model B</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/153ai6u/be_dead_honest/</t>
+          <t>2024-08-26T19:35:38.560Z</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1f1x4um/learning_resources_on_programming_and_setting_off/</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fanuc Memory Card Drip Feed</t>
+          <t>Recover pallet kitamura mycenter hx800g fanuc control</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1csx2dh/dmg_cmx1100v_fanuc_issue/</t>
+          <t>2023-06-22T13:01:46.071Z</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/14g2ywk/fanuc_error_on_series_35imodel_b/</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1475,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fanuc Macro B on MAZAK equipment?</t>
+          <t>Be dead honest...</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/yx9kn3/fanuc_memory_card_drip_feed/</t>
+          <t>2024-08-29T12:53:27.032Z</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1f41n51/recover_pallet_kitamura_mycenter_hx800g_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Switching from heidenhain 530 to fanuc i4</t>
+          <t>That radius is not a typo. My old FANUC 0M told me to f off with p/s alarm 003 (too many digits)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1e6dnaf/fanuc_macro_b_on_mazak_equipment/</t>
+          <t>2023-07-18T21:09:56.954Z</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/153ai6u/be_dead_honest/</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1519,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Struggling with Fanuc Drilling</t>
+          <t>Fanuc Help</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/oav13o/switching_from_heidenhain_530_to_fanuc_i4/</t>
+          <t>2019-09-02T07:15:53.700Z</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/cylrft/that_radius_is_not_a_typo_my_old_fanuc_0m_told_me/</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1541,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fanuc Help</t>
+          <t>DMG CMX1100V FANUC ISSUE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/19drsyf/struggling_with_fanuc_drilling/</t>
+          <t>2023-03-09T15:59:49.453Z</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/11mvuep/fanuc_help/</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>That radius is not a typo. My old FANUC 0M told me to f off with p/s alarm 003 (too many digits)</t>
+          <t>Fanuc overtravel</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11mvuep/fanuc_help/</t>
+          <t>2024-05-15T22:01:09.790Z</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1csx2dh/dmg_cmx1100v_fanuc_issue/</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1585,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tool angle in fanuc tool table, what angle to fill in?</t>
+          <t>Fanuc Macro B on MAZAK equipment?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/cylrft/that_radius_is_not_a_typo_my_old_fanuc_0m_told_me/</t>
+          <t>2019-10-18T01:16:47.902Z</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/djg00c/fanuc_overtravel/</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Siemens, Heidenhain or Fanuc I Plus control?</t>
+          <t>Doosan Lathe Fanuc Panel Lagging</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18d5swd/tool_angle_in_fanuc_tool_table_what_angle_to_fill/</t>
+          <t>2024-07-18T15:03:28.720Z</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1e6dnaf/fanuc_macro_b_on_mazak_equipment/</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1629,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FANUC 35i - Model B Error</t>
+          <t>Siemens, Heidenhain or Fanuc I Plus control?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17hwacp/siemens_heidenhain_or_fanuc_i_plus_control/</t>
+          <t>2024-05-07T01:57:34.064Z</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1cm0hor/doosan_lathe_fanuc_panel_lagging/</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1651,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>lathe is ignoring my profile z depth, how? (fanuc)</t>
+          <t>Is it possible to see history of changes made in control panel? (FANUC)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14jlrxc/fanuc_35i_model_b_error/</t>
+          <t>2023-10-27T20:09:36.093Z</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/17hwacp/siemens_heidenhain_or_fanuc_i_plus_control/</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1673,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FANUC Field Service Engineer Interview</t>
+          <t>lathe is ignoring my profile z depth, how? (fanuc)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17lbcn7/lathe_is_ignoring_my_profile_z_depth_how_fanuc/</t>
+          <t>2019-12-12T20:51:05.278Z</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/e9tf92/is_it_possible_to_see_history_of_changes_made_in/</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tsugami BW209Z, Fanuc 31i-b; running/automatically distributing programs from flash drive?</t>
+          <t>Setting Tool offsets on Fanuc Lathe</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/43bc67/fanuc_field_service_engineer_interview/</t>
+          <t>2023-11-01T12:48:40.942Z</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/17lbcn7/lathe_is_ignoring_my_profile_z_depth_how_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Is it possible to see history of changes made in control panel? (FANUC)</t>
+          <t>Tsugami BW209Z, Fanuc 31i-b; running/automatically distributing programs from flash drive?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d8xsix/tsugami_bw209z_fanuc_31ib_runningautomatically/</t>
+          <t>2022-11-24T19:19:40.082Z</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/z3sb5e/setting_tool_offsets_on_fanuc_lathe/</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>OD Engraving Issue on New DN Solutions (Doosan) Puma 2600 Y II with Fanuc Control</t>
+          <t>FANUC Field Service Engineer Interview</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/e9tf92/is_it_possible_to_see_history_of_changes_made_in/</t>
+          <t>2024-06-05T18:57:58.503Z</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1d8xsix/tsugami_bw209z_fanuc_31ib_runningautomatically/</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Setting Tool offsets on Fanuc Lathe</t>
+          <t>Fanuc gets to same line in program then just stops… no errors</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cszr8j/od_engraving_issue_on_new_dn_solutions_doosan/</t>
+          <t>2016-01-29T22:50:33.533Z</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/43bc67/fanuc_field_service_engineer_interview/</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Doosan Lathe Fanuc Panel Lagging</t>
+          <t>FANUC 35i - Model B Error</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/z3sb5e/setting_tool_offsets_on_fanuc_lathe/</t>
+          <t>2022-09-06T14:27:03.931Z</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/x7bzle/fanuc_gets_to_same_line_in_program_then_just/</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1805,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Need Help - Full rapid crash in Z during tool change - Fanuc Robodrill- Fanuc 16iM</t>
+          <t>OD Engraving Issue on New DN Solutions (Doosan) Puma 2600 Y II with Fanuc Control</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cm0hor/doosan_lathe_fanuc_panel_lagging/</t>
+          <t>2023-06-26T16:21:44.585Z</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/14jlrxc/fanuc_35i_model_b_error/</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1827,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fanuc tool offset issues</t>
+          <t>Brother speedio vs fanuc robodrill</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qnp62j/need_help_full_rapid_crash_in_z_during_tool/</t>
+          <t>2024-05-16T00:04:55.112Z</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1cszr8j/od_engraving_issue_on_new_dn_solutions_doosan/</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1849,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>How to Find Fanuc Control Version</t>
+          <t>Fanuc controls on this 90s car</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1bb38pw/fanuc_tool_offset_issues/</t>
+          <t>2021-11-26T21:08:54.051Z</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/r2wuza/brother_speedio_vs_fanuc_robodrill/</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1871,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fanuc controls on this 90s car</t>
+          <t>Drip feeding on a 21-t fanuc controller</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tbxrjj/how_to_find_fanuc_control_version/</t>
+          <t>2023-01-11T07:07:56.535Z</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/108yff0/fanuc_controls_on_this_90s_car/</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1893,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fanuc manual guide-i lathe</t>
+          <t>Paying tax, but I have some questions about code in FANUC controllers in comments</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/108yff0/fanuc_controls_on_this_90s_car/</t>
+          <t>2022-10-25T13:54:36.680Z</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/yd5fgd/drip_feeding_on_a_21t_fanuc_controller/</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1915,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Paying tax, but I have some questions about code in FANUC controllers in comments</t>
+          <t>Anyone familiar with Fanuc spindle parameters?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1135yap/fanuc_manual_guidei_lathe/</t>
+          <t>2022-01-12T13:59:10.430Z</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/s26vm7/paying_tax_but_i_have_some_questions_about_code/</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1937,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H and T match on Fanuc controls?</t>
+          <t>Fanuc tool offset issues</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/s26vm7/paying_tax_but_i_have_some_questions_about_code/</t>
+          <t>2020-12-18T16:40:29.932Z</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/kfojix/anyone_familiar_with_fanuc_spindle_parameters/</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1959,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>how do i get the fanuc manual guide-i manual out of my machine?</t>
+          <t>Need help with understanding fanuc G131</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/oodm0z/h_and_t_match_on_fanuc_controls/</t>
+          <t>2024-03-10T06:07:38.956Z</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1bb38pw/fanuc_tool_offset_issues/</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1981,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fanuc 35i Error Code; Can’t get them to clear even after fixing issues with cables</t>
+          <t>Anyone know what the symbol at the end of the file means? Newer fanuc control</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18d6syc/how_do_i_get_the_fanuc_manual_guidei_manual_out/</t>
+          <t>2023-01-17T21:26:17.008Z</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/10eo23m/need_help_with_understanding_fanuc_g131/</t>
         </is>
       </c>
     </row>
@@ -1648,12 +2003,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Anyone know what the symbol at the end of the file means? Newer fanuc control</t>
+          <t>Fanuc 35i Error Code; Can’t get them to clear even after fixing issues with cables</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xf3wh0/fanuc_35i_error_code_cant_get_them_to_clear_even/</t>
+          <t>2023-10-17T23:49:25.510Z</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/17acgso/anyone_know_what_the_symbol_at_the_end_of_the/</t>
         </is>
       </c>
     </row>
@@ -1665,12 +2025,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>King Kong fanuc robot arm - imts 2018</t>
+          <t>Help producing a big rad on a fanuc Doosan</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17acgso/anyone_know_what_the_symbol_at_the_end_of_the/</t>
+          <t>2022-09-15T18:21:47.747Z</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/xf3wh0/fanuc_35i_error_code_cant_get_them_to_clear_even/</t>
         </is>
       </c>
     </row>
@@ -1682,12 +2047,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fanuc Search in Auto Parameter</t>
+          <t>Noob Help With Fanuc "009 Improper NC Address" Alarms</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/9ftgj2/king_kong_fanuc_robot_arm_imts_2018/</t>
+          <t>2024-03-09T17:50:50.126Z</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1bankrm/help_producing_a_big_rad_on_a_fanuc_doosan/</t>
         </is>
       </c>
     </row>
@@ -1699,12 +2069,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Brother speedio vs fanuc robodrill</t>
+          <t>Help! Tried to program restart on a fanuc 31i model B and fucked the program up</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/19dtcgr/fanuc_search_in_auto_parameter/</t>
+          <t>2022-03-03T10:11:01.944Z</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/t5od23/noob_help_with_fanuc_009_improper_nc_address/</t>
         </is>
       </c>
     </row>
@@ -1716,12 +2091,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Help producing a big rad on a fanuc Doosan</t>
+          <t>How To Find A Post Processor for Fanuc Lathe? (SOLIDCAM)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r2wuza/brother_speedio_vs_fanuc_robodrill/</t>
+          <t>2024-02-24T01:45:47.679Z</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1ayibit/help_tried_to_program_restart_on_a_fanuc_31i/</t>
         </is>
       </c>
     </row>
@@ -1733,12 +2113,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Drip feeding on a 21-t fanuc controller</t>
+          <t>Anyone got any experience with Fanuc iseries Plus controllers?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1bankrm/help_producing_a_big_rad_on_a_fanuc_doosan/</t>
+          <t>2021-08-03T06:35:35.358Z</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/owxp0o/how_to_find_a_post_processor_for_fanuc_lathe/</t>
         </is>
       </c>
     </row>
@@ -1750,12 +2135,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Help! Tried to program restart on a fanuc 31i model B and fucked the program up</t>
+          <t>Question for Fanuc people</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/yd5fgd/drip_feeding_on_a_21t_fanuc_controller/</t>
+          <t>2024-03-07T05:23:28.097Z</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1b8mg6k/anyone_got_any_experience_with_fanuc_iseries_plus/</t>
         </is>
       </c>
     </row>
@@ -1767,12 +2157,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Noob Help With Fanuc "009 Improper NC Address" Alarms</t>
+          <t>Tool angle in fanuc tool table, what angle to fill in?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ayibit/help_tried_to_program_restart_on_a_fanuc_31i/</t>
+          <t>2016-01-19T21:44:03.964Z</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/41qx1e/question_for_fanuc_people/</t>
         </is>
       </c>
     </row>
@@ -1784,12 +2179,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Anyone got any experience with Fanuc iseries Plus controllers?</t>
+          <t>Fanuc Relative changing when setting G54</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t5od23/noob_help_with_fanuc_009_improper_nc_address/</t>
+          <t>2023-12-07T21:14:12.646Z</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/18d5swd/tool_angle_in_fanuc_tool_table_what_angle_to_fill/</t>
         </is>
       </c>
     </row>
@@ -1801,12 +2201,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Question for Fanuc people</t>
+          <t>Tool Breakage Detection Fanuc iSeries Plus</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1b8mg6k/anyone_got_any_experience_with_fanuc_iseries_plus/</t>
+          <t>2024-01-29T16:46:36.707Z</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1adzs15/fanuc_relative_changing_when_setting_g54/</t>
         </is>
       </c>
     </row>
@@ -1818,12 +2223,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tool Breakage Detection Fanuc iSeries Plus</t>
+          <t>Fanuc memory card error 99</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/41qx1e/question_for_fanuc_people/</t>
+          <t>2024-01-31T15:15:07.411Z</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1afk414/tool_breakage_detection_fanuc_iseries_plus/</t>
         </is>
       </c>
     </row>
@@ -1835,12 +2245,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FANUC Macro B: DPRNT[range]</t>
+          <t>Need help: this is a Samsung mcv-50 with a fanuc oi-md control. Machine won't recognize a tool command. I've changed APC parameters for the tool pot and it knows its at home. Is there anyway to manually rotate the magazine if it's not in the right location. Don't hesitate to suggest anything.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1afk414/tool_breakage_detection_fanuc_iseries_plus/</t>
+          <t>2023-08-27T23:34:17.629Z</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1635tzd/fanuc_memory_card_error_99/</t>
         </is>
       </c>
     </row>
@@ -1852,12 +2267,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fanuc Relative changing when setting G54</t>
+          <t>Question for you guys who do cnc repair: what does a fanuc manual mean when it says "the optical cable connected to the CNC"? And is the wiring between a 18i and a 16i and the amps very different? Further info inside.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t3g2be/fanuc_macro_b_dprntrange/</t>
+          <t>2021-12-03T17:52:46.733Z</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/r84v9y/need_help_this_is_a_samsung_mcv50_with_a_fanuc/</t>
         </is>
       </c>
     </row>
@@ -1869,12 +2289,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Help! Cnc Anca/ Fanuc Robot</t>
+          <t>Fanuc ot guide-i inhibit turret index</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1adzs15/fanuc_relative_changing_when_setting_g54/</t>
+          <t>2021-09-01T20:20:08.879Z</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/pg26mv/question_for_you_guys_who_do_cnc_repair_what_does/</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2311,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fanuc ot guide-i inhibit turret index</t>
+          <t>Fanuc non zero reference setting</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/4dg7zj/help_cnc_anca_fanuc_robot/</t>
+          <t>2023-12-14T12:18:48.934Z</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/18i7f31/fanuc_ot_guidei_inhibit_turret_index/</t>
         </is>
       </c>
     </row>
@@ -1903,12 +2333,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Help with Nakamura running Fanuc 18i</t>
+          <t>Proud father, looks like my 1 year olds wants to get a head start on the fanuc manual</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18i7f31/fanuc_ot_guidei_inhibit_turret_index/</t>
+          <t>2022-12-28T16:34:12.340Z</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/zxe1jk/fanuc_non_zero_reference_setting/</t>
         </is>
       </c>
     </row>
@@ -1920,12 +2355,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Need help: this is a Samsung mcv-50 with a fanuc oi-md control. Machine won't recognize a tool command. I've changed APC parameters for the tool pot and it knows its at home. Is there anyway to manually rotate the magazine if it's not in the right location. Don't hesitate to suggest anything.</t>
+          <t>FANUC Series 35i Model B: Machine had abnormal voltage error and now controls are down and drives won’t stay on. Any help please!!</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/153ycua/help_with_nakamura_running_fanuc_18i/</t>
+          <t>2021-03-21T20:49:38.053Z</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/ma5td6/proud_father_looks_like_my_1_year_olds_wants_to/</t>
         </is>
       </c>
     </row>
@@ -1937,12 +2377,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>How To Find A Post Processor for Fanuc Lathe? (SOLIDCAM)</t>
+          <t>fanuc secret codes and lost manuals.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r84v9y/need_help_this_is_a_samsung_mcv50_with_a_fanuc/</t>
+          <t>2023-02-27T18:21:21.507Z</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/11dir4a/fanuc_series_35i_model_b_machine_had_abnormal/</t>
         </is>
       </c>
     </row>
@@ -1954,12 +2399,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lathe with a fanuc control. Can I thread mill using G92?</t>
+          <t>Fanuc 0-T Tool probe calibration</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/owxp0o/how_to_find_a_post_processor_for_fanuc_lathe/</t>
+          <t>2022-12-22T22:23:31.975Z</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/zsyoyp/fanuc_secret_codes_and_lost_manuals/</t>
         </is>
       </c>
     </row>
@@ -1971,12 +2421,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Drilling on alternate axis - Fanuc</t>
+          <t>Lathe with a fanuc control. Can I thread mill using G92?</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/179n5ph/lathe_with_a_fanuc_control_can_i_thread_mill/</t>
+          <t>2022-06-06T20:32:58.753Z</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/v6cwx3/fanuc_0t_tool_probe_calibration/</t>
         </is>
       </c>
     </row>
@@ -1988,12 +2443,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Proud father, looks like my 1 year olds wants to get a head start on the fanuc manual</t>
+          <t>Help with Nakamura running Fanuc 18i</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/113s8j3/drilling_on_alternate_axis_fanuc/</t>
+          <t>2023-10-17T01:56:04.757Z</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/179n5ph/lathe_with_a_fanuc_control_can_i_thread_mill/</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2465,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FANUC ALARM 930</t>
+          <t>variable program help. so i am trying to pull in variable 6711 which is the part counter. when it hits 38 i need the operator to change the tool. i keep getting alarm 115 illegal variable. control is a fanuc 16i-mb</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ma5td6/proud_father_looks_like_my_1_year_olds_wants_to/</t>
+          <t>2023-07-19T15:35:11.972Z</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/153ycua/help_with_nakamura_running_fanuc_18i/</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2487,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>fanuc secret codes and lost manuals.</t>
+          <t>Are industrial robotic arms (e.g. Fanuc) usable for any serious milling work?</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1533cw4/fanuc_alarm_930/</t>
+          <t>2023-03-07T17:21:20.503Z</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/11l5adj/variable_program_help_so_i_am_trying_to_pull_in/</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2509,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>We've just installed our first wire EDM machine (FANUC ROBOCUT α-C600iC). Which CAM would you experienced burners recommend for jobs that require tilting? Thank you in advance.</t>
+          <t>Can't use G83 or G84 during X/C polar interpolation on Fanuc 32i?</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/zsyoyp/fanuc_secret_codes_and_lost_manuals/</t>
+          <t>2019-02-12T22:54:04.559Z</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/apzh6f/are_industrial_robotic_arms_eg_fanuc_usable_for/</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2531,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>variable program help. so i am trying to pull in variable 6711 which is the part counter. when it hits 38 i need the operator to change the tool. i keep getting alarm 115 illegal variable. control is a fanuc 16i-mb</t>
+          <t>Where to get Fanuc Robodrill slideway wipers?</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pf82t7/weve_just_installed_our_first_wire_edm_machine/</t>
+          <t>2023-06-02T17:09:55.071Z</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/13yihgn/cant_use_g83_or_g84_during_xc_polar_interpolation/</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2553,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FANUC Series 35i Model B: Machine had abnormal voltage error and now controls are down and drives won’t stay on. Any help please!!</t>
+          <t>Fanuc Oi-MF Tool Release Help</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11l5adj/variable_program_help_so_i_am_trying_to_pull_in/</t>
+          <t>2023-06-07T13:16:54.431Z</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/143d221/where_to_get_fanuc_robodrill_slideway_wipers/</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Can't use G83 or G84 during X/C polar interpolation on Fanuc 32i?</t>
+          <t>New Lathe with Fanuc 0i-F Plus (with iHMI)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11dir4a/fanuc_series_35i_model_b_machine_had_abnormal/</t>
+          <t>2023-11-22T14:01:35.003Z</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1819srj/fanuc_oimf_tool_release_help/</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fanuc non zero reference setting</t>
+          <t>so I am working on a doosan with fanuc, there are absolute and relative values which are different, I'm trying to set a tools length but I'm not sure which value should I pick, what is the "relative value" relative to? lol</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13yihgn/cant_use_g83_or_g84_during_xc_polar_interpolation/</t>
+          <t>2023-02-21T14:13:44.884Z</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1184dtp/new_lathe_with_fanuc_0if_plus_with_ihmi/</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fanuc Oi-MF Tool Release Help</t>
+          <t>Anyone got a Fanuc Robodrill? I'm trying to set up the coolant manager function</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/zxe1jk/fanuc_non_zero_reference_setting/</t>
+          <t>2023-05-08T13:51:02.088Z</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/13bpq9y/so_i_am_working_on_a_doosan_with_fanuc_there_are/</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Where to get Fanuc Robodrill slideway wipers?</t>
+          <t>What’s the best robot for machine tending? Looking at everything from UR Conor to Fanuc industrial robot. Thanks in advance!</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1819srj/fanuc_oimf_tool_release_help/</t>
+          <t>2021-07-05T14:47:46.828Z</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/oe8vrh/anyone_got_a_fanuc_robodrill_im_trying_to_set_up/</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2663,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>New Machine Day: Fanuc Wire. Never to be this clean again.</t>
+          <t>Fanuc Single Point Spline Cutitng Macro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/143d221/where_to_get_fanuc_robodrill_slideway_wipers/</t>
+          <t>2023-06-04T21:26:55.511Z</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/140qz0l/whats_the_best_robot_for_machine_tending_looking/</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2685,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fanuc AI HPCC Question</t>
+          <t>Fanuc engraving</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/m723fh/new_machine_day_fanuc_wire_never_to_be_this_clean/</t>
+          <t>2019-06-24T16:20:35.836Z</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/c4qqfd/fanuc_single_point_spline_cutitng_macro/</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2707,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>so I am working on a doosan with fanuc, there are absolute and relative values which are different, I'm trying to set a tools length but I'm not sure which value should I pick, what is the "relative value" relative to? lol</t>
+          <t>Programmed manually and a bit of Fanuc easy guide.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/sh8q26/fanuc_ai_hpcc_question/</t>
+          <t>2023-07-27T04:24:10.375Z</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/15arpvf/fanuc_engraving/</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2734,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13bpq9y/so_i_am_working_on_a_doosan_with_fanuc_there_are/</t>
+          <t>2021-05-14T14:17:08.575Z</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/nc9nsq/programmed_manually_and_a_bit_of_fanuc_easy_guide/</t>
         </is>
       </c>
     </row>
@@ -2226,10 +2751,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>What’s the best robot for machine tending? Looking at everything from UR Conor to Fanuc industrial robot. Thanks in advance!</t>
+          <t>We've just installed our first wire EDM machine (FANUC ROBOCUT α-C600iC). Which CAM would you experienced burners recommend for jobs that require tilting? Thank you in advance.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
+        <is>
+          <t>2023-07-04T10:50:30.569Z</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/Machinists/comments/14qbx2l/help_with_fanuc_canned_turning_cycle_please/</t>
         </is>
@@ -2243,12 +2773,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fanuc Single Point Spline Cutitng Macro</t>
+          <t>Fanuc 10M DIY memory upgrade?</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/140qz0l/whats_the_best_robot_for_machine_tending_looking/</t>
+          <t>2021-08-31T15:24:19.828Z</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/pf82t7/weve_just_installed_our_first_wire_edm_machine/</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2795,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Fanuc engraving</t>
+          <t>Fanuc AI HPCC Question</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/c4qqfd/fanuc_single_point_spline_cutitng_macro/</t>
+          <t>2023-08-17T22:42:14.874Z</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/15u2a8k/fanuc_10m_diy_memory_upgrade/</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2817,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Are industrial robotic arms (e.g. Fanuc) usable for any serious milling work?</t>
+          <t>Fanuc g &amp; m codes</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15arpvf/fanuc_engraving/</t>
+          <t>2022-01-31T18:47:35.317Z</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/sh8q26/fanuc_ai_hpcc_question/</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2839,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fanuc 10M DIY memory upgrade?</t>
+          <t>Help! Reset a Fanuc OI-td? 9031 sspa: 31</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/apzh6f/are_industrial_robotic_arms_eg_fanuc_usable_for/</t>
+          <t>2023-11-15T02:25:12.887Z</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/17vja1x/fanuc_g_m_codes/</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Fanuc 0-T Tool probe calibration</t>
+          <t>Fanuc 10T DIY memory upgrade success</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15u2a8k/fanuc_10m_diy_memory_upgrade/</t>
+          <t>2018-05-13T14:46:27.347Z</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/8j48y5/help_reset_a_fanuc_oitd_9031_sspa_31/</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Fanuc g &amp; m codes</t>
+          <t>Ok, how the FANUC do i get this damn Daewoo DMV 3016d to unlock the FANUC-ing door at the end of the program with an M30?</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/v6cwx3/fanuc_0t_tool_probe_calibration/</t>
+          <t>2023-09-25T20:28:01.437Z</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/16s2y5l/fanuc_10t_diy_memory_upgrade_success/</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Learning on a Robodrill?</t>
+          <t>Our new grinder has a fanuc robot</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17vja1x/fanuc_g_m_codes/</t>
+          <t>2020-08-21T14:12:04.434Z</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/idxge2/ok_how_the_fanuc_do_i_get_this_damn_daewoo_dmv/</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fanuc 10T DIY memory upgrade success</t>
+          <t>Doosan fanuc - how to stop a program without m01 open doors and then resume machining.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/170zzzq/learning_on_a_robodrill/</t>
+          <t>2018-07-16T18:10:10.234Z</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/8zd8o2/our_new_grinder_has_a_fanuc_robot/</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>QUESTION: Absolute readout on machine not adjusting for tool height offset. (Fanuc M series)</t>
+          <t>Turret won’t index, FANUC oi-tc Hwacheon Cutex 16. Machine makes no sound or apparent effort to move turret, alarm shows after about 60 sec of machine doing nothing. All other functions seems fine. Shows “1080 Turret index time over alarm” any help or suggestions greatly appreciated!</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16s2y5l/fanuc_10t_diy_memory_upgrade_success/</t>
+          <t>2020-11-19T20:33:34.807Z</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/jxank7/doosan_fanuc_how_to_stop_a_program_without_m01/</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2971,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fanuc 18-M machine position reading metric</t>
+          <t>Fanuc wizards... I need your help please.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/q42t2e/question_absolute_readout_on_machine_not/</t>
+          <t>2023-01-24T18:47:56.169Z</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/10kctfr/turret_wont_index_fanuc_oitc_hwacheon_cutex_16/</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Question for you guys who do cnc repair: what does a fanuc manual mean when it says "the optical cable connected to the CNC"? And is the wiring between a 18i and a 16i and the amps very different? Further info inside.</t>
+          <t>Need Help - Full rapid crash in Z during tool change - Fanuc Robodrill- Fanuc 16iM</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15xecul/fanuc_18m_machine_position_reading_metric/</t>
+          <t>2013-08-13T23:32:27.998Z</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1kba6d/fanuc_wizards_i_need_your_help_please/</t>
         </is>
       </c>
     </row>
@@ -2430,12 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Turret won’t index, FANUC oi-tc Hwacheon Cutex 16. Machine makes no sound or apparent effort to move turret, alarm shows after about 60 sec of machine doing nothing. All other functions seems fine. Shows “1080 Turret index time over alarm” any help or suggestions greatly appreciated!</t>
+          <t>MAG Fadal, GE Fanuc Series, 18i-Mb5. This model is in perfect working order. Who's worked with one? It's gonna be my introduction to CNC in a week or so. Thanks.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pg26mv/question_for_you_guys_who_do_cnc_repair_what_does/</t>
+          <t>2021-11-06T00:58:23.232Z</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/qnp62j/need_help_full_rapid_crash_in_z_during_tool/</t>
         </is>
       </c>
     </row>
@@ -2447,12 +3037,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fanuc wizards... I need your help please.</t>
+          <t>Fanuc 18-M machine position reading metric</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10kctfr/turret_wont_index_fanuc_oitc_hwacheon_cutex_16/</t>
+          <t>2023-04-04T09:14:54.932Z</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/12bdh81/mag_fadal_ge_fanuc_series_18imb5_this_model_is_in/</t>
         </is>
       </c>
     </row>
@@ -2464,12 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Our new grinder has a fanuc robot</t>
+          <t>Time remaining on Fanuc F31i-A?</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1kba6d/fanuc_wizards_i_need_your_help_please/</t>
+          <t>2023-08-21T17:37:17.238Z</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/15xecul/fanuc_18m_machine_position_reading_metric/</t>
         </is>
       </c>
     </row>
@@ -2481,12 +3081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MAG Fadal, GE Fanuc Series, 18i-Mb5. This model is in perfect working order. Who's worked with one? It's gonna be my introduction to CNC in a week or so. Thanks.</t>
+          <t>Having some issues with my Hwacheon Vesta 1300B 6K (Hwacheon FANUC i Series controller)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8zd8o2/our_new_grinder_has_a_fanuc_robot/</t>
+          <t>2017-10-03T22:50:37.257Z</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/7442q2/time_remaining_on_fanuc_f31ia/</t>
         </is>
       </c>
     </row>
@@ -2498,12 +3103,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Having some issues with my Hwacheon Vesta 1300B 6K (Hwacheon FANUC i Series controller)</t>
+          <t>I've always wondered this: Does anyone have any ideas why Mitsubishi CNC's typically have Fanuc controls instead of, I don't know, Mitsubishi ones?</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12bdh81/mag_fadal_ge_fanuc_series_18imb5_this_model_is_in/</t>
+          <t>2023-10-13T21:08:33.475Z</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1778rys/having_some_issues_with_my_hwacheon_vesta_1300b/</t>
         </is>
       </c>
     </row>
@@ -2515,12 +3125,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ok, how the FANUC do i get this damn Daewoo DMV 3016d to unlock the FANUC-ing door at the end of the program with an M30?</t>
+          <t>Owning own business means working 7 days a week and it sucks.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1778rys/having_some_issues_with_my_hwacheon_vesta_1300b/</t>
+          <t>2021-10-06T16:50:40.228Z</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/q2ofwk/ive_always_wondered_this_does_anyone_have_any/</t>
         </is>
       </c>
     </row>
@@ -2532,12 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>New Lathe with Fanuc 0i-F Plus (with iHMI)</t>
+          <t>Work Shift vs Work Offset. Fanuc 21iT</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/idxge2/ok_how_the_fanuc_do_i_get_this_damn_daewoo_dmv/</t>
+          <t>2023-10-02T01:10:16.549Z</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/16xix57/owning_own_business_means_working_7_days_a_week/</t>
         </is>
       </c>
     </row>
@@ -2549,12 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Time remaining on Fanuc F31i-A?</t>
+          <t>Need some good help with an old Fanuc 10M</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1184dtp/new_lathe_with_fanuc_0if_plus_with_ihmi/</t>
+          <t>2021-05-03T19:11:43.319Z</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/n44l54/work_shift_vs_work_offset_fanuc_21it/</t>
         </is>
       </c>
     </row>
@@ -2566,12 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Owning own business means working 7 days a week and it sucks.</t>
+          <t>Need help, clausing kondia mill. lost prog 9001 on fanuc O-M !</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/7442q2/time_remaining_on_fanuc_f31ia/</t>
+          <t>2023-09-21T19:58:21.365Z</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/16opmvk/need_some_good_help_with_an_old_fanuc_10m/</t>
         </is>
       </c>
     </row>
@@ -2583,12 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Help! Reset a Fanuc OI-td? 9031 sspa: 31</t>
+          <t>'98 FANUC Robocut Alpha OC U/V Axis Limit Adjustments</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16xix57/owning_own_business_means_working_7_days_a_week/</t>
+          <t>2021-12-01T18:44:23.659Z</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/r6lvl6/need_help_clausing_kondia_mill_lost_prog_9001_on/</t>
         </is>
       </c>
     </row>
@@ -2600,12 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Need some good help with an old Fanuc 10M</t>
+          <t>Help sending programs to a Fanuc System 10TE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8j48y5/help_reset_a_fanuc_oitd_9031_sspa_31/</t>
+          <t>2023-10-03T19:00:04.859Z</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/16z0b7r/98_fanuc_robocut_alpha_oc_uv_axis_limit/</t>
         </is>
       </c>
     </row>
@@ -2617,12 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Work Shift vs Work Offset. Fanuc 21iT</t>
+          <t>GE Fanuc Series 18-M query</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16opmvk/need_some_good_help_with_an_old_fanuc_10m/</t>
+          <t>2021-10-21T18:32:57.997Z</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/qcy9hy/help_sending_programs_to_a_fanuc_system_10te/</t>
         </is>
       </c>
     </row>
@@ -2634,12 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>'98 FANUC Robocut Alpha OC U/V Axis Limit Adjustments</t>
+          <t>Need help using a /2 (block skip 2) on Fanuc lathe</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/n44l54/work_shift_vs_work_offset_fanuc_21it/</t>
+          <t>2023-05-24T08:43:24.794Z</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/13qfvso/ge_fanuc_series_18m_query/</t>
         </is>
       </c>
     </row>
@@ -2651,12 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Air blow m code.</t>
+          <t>As promised, first cuts with my new Sumitomo DMSW (08080RS06) It seems I'm more limited in spindle power than previously thought, being a 7.5/11 kw fanuc spindle motor from 15 years ago.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16z0b7r/98_fanuc_robocut_alpha_oc_uv_axis_limit/</t>
+          <t>2015-06-23T23:10:10.810Z</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/3avzqe/need_help_using_a_2_block_skip_2_on_fanuc_lathe/</t>
         </is>
       </c>
     </row>
@@ -2668,12 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fanuc memory card error 99</t>
+          <t>Air blow m code.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
+          <t>2022-09-15T04:47:44.173Z</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/xengji/as_promised_first_cuts_with_my_new_sumitomo_dmsw/</t>
         </is>
       </c>
     </row>
@@ -2685,12 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Help sending programs to a Fanuc System 10TE</t>
+          <t>Fanuc Memory Card Drip Feed</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1635tzd/fanuc_memory_card_error_99/</t>
+          <t>2023-04-28T11:52:08.663Z</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
         </is>
       </c>
     </row>
@@ -2702,12 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GE Fanuc Series 18-M query</t>
+          <t>Help with fanuc-I error</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qcy9hy/help_sending_programs_to_a_fanuc_system_10te/</t>
+          <t>2022-11-16T23:17:22.290Z</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/yx9kn3/fanuc_memory_card_drip_feed/</t>
         </is>
       </c>
     </row>
@@ -2719,12 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MDI tool changer not working - Fanuc 16iM - Robodrill</t>
+          <t>Why do you do this FANUC?</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13qfvso/ge_fanuc_series_18m_query/</t>
+          <t>2023-06-06T21:25:40.014Z</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/142trsb/help_with_fanuci_error/</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>As promised, first cuts with my new Sumitomo DMSW (08080RS06) It seems I'm more limited in spindle power than previously thought, being a 7.5/11 kw fanuc spindle motor from 15 years ago.</t>
+          <t>Integrex i250H ST. Fanuc Robotic Feed rod LNC</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qavb2h/mdi_tool_changer_not_working_fanuc_16im_robodrill/</t>
+          <t>2022-11-04T18:15:32.526Z</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/ym6536/why_do_you_do_this_fanuc/</t>
         </is>
       </c>
     </row>
@@ -2753,12 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fanuc Test Stand</t>
+          <t>Anyone using FTDI USB-RS232 adapter for drip feeding Fanuc 10M?</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xengji/as_promised_first_cuts_with_my_new_sumitomo_dmsw/</t>
+          <t>2021-07-02T00:57:37.902Z</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/obzfoj/integrex_i250h_st_fanuc_robotic_feed_rod_lnc/</t>
         </is>
       </c>
     </row>
@@ -2770,12 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Why do you do this FANUC?</t>
+          <t>FANUC Guys do you use the FANUC manual guide conversational programming?</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/78rlb8/fanuc_test_stand/</t>
+          <t>2023-03-03T08:37:07.871Z</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/11gvn92/anyone_using_ftdi_usbrs232_adapter_for_drip/</t>
         </is>
       </c>
     </row>
@@ -2787,12 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Robot Education?</t>
+          <t>FANUC ALARM 930</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ym6536/why_do_you_do_this_fanuc/</t>
+          <t>2019-03-30T13:36:07.141Z</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/b7bcgc/fanuc_guys_do_you_use_the_fanuc_manual_guide/</t>
         </is>
       </c>
     </row>
@@ -2804,12 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Anyone using FTDI USB-RS232 adapter for drip feeding Fanuc 10M?</t>
+          <t>Fanuc 18-M 020 alarm, interpolating counterbore</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/174jum7/robot_education/</t>
+          <t>2023-07-18T16:36:57.749Z</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1533cw4/fanuc_alarm_930/</t>
         </is>
       </c>
     </row>
@@ -2821,12 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fanuc 0T Error 197 Commanded C axis. Live tooling.</t>
+          <t>Fanuc Polar G16</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11gvn92/anyone_using_ftdi_usbrs232_adapter_for_drip/</t>
+          <t>2020-06-04T19:07:53.866Z</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/gwnwcu/fanuc_18m_020_alarm_interpolating_counterbore/</t>
         </is>
       </c>
     </row>
@@ -2838,12 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fanuc Polar G16</t>
+          <t>Wrestling with a Macro program for FANUC</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b9jjr3/fanuc_0t_error_197_commanded_c_axis_live_tooling/</t>
+          <t>2023-06-21T21:12:36.600Z</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/14fjl9z/fanuc_polar_g16/</t>
         </is>
       </c>
     </row>
@@ -2855,12 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Need help using a /2 (block skip 2) on Fanuc lathe</t>
+          <t>Looking for fanuc robodrill wiring</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14fjl9z/fanuc_polar_g16/</t>
+          <t>2019-02-20T21:35:37.754Z</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/asu45k/wrestling_with_a_macro_program_for_fanuc/</t>
         </is>
       </c>
     </row>
@@ -2872,12 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Are My Programming Habits Annoying?</t>
+          <t>“Coolant On” M-Code</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/3avzqe/need_help_using_a_2_block_skip_2_on_fanuc_lathe/</t>
+          <t>2021-10-21T18:46:47.960Z</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/qcyjq1/looking_for_fanuc_robodrill_wiring/</t>
         </is>
       </c>
     </row>
@@ -2889,12 +3609,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Set limits to Fanuc Robodrill alpha T21ie</t>
+          <t>Are My Programming Habits Annoying?</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15gnncg/are_my_programming_habits_annoying/</t>
+          <t>2023-01-19T18:27:30.481Z</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/10g95oo/coolant_on_mcode/</t>
         </is>
       </c>
     </row>
@@ -2906,12 +3631,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Looking for fanuc robodrill wiring</t>
+          <t>Fanuc Robodrill keep relay lookup</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/nj3661/set_limits_to_fanuc_robodrill_alpha_t21ie/</t>
+          <t>2023-08-02T23:32:35.245Z</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/15gnncg/are_my_programming_habits_annoying/</t>
         </is>
       </c>
     </row>
@@ -2923,12 +3653,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Doosan fanuc - how to stop a program without m01 open doors and then resume machining.</t>
+          <t>Drilling on alternate axis - Fanuc</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qcyjq1/looking_for_fanuc_robodrill_wiring/</t>
+          <t>2019-08-22T13:56:08.477Z</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/ctxsl5/fanuc_robodrill_keep_relay_lookup/</t>
         </is>
       </c>
     </row>
@@ -2940,12 +3675,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>EDMing Medical Grade Tantalum - '98 Fanuc Alpha OC</t>
+          <t>Fanuc Series 21-m Keypad Arrows Question</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/jxank7/doosan_fanuc_how_to_stop_a_program_without_m01/</t>
+          <t>2023-02-16T14:44:53.660Z</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/113s8j3/drilling_on_alternate_axis_fanuc/</t>
         </is>
       </c>
     </row>
@@ -2957,12 +3697,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>OCD ? 😂 fanuc it!</t>
+          <t>EDMing Medical Grade Tantalum - '98 Fanuc Alpha OC</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/143l2v8/edming_medical_grade_tantalum_98_fanuc_alpha_oc/</t>
+          <t>2018-04-26T12:53:51.758Z</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/8f2ehl/fanuc_series_21m_keypad_arrows_question/</t>
         </is>
       </c>
     </row>
@@ -2974,12 +3719,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Need help! G83 R.015 Z-2.5 Q.003 F2. Is there something I can add to this to get it to start say 1” down into guide hole, but still retract to .015? Mastercam has first peck and subsequent peck but it doesn’t work on fanuc 31i</t>
+          <t>Fanuc background timer script</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t8pzaq/ocd_fanuc_it/</t>
+          <t>2023-06-07T18:35:07.641Z</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/143l2v8/edming_medical_grade_tantalum_98_fanuc_alpha_oc/</t>
         </is>
       </c>
     </row>
@@ -2991,12 +3741,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fanuc Series 21-m Keypad Arrows Question</t>
+          <t>Need help! G83 R.015 Z-2.5 Q.003 F2. Is there something I can add to this to get it to start say 1” down into guide hole, but still retract to .015? Mastercam has first peck and subsequent peck but it doesn’t work on fanuc 31i</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wqegsf/need_help_g83_r015_z25_q003_f2_is_there_something/</t>
+          <t>2022-10-09T12:13:48.545Z</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/xzk6vu/fanuc_background_timer_script/</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3763,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>New to Fanuc control</t>
+          <t>Fanuc C-Axis Jig grinding</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8f2ehl/fanuc_series_21m_keypad_arrows_question/</t>
+          <t>2022-08-17T03:37:47.521Z</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/wqegsf/need_help_g83_r015_z25_q003_f2_is_there_something/</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3785,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Fanuc offset Change Confirmation</t>
+          <t>Fanuc manual guide-i lathe</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10rri6q/new_to_fanuc_control/</t>
+          <t>2023-03-11T14:06:12.491Z</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/11ol1jw/fanuc_caxis_jig_grinding/</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3807,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>What is a good way to teach a novice CNC? Specifically, I will be making parts on a MAG Fadal VMC 4020 FX, 2008 – 10,000 RPM, Fanuc 0i-MC. I'll be making DOD parts for tanks and assault vehicles.</t>
+          <t>Fanuc 6M - Clearing Programs</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10523jx/fanuc_offset_change_confirmation/</t>
+          <t>2023-02-15T19:13:22.778Z</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1135yap/fanuc_manual_guidei_lathe/</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3829,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Fanuc 6M - Clearing Programs</t>
+          <t>What is a good way to teach a novice CNC? Specifically, I will be making parts on a MAG Fadal VMC 4020 FX, 2008 – 10,000 RPM, Fanuc 0i-MC. I'll be making DOD parts for tanks and assault vehicles.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11kz42k/what_is_a_good_way_to_teach_a_novice_cnc/</t>
+          <t>2015-08-13T14:57:49.573Z</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/3gutpy/fanuc_6m_clearing_programs/</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3851,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fanuc error</t>
+          <t>FANUC NC GUIDE TRAINING SOFTWARE PROGRAM</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/3gutpy/fanuc_6m_clearing_programs/</t>
+          <t>2023-03-07T13:17:18.686Z</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/11kz42k/what_is_a_good_way_to_teach_a_novice_cnc/</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3873,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Fanuc 16iM - G198 does nothing</t>
+          <t>Fanuc error</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/123lvfq/fanuc_error/</t>
+          <t>2018-09-29T09:58:19.414Z</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/9jvd2g/fanuc_nc_guide_training_software_program/</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3895,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GE Fanuc</t>
+          <t>Doosan Puma 300L Fanuc Controller Screen Gone Out</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qxyepw/fanuc_16im_g198_does_nothing/</t>
+          <t>2023-03-27T12:42:22.524Z</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/123lvfq/fanuc_error/</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3917,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fanuc 18m reference/absolute zero</t>
+          <t>GE Fanuc</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/uyevxn/ge_fanuc/</t>
+          <t>2020-05-28T14:47:31.516Z</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/gs7ku7/doosan_puma_300l_fanuc_controller_screen_gone_out/</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3939,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fanuc C-Axis Jig grinding</t>
+          <t>Help!! Looking to add 4th axis to Toyoda BM-1200 w/ Fanuc 18i-MB (need rotary and amplifier). I don't know enough about what is involved in order to purchase used. I cannot justify purchasing new (cost exceeds what we have in the complete machine).</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kslf54/fanuc_18m_referenceabsolute_zero/</t>
+          <t>2022-05-26T19:04:15.096Z</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/uyevxn/ge_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3961,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Wrestling with a Macro program for FANUC</t>
+          <t>Fanuc offset Change Confirmation</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11ol1jw/fanuc_caxis_jig_grinding/</t>
+          <t>2022-05-09T23:01:02.661Z</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/um3vck/help_looking_to_add_4th_axis_to_toyoda_bm1200_w/</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3983,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>You said you like setups…</t>
+          <t>Fanuc series 18-T: Error 506</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/asu45k/wrestling_with_a_macro_program_for_fanuc/</t>
+          <t>2023-01-06T18:50:58.791Z</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/10523jx/fanuc_offset_change_confirmation/</t>
         </is>
       </c>
     </row>
@@ -3195,12 +4005,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Amada-Fanuc-p 6M control for Amada Pega 344 Keeps giving 007 error on certain programs</t>
+          <t>New colleague today. He claims to have lots of experience with fanuc operating systems. I tend to doubt it.</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1czlvxb/you_said_you_like_setups/</t>
+          <t>2023-01-23T20:56:42.945Z</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/10jn9im/fanuc_series_18t_error_506/</t>
         </is>
       </c>
     </row>
@@ -3212,12 +4027,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>New colleague today. He claims to have lots of experience with fanuc operating systems. I tend to doubt it.</t>
+          <t>Fanuc 16iM - G198 does nothing</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/hskqek/amadafanucp_6m_control_for_amada_pega_344_keeps/</t>
+          <t>2020-06-12T20:33:36.480Z</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/h7sk4h/new_colleague_today_he_claims_to_have_lots_of/</t>
         </is>
       </c>
     </row>
@@ -3229,12 +4049,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>fanuc 6t controller</t>
+          <t>Starting to mess around and try using logic and macros on a Fanuc controller. What are some good resources to read/watch that'll help out?</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/h7sk4h/new_colleague_today_he_claims_to_have_lots_of/</t>
+          <t>2021-11-20T05:09:03.738Z</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/qxyepw/fanuc_16im_g198_does_nothing/</t>
         </is>
       </c>
     </row>
@@ -3246,12 +4071,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Starting to mess around and try using logic and macros on a Fanuc controller. What are some good resources to read/watch that'll help out?</t>
+          <t>#3006 on FANUC EDM 31I-W Model B</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/maqbjy/fanuc_6t_controller/</t>
+          <t>2022-08-31T19:57:40.123Z</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/x2n05p/starting_to_mess_around_and_try_using_logic_and/</t>
         </is>
       </c>
     </row>
@@ -3263,12 +4093,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>“Coolant On” M-Code</t>
+          <t>You said you like setups…</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x2n05p/starting_to_mess_around_and_try_using_logic_and/</t>
+          <t>2019-05-03T15:00:56.145Z</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/bk9gat/3006_on_fanuc_edm_31iw_model_b/</t>
         </is>
       </c>
     </row>
@@ -3280,12 +4115,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Fanuc series 18-T: Error 506</t>
+          <t>Write protected</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10g95oo/coolant_on_mcode/</t>
+          <t>2024-05-24T14:20:11.558Z</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1czlvxb/you_said_you_like_setups/</t>
         </is>
       </c>
     </row>
@@ -3297,12 +4137,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Bought new Compact Flash /SD Adapters for Fanuc Wire Machines and machines are throwing errors and can't see programs?</t>
+          <t>Hanging out at Fanuc this week</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10jn9im/fanuc_series_18t_error_506/</t>
+          <t>2024-07-08T17:56:53.192Z</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1dyfeca/write_protected/</t>
         </is>
       </c>
     </row>
@@ -3314,12 +4159,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Hanging out at Fanuc this week</t>
+          <t>Doosan puma fanuc- how do i lock and disallow tool change for when i put in a 30inch boring bar and leave some hanging behind</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x98ab6/bought_new_compact_flash_sd_adapters_for_fanuc/</t>
+          <t>2021-05-04T17:45:01.006Z</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/n4ui7b/hanging_out_at_fanuc_this_week/</t>
         </is>
       </c>
     </row>
@@ -3331,12 +4181,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>#3006 on FANUC EDM 31I-W Model B</t>
+          <t>Fanuc our-model F tapping trouble</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/n4ui7b/hanging_out_at_fanuc_this_week/</t>
+          <t>2021-02-17T04:10:15.920Z</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/lllqjw/doosan_puma_fanuc_how_do_i_lock_and_disallow_tool/</t>
         </is>
       </c>
     </row>
@@ -3348,12 +4203,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>How to reset ext origin fanuc</t>
+          <t>anyone have a good guide on how to connect a laptop to a fanuac controller?</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/bk9gat/3006_on_fanuc_edm_31iw_model_b/</t>
+          <t>2020-04-30T12:17:09.882Z</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/gauk9y/fanuc_ourmodel_f_tapping_trouble/</t>
         </is>
       </c>
     </row>
@@ -3365,12 +4225,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>I need help with 3204 parameter in Fanuc TXP-100e</t>
+          <t>How to reset ext origin fanuc</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10ho0h5/how_to_reset_ext_origin_fanuc/</t>
+          <t>2022-03-17T10:16:09.832Z</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/tg6xgg/anyone_have_a_good_guide_on_how_to_connect_a/</t>
         </is>
       </c>
     </row>
@@ -3382,12 +4247,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Need help with understanding fanuc G131</t>
+          <t>Amada-Fanuc-p 6M control for Amada Pega 344 Keeps giving 007 error on certain programs</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/m0e3vh/i_need_help_with_3204_parameter_in_fanuc_txp100e/</t>
+          <t>2023-01-21T10:10:48.066Z</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/10ho0h5/how_to_reset_ext_origin_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3399,12 +4269,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Hand programing a Fanuc I series lathe-using a facemill to square off a part</t>
+          <t>fanuc 6t controller</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10eo23m/need_help_with_understanding_fanuc_g131/</t>
+          <t>2020-07-16T23:21:11.025Z</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/hskqek/amadafanucp_6m_control_for_amada_pega_344_keeps/</t>
         </is>
       </c>
     </row>
@@ -3416,12 +4291,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Fanuc our-model F tapping trouble</t>
+          <t>I need help with 3204 parameter in Fanuc TXP-100e</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ixl5k6/hand_programing_a_fanuc_i_series_latheusing_a/</t>
+          <t>2021-03-22T15:31:20.425Z</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/maqbjy/fanuc_6t_controller/</t>
         </is>
       </c>
     </row>
@@ -3433,12 +4313,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Please help! Fanuc 0i-MD controller on Tsugami VA1-II mill will not reset or clear alarm.</t>
+          <t>Fanuc. Fuhnook or Fannik ?</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gauk9y/fanuc_ourmodel_f_tapping_trouble/</t>
+          <t>2021-03-08T11:52:54.579Z</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/m0e3vh/i_need_help_with_3204_parameter_in_fanuc_txp100e/</t>
         </is>
       </c>
     </row>
@@ -3450,12 +4335,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FANUC question!</t>
+          <t>What's wrong with this code? "PS0009 Illegal NC-address" on a Citizen A320, fanuc control.</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/hc6yfw/please_help_fanuc_0imd_controller_on_tsugami/</t>
+          <t>2021-09-12T19:18:20.354Z</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/pmz4sr/fanuc_fuhnook_or_fannik/</t>
         </is>
       </c>
     </row>
@@ -3467,12 +4357,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>anyone have a good guide on how to connect a laptop to a fanuac controller?</t>
+          <t>FANUC question!</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x73aqr/fanuc_question/</t>
+          <t>2019-02-22T22:14:06.893Z</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/atnmlt/whats_wrong_with_this_code_ps0009_illegal/</t>
         </is>
       </c>
     </row>
@@ -3484,12 +4379,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>fanuc controller training aids?? anything besides just videos.</t>
+          <t>Please help! Fanuc 0i-MD controller on Tsugami VA1-II mill will not reset or clear alarm.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tg6xgg/anyone_have_a_good_guide_on_how_to_connect_a/</t>
+          <t>2022-09-06T06:38:20.820Z</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/x73aqr/fanuc_question/</t>
         </is>
       </c>
     </row>
@@ -3501,12 +4401,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Why does my peck value (Q) of .050" post as Q500 and not Q.05.</t>
+          <t>fanuc controller training aids?? anything besides just videos.</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/v23rf9/fanuc_controller_training_aids_anything_besides/</t>
+          <t>2020-06-19T19:21:11.079Z</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/hc6yfw/please_help_fanuc_0imd_controller_on_tsugami/</t>
         </is>
       </c>
     </row>
@@ -3518,12 +4423,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Anyone familiar with Fanuc spindle parameters?</t>
+          <t>FANUCPRG.BIN ?</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/198701h/why_does_my_peck_value_q_of_050_post_as_q500_and/</t>
+          <t>2022-06-01T00:00:32.435Z</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/v23rf9/fanuc_controller_training_aids_anything_besides/</t>
         </is>
       </c>
     </row>
@@ -3535,12 +4445,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Who else has had to pick up existing threads on a CNC?</t>
+          <t>Eco mode on Fanuc?</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kfojix/anyone_familiar_with_fanuc_spindle_parameters/</t>
+          <t>2024-05-22T16:15:58.719Z</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1cy475f/fanucprgbin/</t>
         </is>
       </c>
     </row>
@@ -3552,12 +4467,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Well FANUC Me I Guess...</t>
+          <t>G04 P2 is 2 seconds on my machine.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qbpjga/who_else_has_had_to_pick_up_existing_threads_on_a/</t>
+          <t>2022-09-26T12:14:26.043Z</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/xohlta/eco_mode_on_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3569,12 +4489,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Sending programs to machines</t>
+          <t>Well FANUC Me I Guess...</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/uidjsz/well_fanuc_me_i_guess/</t>
+          <t>2023-04-05T07:36:16.993Z</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/12cc9t3/g04_p2_is_2_seconds_on_my_machine/</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4511,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lucas 40T with fanuc oi-MF</t>
+          <t>Cylindrical Interpolation G107 Fanuc 0T</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12qojun/sending_programs_to_machines/</t>
+          <t>2022-05-04T18:46:21.433Z</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/uidjsz/well_fanuc_me_i_guess/</t>
         </is>
       </c>
     </row>
@@ -3603,12 +4533,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FANUCPRG.BIN ?</t>
+          <t>Lucas 40T with fanuc oi-MF</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/w8wcym/lucas_40t_with_fanuc_oimf/</t>
+          <t>2018-11-26T18:26:55.705Z</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/a0lz4w/cylindrical_interpolation_g107_fanuc_0t/</t>
         </is>
       </c>
     </row>
@@ -3620,12 +4555,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Fanuc parameter # for feedrate</t>
+          <t>H and T match on Fanuc controls?</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cy475f/fanucprgbin/</t>
+          <t>2022-07-26T21:56:54.656Z</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/w8wcym/lucas_40t_with_fanuc_oimf/</t>
         </is>
       </c>
     </row>
@@ -3637,12 +4577,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Wire EDM Cutting Conditions</t>
+          <t>Fanuc parameter # for feedrate</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xciz81/fanuc_parameter_for_feedrate/</t>
+          <t>2021-07-20T23:17:04.279Z</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/oodm0z/h_and_t_match_on_fanuc_controls/</t>
         </is>
       </c>
     </row>
@@ -3654,12 +4599,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Help!! Looking to add 4th axis to Toyoda BM-1200 w/ Fanuc 18i-MB (need rotary and amplifier). I don't know enough about what is involved in order to purchase used. I cannot justify purchasing new (cost exceeds what we have in the complete machine).</t>
+          <t>Fanuc 18m reference/absolute zero</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11wqelw/wire_edm_cutting_conditions/</t>
+          <t>2022-09-12T17:34:27.115Z</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/xciz81/fanuc_parameter_for_feedrate/</t>
         </is>
       </c>
     </row>
@@ -3671,12 +4621,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>G49 acts as a rapid movement?!</t>
+          <t>Bought new Compact Flash /SD Adapters for Fanuc Wire Machines and machines are throwing errors and can't see programs?</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/um3vck/help_looking_to_add_4th_axis_to_toyoda_bm1200_w/</t>
+          <t>2021-01-07T20:04:16.175Z</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/kslf54/fanuc_18m_referenceabsolute_zero/</t>
         </is>
       </c>
     </row>
@@ -3688,12 +4643,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Need help with tap breakage</t>
+          <t>Sending programs to machines</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/udbwr8/g49_acts_as_a_rapid_movement/</t>
+          <t>2022-09-08T18:39:22.185Z</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/x98ab6/bought_new_compact_flash_sd_adapters_for_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3705,12 +4665,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Doosan fanuc, thread G92 cycle wont start.</t>
+          <t>King Kong fanuc robot arm - imts 2018</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1diofcd/need_help_with_tap_breakage/</t>
+          <t>2023-04-18T14:17:57.574Z</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/12qojun/sending_programs_to_machines/</t>
         </is>
       </c>
     </row>
@@ -3722,12 +4687,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Questions about Fanuc AICC Modes</t>
+          <t>Wire EDM Machining Questions</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/n15qew/doosan_fanuc_thread_g92_cycle_wont_start/</t>
+          <t>2018-09-14T16:27:05.788Z</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/9ftgj2/king_kong_fanuc_robot_arm_imts_2018/</t>
         </is>
       </c>
     </row>
@@ -3739,12 +4709,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Fanuc overtravel</t>
+          <t>As rigid as haas can be</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/x4k02l/questions_about_fanuc_aicc_modes/</t>
+          <t>2024-06-07T01:04:29.565Z</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1d9yd5w/wire_edm_machining_questions/</t>
         </is>
       </c>
     </row>
@@ -3756,12 +4731,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Fanuc background timer script</t>
+          <t>Recommendations for CNC VMC</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/djg00c/fanuc_overtravel/</t>
+          <t>2020-12-23T16:34:40.242Z</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/kiw8tj/as_rigid_as_haas_can_be/</t>
         </is>
       </c>
     </row>
@@ -3773,12 +4753,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Can't change tool</t>
+          <t>Questions about Fanuc AICC Modes</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xzk6vu/fanuc_background_timer_script/</t>
+          <t>2024-03-21T00:05:29.666Z</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1bjsqwp/recommendations_for_cnc_vmc/</t>
         </is>
       </c>
     </row>
@@ -3790,12 +4775,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Need help, clausing kondia mill. lost prog 9001 on fanuc O-M !</t>
+          <t>What is the “T” for on this old CNC panel?</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/181799j/cant_change_tool/</t>
+          <t>2022-09-03T03:07:44.788Z</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/x4k02l/questions_about_fanuc_aicc_modes/</t>
         </is>
       </c>
     </row>
@@ -3807,12 +4797,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Spindle Speed Issue in Handle &amp; Jog Mode</t>
+          <t>fanuc 16, if I goto edit/program dir/right soft key/DS-DIR it brings up a data server hd directory… any idea how I can see these programs or use/setup the DS server?! There is a ethertwist transceiver in the control cabinet too I think has to do with it- any ideas would be awesome!</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r6lvl6/need_help_clausing_kondia_mill_lost_prog_9001_on/</t>
+          <t>2021-06-03T14:18:16.650Z</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/nreljz/what_is_the_t_for_on_this_old_cnc_panel/</t>
         </is>
       </c>
     </row>
@@ -3824,12 +4819,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>fanuc 16, if I goto edit/program dir/right soft key/DS-DIR it brings up a data server hd directory… any idea how I can see these programs or use/setup the DS server?! There is a ethertwist transceiver in the control cabinet too I think has to do with it- any ideas would be awesome!</t>
+          <t>Anyone ever run a Makino KE-55? Pro Jn control. Newest addition I picked up at an auction last week. Pretty excited about this guy.</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xbdoz5/spindle_speed_issue_in_handle_jog_mode/</t>
+          <t>2021-07-23T20:58:58.586Z</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/oqbdyz/fanuc_16_if_i_goto_editprogram_dirright_soft/</t>
         </is>
       </c>
     </row>
@@ -3841,12 +4841,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ETHERNET CONNECTION BETWEEN PC AND FANUC</t>
+          <t>Need help with tap breakage</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/oqbdyz/fanuc_16_if_i_goto_editprogram_dirright_soft/</t>
+          <t>2021-08-14T11:40:17.742Z</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/p46h4x/anyone_ever_run_a_makino_ke55_pro_jn_control/</t>
         </is>
       </c>
     </row>
@@ -3858,12 +4863,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>As rigid as haas can be</t>
+          <t>G49 acts as a rapid movement?!</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/s8yvdg/ethernet_connection_between_pc_and_fanuc/</t>
+          <t>2024-06-18T11:32:23.875Z</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1diofcd/need_help_with_tap_breakage/</t>
         </is>
       </c>
     </row>
@@ -3875,12 +4885,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Recommendations for CNC VMC</t>
+          <t>Help with ncguide fanuc</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kiw8tj/as_rigid_as_haas_can_be/</t>
+          <t>2022-04-27T19:39:25.201Z</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/udbwr8/g49_acts_as_a_rapid_movement/</t>
         </is>
       </c>
     </row>
@@ -3892,12 +4907,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Help with ncguide fanuc</t>
+          <t>ETHERNET CONNECTION BETWEEN PC AND FANUC</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1bjsqwp/recommendations_for_cnc_vmc/</t>
+          <t>2022-01-24T10:03:43.000Z</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/sbisg1/help_with_ncguide_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3909,12 +4929,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Looking for help finding a Machine Book for a Wasino LJ-63M (1986) with Fanuc 10T controller.</t>
+          <t>Who else running a 40 year old CNC lathe</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/sbisg1/help_with_ncguide_fanuc/</t>
+          <t>2022-01-21T01:49:14.752Z</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/s8yvdg/ethernet_connection_between_pc_and_fanuc/</t>
         </is>
       </c>
     </row>
@@ -3926,12 +4951,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Who else running a 40 year old CNC lathe</t>
+          <t>Doosan fanuc, thread G92 cycle wont start.</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/3wes9c/looking_for_help_finding_a_machine_book_for_a/</t>
+          <t>2021-07-31T18:54:13.312Z</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/ovcrbl/who_else_running_a_40_year_old_cnc_lathe/</t>
         </is>
       </c>
     </row>
@@ -3943,12 +4973,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Fanuc 31i-model A sub programs?</t>
+          <t>Fanuc File storage upgrade?</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ovcrbl/who_else_running_a_40_year_old_cnc_lathe/</t>
+          <t>2021-04-29T14:36:40.338Z</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/n15qew/doosan_fanuc_thread_g92_cycle_wont_start/</t>
         </is>
       </c>
     </row>
@@ -3960,12 +4995,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Fanuc File storage upgrade?</t>
+          <t>Help!!! 110 data overflow alarm</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/6wogms/fanuc_31imodel_a_sub_programs/</t>
+          <t>2020-11-06T17:28:51.547Z</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/jp9bw9/fanuc_file_storage_upgrade/</t>
         </is>
       </c>
     </row>
@@ -3977,12 +5017,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>New machine</t>
+          <t>Switching from heidenhain 530 to fanuc i4</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/jp9bw9/fanuc_file_storage_upgrade/</t>
+          <t>2019-05-10T00:59:13.362Z</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/bmrvmb/help_110_data_overflow_alarm/</t>
         </is>
       </c>
     </row>
@@ -3994,12 +5039,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Fanuc APC Setting screen</t>
+          <t>Fanuc 0T Error 197 Commanded C axis. Live tooling.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ddb6fc/new_machine/</t>
+          <t>2021-06-30T11:07:26.799Z</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/oav13o/switching_from_heidenhain_530_to_fanuc_i4/</t>
         </is>
       </c>
     </row>
@@ -4011,12 +5061,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tilted working plane help</t>
+          <t>Is anyone familiar with the FANUC 00-P controller? It’s for a Whitney 40 ton cnc punch/ plasma cutter my boss bought two years ago and hasn’t gotten it to run. If you have a controller manual that’d be a plus.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/w3nrw5/fanuc_apc_setting_screen/</t>
+          <t>2019-04-04T22:50:18.449Z</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/b9jjr3/fanuc_0t_error_197_commanded_c_axis_live_tooling/</t>
         </is>
       </c>
     </row>
@@ -4028,12 +5083,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Hey guys! My machine showing "GRAPHIC IS READY" this message only after I turning on the machine I don't know what happened and don't know what to do please HELP!! Machine details: HWACHEON TTC8 twin spindle, Fanuc 18i "Any solutions please"</t>
+          <t>Looking for help finding a Machine Book for a Wasino LJ-63M (1986) with Fanuc 10T controller.</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ddqppj/tilted_working_plane_help/</t>
+          <t>2020-04-17T06:07:35.636Z</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/g2w8q2/is_anyone_familiar_with_the_fanuc_00p_controller/</t>
         </is>
       </c>
     </row>
@@ -4045,12 +5105,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Fanuc Amp Error</t>
+          <t>Fanuc APC Setting screen</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ru4z1h/hey_guys_my_machine_showing_graphic_is_ready_this/</t>
+          <t>2015-12-11T18:43:40.086Z</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/3wes9c/looking_for_help_finding_a_machine_book_for_a/</t>
         </is>
       </c>
     </row>
@@ -4062,12 +5127,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Is anyone familiar with the FANUC 00-P controller? It’s for a Whitney 40 ton cnc punch/ plasma cutter my boss bought two years ago and hasn’t gotten it to run. If you have a controller manual that’d be a plus.</t>
+          <t>Need help with Robodrill alarm</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kkm08k/fanuc_amp_error/</t>
+          <t>2022-07-20T14:30:08.337Z</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/w3nrw5/fanuc_apc_setting_screen/</t>
         </is>
       </c>
     </row>
@@ -4079,12 +5149,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>What's wrong with this code? "PS0009 Illegal NC-address" on a Citizen A320, fanuc control.</t>
+          <t>Hey guys! My machine showing "GRAPHIC IS READY" this message only after I turning on the machine I don't know what happened and don't know what to do please HELP!! Machine details: HWACHEON TTC8 twin spindle, Fanuc 18i "Any solutions please"</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/g2w8q2/is_anyone_familiar_with_the_fanuc_00p_controller/</t>
+          <t>2019-10-11T13:18:07.005Z</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/dgf1rj/need_help_with_robodrill_alarm/</t>
         </is>
       </c>
     </row>
@@ -4096,12 +5171,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Integrex i250H ST. Fanuc Robotic Feed rod LNC</t>
+          <t>Accel/decel parameters?</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/atnmlt/whats_wrong_with_this_code_ps0009_illegal/</t>
+          <t>2022-01-02T08:00:18.377Z</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/ru4z1h/hey_guys_my_machine_showing_graphic_is_ready_this/</t>
         </is>
       </c>
     </row>
@@ -4113,12 +5193,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Help!!! 110 data overflow alarm</t>
+          <t>OCD ? 😂 fanuc it!</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/obzfoj/integrex_i250h_st_fanuc_robotic_feed_rod_lnc/</t>
+          <t>2024-08-17T00:27:38.193Z</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1eu4k48/acceldecel_parameters/</t>
         </is>
       </c>
     </row>
@@ -4130,12 +5215,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Found a correction in the Fanuc mill manual. I don't think it needed correction.</t>
+          <t>New machine</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/bmrvmb/help_110_data_overflow_alarm/</t>
+          <t>2022-03-07T14:07:00.279Z</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/t8pzaq/ocd_fanuc_it/</t>
         </is>
       </c>
     </row>
@@ -4147,12 +5237,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Lathe won’t gear change.</t>
+          <t>Found a correction in the Fanuc mill manual. I don't think it needed correction.</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/s3cztj/found_a_correction_in_the_fanuc_mill_manual_i/</t>
+          <t>2024-06-11T10:50:20.498Z</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1ddb6fc/new_machine/</t>
         </is>
       </c>
     </row>
@@ -4164,12 +5259,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Is there a way to search my memory with names. I have Fanuc Oi MD.</t>
+          <t>G05, G08, G5.1 Q1... anyone have experience with look ahead/ high speed machining?</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1advmah/lathe_wont_gear_change/</t>
+          <t>2022-01-13T23:33:02.563Z</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/s3cztj/found_a_correction_in_the_fanuc_mill_manual_i/</t>
         </is>
       </c>
     </row>
@@ -4181,12 +5281,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Beginner reading for a future machinist</t>
+          <t>Is there a way to search my memory with names. I have Fanuc Oi MD.</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/rx5o31/is_there_a_way_to_search_my_memory_with_names_i/</t>
+          <t>2019-01-13T18:51:47.561Z</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/afmeey/g05_g08_g51_q1_anyone_have_experience_with_look/</t>
         </is>
       </c>
     </row>
@@ -4198,12 +5303,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Fanuc 6M program call</t>
+          <t>Which lathe machine you prefer to learn and work on Okuma lb3000 or doosan puma 2100SY</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1c8lt8h/beginner_reading_for_a_future_machinist/</t>
+          <t>2022-01-06T04:36:00.137Z</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/rx5o31/is_there_a_way_to_search_my_memory_with_names_i/</t>
         </is>
       </c>
     </row>
@@ -4215,12 +5325,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>block skip system variable on funuc controller?</t>
+          <t>QUESTION: Absolute readout on machine not adjusting for tool height offset. (Fanuc M series)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t6p5zl/fanuc_6m_program_call/</t>
+          <t>2024-04-17T12:37:11.455Z</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1c68q8y/which_lathe_machine_you_prefer_to_learn_and_work/</t>
         </is>
       </c>
     </row>
@@ -4232,12 +5347,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Anyone got a Fanuc Robodrill? I'm trying to set up the coolant manager function</t>
+          <t>Can't change tool</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/5vrkv7/block_skip_system_variable_on_funuc_controller/</t>
+          <t>2021-10-08T17:43:32.997Z</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/q42t2e/question_absolute_readout_on_machine_not/</t>
         </is>
       </c>
     </row>
@@ -4249,12 +5369,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Doosan Puma 300L Fanuc Controller Screen Gone Out</t>
+          <t>Fanuc 6M program call</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/oe8vrh/anyone_got_a_fanuc_robodrill_im_trying_to_set_up/</t>
+          <t>2023-11-22T11:42:59.652Z</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/181799j/cant_change_tool/</t>
         </is>
       </c>
     </row>
@@ -4266,12 +5391,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>I've always wondered this: Does anyone have any ideas why Mitsubishi CNC's typically have Fanuc controls instead of, I don't know, Mitsubishi ones?</t>
+          <t>block skip system variable on funuc controller?</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gs7ku7/doosan_puma_300l_fanuc_controller_screen_gone_out/</t>
+          <t>2022-03-04T18:13:55.718Z</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/t6p5zl/fanuc_6m_program_call/</t>
         </is>
       </c>
     </row>
@@ -4283,12 +5413,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CNC Lathe Post Processor</t>
+          <t>How to Find Fanuc Control Version</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/q2ofwk/ive_always_wondered_this_does_anyone_have_any/</t>
+          <t>2017-02-23T17:05:45.081Z</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/5vrkv7/block_skip_system_variable_on_funuc_controller/</t>
         </is>
       </c>
     </row>
@@ -4300,12 +5435,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Looking for best way to create this feature on a mill</t>
+          <t>Beginner reading for a future machinist</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1bfnmix/cnc_lathe_post_processor/</t>
+          <t>2022-03-11T19:16:02.130Z</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/tbxrjj/how_to_find_fanuc_control_version/</t>
         </is>
       </c>
     </row>
@@ -4317,12 +5457,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Those of you with Cobot experience, what are some things that reps don't really tell you about them?</t>
+          <t>FANUC Macro B: DPRNT[range]</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1g6mx3t/looking_for_best_way_to_create_this_feature_on_a/</t>
+          <t>2024-04-20T09:27:04.579Z</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1c8lt8h/beginner_reading_for_a_future_machinist/</t>
         </is>
       </c>
     </row>
@@ -4334,12 +5479,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TORNOS (fanuc 31i) TISIS IP address question.</t>
+          <t>How to get my lathe to use G54 C work offset instead of G50 C in code?</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xmyrpv/those_of_you_with_cobot_experience_what_are_some/</t>
+          <t>2022-02-28T13:50:51.502Z</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/t3g2be/fanuc_macro_b_dprntrange/</t>
         </is>
       </c>
     </row>
@@ -4351,12 +5501,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Anyone ever run a Makino KE-55? Pro Jn control. Newest addition I picked up at an auction last week. Pretty excited about this guy.</t>
+          <t>TORNOS (fanuc 31i) TISIS IP address question.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r6u77x/tornos_fanuc_31i_tisis_ip_address_question/</t>
+          <t>2024-01-18T23:46:28.513Z</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/19a4p1n/how_to_get_my_lathe_to_use_g54_c_work_offset/</t>
         </is>
       </c>
     </row>
@@ -4368,12 +5523,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>"Tuning" a Fanuc VMC</t>
+          <t>Persistent 2047 alarm</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/p46h4x/anyone_ever_run_a_makino_ke55_pro_jn_control/</t>
+          <t>2021-12-02T00:43:43.979Z</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/r6u77x/tornos_fanuc_31i_tisis_ip_address_question/</t>
         </is>
       </c>
     </row>
@@ -4385,12 +5545,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>First machine</t>
+          <t>"Tuning" a Fanuc VMC</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tajfre/tuning_a_fanuc_vmc/</t>
+          <t>2022-12-30T17:15:26.009Z</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/zz5ukf/persistent_2047_alarm/</t>
         </is>
       </c>
     </row>
@@ -4402,12 +5567,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Help Learning Lathe Controller: Haas vs Fanuc</t>
+          <t>How Tall is a Robodrill (T14)?</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cvxwn9/first_machine/</t>
+          <t>2022-03-09T22:30:13.474Z</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/tajfre/tuning_a_fanuc_vmc/</t>
         </is>
       </c>
     </row>
@@ -4419,12 +5589,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>How to Allign "C axis" for livetool on bothe side of part on CNC Lathe?</t>
+          <t>Help Learning Lathe Controller: Haas vs Fanuc</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/p241c2/help_learning_lathe_controller_haas_vs_fanuc/</t>
+          <t>2020-04-19T14:55:55.722Z</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/g48z8i/how_tall_is_a_robodrill_t14/</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5611,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>anyone run an old CNC lathe? fanuc 5T?</t>
+          <t>How to Limit the Maximum Offset Value?</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t3q3ig/how_to_allign_c_axis_for_livetool_on_bothe_side/</t>
+          <t>2021-08-11T02:31:39.614Z</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/p241c2/help_learning_lathe_controller_haas_vs_fanuc/</t>
         </is>
       </c>
     </row>
@@ -4453,12 +5633,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>How to get my lathe to use G54 C work offset instead of G50 C in code?</t>
+          <t>How do you view the machine logic on a Fanuc OM controller.</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tzh766/anyone_run_an_old_cnc_lathe_fanuc_5t/</t>
+          <t>2015-12-22T14:23:53.127Z</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/3xu5dd/how_to_limit_the_maximum_offset_value/</t>
         </is>
       </c>
     </row>
@@ -4470,12 +5655,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>How do you view the machine logic on a Fanuc OM controller.</t>
+          <t>Canned cycle alarm</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/19a4p1n/how_to_get_my_lathe_to_use_g54_c_work_offset/</t>
+          <t>2021-06-28T18:14:05.514Z</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/o9pzqy/how_do_you_view_the_machine_logic_on_a_fanuc_om/</t>
         </is>
       </c>
     </row>
@@ -4487,12 +5677,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Doosan Puma 400 Programming Guide?</t>
+          <t>Fanuc maintenance management</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/o9pzqy/how_do_you_view_the_machine_logic_on_a_fanuc_om/</t>
+          <t>2024-07-24T00:39:37.975Z</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1eao2gs/canned_cycle_alarm/</t>
         </is>
       </c>
     </row>
@@ -4504,12 +5699,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Fanuc maintenance management</t>
+          <t>old school</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8ftiwk/doosan_puma_400_programming_guide/</t>
+          <t>2021-12-17T06:10:48.209Z</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/rias3b/fanuc_maintenance_management/</t>
         </is>
       </c>
     </row>
@@ -4521,12 +5721,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>old school</t>
+          <t>anyone run an old CNC lathe? fanuc 5T?</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/rias3b/fanuc_maintenance_management/</t>
+          <t>2022-11-13T03:25:13.075Z</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/ytqk29/old_school/</t>
         </is>
       </c>
     </row>
@@ -4543,7 +5748,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ytqk29/old_school/</t>
+          <t>2022-04-09T00:19:56.509Z</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/tzh766/anyone_run_an_old_cnc_lathe_fanuc_5t/</t>
         </is>
       </c>
     </row>
@@ -4555,10 +5765,15 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Wire EDM Machining Questions</t>
+          <t>Looking for best way to create this feature on a mill</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
+        <is>
+          <t>2021-04-27T17:55:17.727Z</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/Machinists/comments/mzudt4/what_do_you_think_of_the_spindle_outer_diameter/</t>
         </is>
@@ -4577,7 +5792,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d9yd5w/wire_edm_machining_questions/</t>
+          <t>2024-10-18T16:53:45.337Z</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/1g6mx3t/looking_for_best_way_to_create_this_feature_on_a/</t>
         </is>
       </c>
     </row>
@@ -4589,10 +5809,15 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Persistent 2047 alarm</t>
+          <t>Set limits to Fanuc Robodrill alpha T21ie</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
+        <is>
+          <t>2022-01-19T02:27:30.950Z</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/Machinists/comments/s7f1js/fanuc_10m_from_1987_manual/</t>
         </is>
@@ -4611,7 +5836,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/zz5ukf/persistent_2047_alarm/</t>
+          <t>2021-05-23T08:11:27.487Z</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/nj3661/set_limits_to_fanuc_robodrill_alpha_t21ie/</t>
         </is>
       </c>
     </row>
@@ -4623,10 +5853,15 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Fanuc Robodrill keep relay lookup</t>
+          <t>General question for fanuc controls. can you turn off tool change(m06)?</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
+        <is>
+          <t>2020-02-25T21:49:22.946Z</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/Machinists/comments/f9hwtz/help_with_older_fanuc_controllerwork_coordinates/</t>
         </is>
@@ -4640,29 +5875,39 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>General question for fanuc controls. can you turn off tool change(m06)?</t>
+          <t>MDI tool changer not working - Fanuc 16iM - Robodrill</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ctxsl5/fanuc_robodrill_keep_relay_lookup/</t>
+          <t>2021-01-12T01:11:19.207Z</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/kvgwin/general_question_for_fanuc_controls_can_you_turn/</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Machinists</t>
+          <t>robotics</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Looping a Limited Number of Times</t>
+          <t>Learning fanuc robotics?</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kvgwin/general_question_for_fanuc_controls_can_you_turn/</t>
+          <t>2024-04-09T14:52:58.144Z</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1bzu4j8/so_i_could_buy_a_fanuc_robot_on_vention_for_60k/</t>
         </is>
       </c>
     </row>
@@ -4679,7 +5924,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1bzu4j8/so_i_could_buy_a_fanuc_robot_on_vention_for_60k/</t>
+          <t>2018-07-20T18:27:15.734Z</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/90igrp/learning_fanuc_robotics/</t>
         </is>
       </c>
     </row>
@@ -4691,10 +5941,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>hello people, can anyone help me identify which model fanuc robot this is? saw it rotting near an industrial unit</t>
+          <t>Has anyone moved from UR collaborative robots to Fanuc collaborative robots and regretted it?</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
+        <is>
+          <t>2022-06-24T16:50:15.414Z</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/vjsusl/i_wanted_to_retrofit_some_fanuc_paint_robots_with/</t>
         </is>
@@ -4713,7 +5968,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/k0wbws/hello_people_can_anyone_help_me_identify_which/</t>
+          <t>2020-06-23T16:41:21.871Z</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/hei0rx/has_anyone_moved_from_ur_collaborative_robots_to/</t>
         </is>
       </c>
     </row>
@@ -4725,10 +5985,15 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Has anyone moved from UR collaborative robots to Fanuc collaborative robots and regretted it?</t>
+          <t>Moving to UR from Fanuc CRX</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
+        <is>
+          <t>2024-09-24T00:15:06.077Z</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/1fnzj4v/very_large_fanuc_robot_m2000_lifting_chevy/</t>
         </is>
@@ -4747,7 +6012,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hei0rx/has_anyone_moved_from_ur_collaborative_robots_to/</t>
+          <t>2023-07-01T20:43:35.516Z</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/14o566j/moving_to_ur_from_fanuc_crx/</t>
         </is>
       </c>
     </row>
@@ -4759,10 +6029,15 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Moving to UR from Fanuc CRX</t>
+          <t>Buying a used Fanuc robot, what should I look out for?</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
+        <is>
+          <t>2024-07-22T07:01:08.751Z</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/1e97v6w/servo_motor_selection_guide_for_fanuc/</t>
         </is>
@@ -4781,7 +6056,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/14o566j/moving_to_ur_from_fanuc_crx/</t>
+          <t>2020-06-22T02:14:29.382Z</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/hdjczb/buying_a_used_fanuc_robot_what_should_i_look_out/</t>
         </is>
       </c>
     </row>
@@ -4793,10 +6073,15 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Learning fanuc robotics?</t>
+          <t>How do you say FANUC?</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
+        <is>
+          <t>2023-08-18T23:14:55.674Z</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/15uzkj7/fanuc_robot_arm_with_3d_vision/</t>
         </is>
@@ -4810,12 +6095,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Color Sensor for Fanuc CRX</t>
+          <t>Watch this FANUC multi-axis and machine vision system robotics doing demo cycles at the Automate 2024</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/90igrp/learning_fanuc_robotics/</t>
+          <t>2023-03-27T01:01:52.285Z</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/123634v/how_do_you_say_fanuc/</t>
         </is>
       </c>
     </row>
@@ -4827,12 +6117,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Can any Fanuc robot used to do welding?</t>
+          <t>hello people, can anyone help me identify which model fanuc robot this is? saw it rotting near an industrial unit</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cs0wn3/color_sensor_for_fanuc_crx/</t>
+          <t>2024-05-11T10:06:20.066Z</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1cpe48f/watch_this_fanuc_multiaxis_and_machine_vision/</t>
         </is>
       </c>
     </row>
@@ -4844,12 +6139,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Watch this FANUC multi-axis and machine vision system robotics doing demo cycles at the Automate 2024</t>
+          <t>Color Sensor for Fanuc CRX</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/13usnah/can_any_fanuc_robot_used_to_do_welding/</t>
+          <t>2020-11-25T17:20:06.185Z</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/k0wbws/hello_people_can_anyone_help_me_identify_which/</t>
         </is>
       </c>
     </row>
@@ -4861,12 +6161,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Accidentally cleared PR on Fanuc robot. Any way to get it back?</t>
+          <t>Repairing a Fanuc LR Mate 200iB robotic arm. So far I have 1 burned motor, 3 broken cross roller bearing and a lot of solid grease.</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cpe48f/watch_this_fanuc_multiaxis_and_machine_vision/</t>
+          <t>2024-05-14T19:32:17.659Z</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1cs0wn3/color_sensor_for_fanuc_crx/</t>
         </is>
       </c>
     </row>
@@ -4883,7 +6188,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/92crqy/accidentally_cleared_pr_on_fanuc_robot_any_way_to/</t>
+          <t>2021-10-01T18:01:10.742Z</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/pzdh9o/repairing_a_fanuc_lr_mate_200ib_robotic_arm_so/</t>
         </is>
       </c>
     </row>
@@ -4895,10 +6205,15 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Fanuc robot not leaving dcs.</t>
+          <t>[Q] Issues With Fanuc R30iA Teach Pendant</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
+        <is>
+          <t>2023-11-22T12:52:10.880Z</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/1818f6r/robodk_with_fanuc_robot_for_3d_printing/</t>
         </is>
@@ -4912,12 +6227,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Repairing a Fanuc LR Mate 200iB robotic arm. So far I have 1 burned motor, 3 broken cross roller bearing and a lot of solid grease.</t>
+          <t>Fanuc robot not leaving dcs.</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17wjt67/fanuc_robot_not_leaving_dcs/</t>
+          <t>2020-01-23T18:56:29.265Z</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/esxjsg/q_issues_with_fanuc_r30ia_teach_pendant/</t>
         </is>
       </c>
     </row>
@@ -4929,12 +6249,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>[Q] Issues With Fanuc R30iA Teach Pendant</t>
+          <t>Accidentally cleared PR on Fanuc robot. Any way to get it back?</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/pzdh9o/repairing_a_fanuc_lr_mate_200ib_robotic_arm_so/</t>
+          <t>2023-11-16T10:36:23.580Z</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/17wjt67/fanuc_robot_not_leaving_dcs/</t>
         </is>
       </c>
     </row>
@@ -4951,7 +6276,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/esxjsg/q_issues_with_fanuc_r30ia_teach_pendant/</t>
+          <t>2018-07-27T14:02:14.241Z</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/92crqy/accidentally_cleared_pr_on_fanuc_robot_any_way_to/</t>
         </is>
       </c>
     </row>
@@ -4963,10 +6293,15 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Welds from the fanuc robots are getting offset</t>
+          <t>Fanuc 3D calibration</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
+        <is>
+          <t>2023-11-28T00:45:16.055Z</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/185j0i2/how_much_is_the_payload_of_this_fanuc_robot_watch/</t>
         </is>
@@ -4985,7 +6320,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/rhcsn2/welds_from_the_fanuc_robots_are_getting_offset/</t>
+          <t>2019-01-11T01:00:24.260Z</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/aepueg/fanuc_3d_calibration/</t>
         </is>
       </c>
     </row>
@@ -4997,10 +6337,15 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Fanuc Fault Emergency!</t>
+          <t>[Q] Is anyone here familiar with the fanuc scara robot? I’m using it without the teaching pendant. I’m using the irprogrammer on a pc.</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
+        <is>
+          <t>2023-11-16T10:36:27.144Z</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/17wjt7q/fanuc_robot_not_leaving_dcs/</t>
         </is>
@@ -5014,12 +6359,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Fanuc Variables</t>
+          <t>Can any Fanuc robot used to do welding?</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/32uj9m/fanuc_fault_emergency/</t>
+          <t>2019-09-21T20:37:00.586Z</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/d7fxvo/q_is_anyone_here_familiar_with_the_fanuc_scara/</t>
         </is>
       </c>
     </row>
@@ -5031,12 +6381,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>[Q] Is anyone here familiar with the fanuc scara robot? I’m using it without the teaching pendant. I’m using the irprogrammer on a pc.</t>
+          <t>Anyone with OTC Daihen, Fanuc, and Motoman experience? I have a couple questions</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/131qmlw/fanuc_variables/</t>
+          <t>2023-05-29T11:49:27.745Z</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/13usnah/can_any_fanuc_robot_used_to_do_welding/</t>
         </is>
       </c>
     </row>
@@ -5048,12 +6403,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>How do you say FANUC?</t>
+          <t>Fanuc Variables</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/d7fxvo/q_is_anyone_here_familiar_with_the_fanuc_scara/</t>
+          <t>2017-07-27T22:42:13.341Z</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/6pzn8z/anyone_with_otc_daihen_fanuc_and_motoman/</t>
         </is>
       </c>
     </row>
@@ -5065,12 +6425,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FANUC/ Universal Robots: Their new cobots are no longer about the skills shortage</t>
+          <t>Fanuc Fault Emergency!</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/123634v/how_do_you_say_fanuc/</t>
+          <t>2023-04-28T12:41:56.211Z</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/131qmlw/fanuc_variables/</t>
         </is>
       </c>
     </row>
@@ -5087,7 +6452,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vncyw7/fanuc_universal_robots_their_new_cobots_are_no/</t>
+          <t>2015-04-16T20:44:48.377Z</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/32uj9m/fanuc_fault_emergency/</t>
         </is>
       </c>
     </row>
@@ -5099,10 +6469,15 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Can anyone help me with this issue?</t>
+          <t>FANUC/ Universal Robots: Their new cobots are no longer about the skills shortage</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
+        <is>
+          <t>2022-12-03T03:18:47.961Z</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/zb69kk/cobot_lincoln_cooper_cart_with_fanuc_arm_vs/</t>
         </is>
@@ -5116,12 +6491,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Managing weird axis coupling on Fanuc R-1000iA/120F-7B Seven-Axis Robot</t>
+          <t>Welds from the fanuc robots are getting offset</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17xs2uv/can_anyone_help_me_with_this_issue/</t>
+          <t>2022-06-29T10:53:26.911Z</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vncyw7/fanuc_universal_robots_their_new_cobots_are_no/</t>
         </is>
       </c>
     </row>
@@ -5133,12 +6513,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Finally got all 6 joints running with kinematics</t>
+          <t>FANUC Robots Display Incredible Precision on a Basketball</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vwl8o5/managing_weird_axis_coupling_on_fanuc/</t>
+          <t>2021-12-15T23:39:37.712Z</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/rhcsn2/welds_from_the_fanuc_robots_are_getting_offset/</t>
         </is>
       </c>
     </row>
@@ -5150,12 +6535,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>How difficult is it to switching robots (ie. Universal to Robotics to Fanuc etc.)</t>
+          <t>Managing weird axis coupling on Fanuc R-1000iA/120F-7B Seven-Axis Robot</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/spjlk5/finally_got_all_6_joints_running_with_kinematics/</t>
+          <t>2011-11-02T16:03:24.457Z</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/lxsp4/fanuc_robots_display_incredible_precision_on_a/</t>
         </is>
       </c>
     </row>
@@ -5167,12 +6557,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Anyone with OTC Daihen, Fanuc, and Motoman experience? I have a couple questions</t>
+          <t>[Question] What is the most commonly used brand of Industrial Robots in the United States?</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/p3tzpz/how_difficult_is_it_to_switching_robots_ie/</t>
+          <t>2022-07-11T15:34:01.975Z</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vwl8o5/managing_weird_axis_coupling_on_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5184,12 +6579,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Fanuc KAREL programmer sought</t>
+          <t>How difficult is it to switching robots (ie. Universal to Robotics to Fanuc etc.)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/6pzn8z/anyone_with_otc_daihen_fanuc_and_motoman/</t>
+          <t>2016-10-04T11:13:23.722Z</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/55szcq/question_what_is_the_most_commonly_used_brand_of/</t>
         </is>
       </c>
     </row>
@@ -5201,12 +6601,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Question for anyone with experience with FANUC robots. How exactly do I get Karel programs into the system, if the teach pendant only does the basic TPP programming?</t>
+          <t>FANUC API or documentation</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/tgokja/fanuc_karel_programmer_sought/</t>
+          <t>2021-08-13T20:56:48.091Z</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/p3tzpz/how_difficult_is_it_to_switching_robots_ie/</t>
         </is>
       </c>
     </row>
@@ -5218,12 +6623,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>3rd party vision system, that works with Fanuc and Yaskawa</t>
+          <t>Fanuc KAREL programmer sought</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5bbjhg/question_for_anyone_with_experience_with_fanuc/</t>
+          <t>2014-06-16T20:36:15.286Z</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/28b60c/fanuc_api_or_documentation/</t>
         </is>
       </c>
     </row>
@@ -5235,12 +6645,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FANUC RoboGuide/HandlingPRO keyboard hotkeys/shortcuts</t>
+          <t>Can anyone help me with this issue?</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sdfucl/3rd_party_vision_system_that_works_with_fanuc_and/</t>
+          <t>2022-03-18T00:24:51.110Z</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/tgokja/fanuc_karel_programmer_sought/</t>
         </is>
       </c>
     </row>
@@ -5252,12 +6667,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Fanuc 3D calibration</t>
+          <t>3rd party vision system, that works with Fanuc and Yaskawa</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/93xpaj/fanuc_roboguidehandlingpro_keyboard/</t>
+          <t>2023-11-17T23:15:38.365Z</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/17xs2uv/can_anyone_help_me_with_this_issue/</t>
         </is>
       </c>
     </row>
@@ -5269,12 +6689,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Buying a used Fanuc robot, what should I look out for?</t>
+          <t>Chinese industrial robots - are they any good?</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/aepueg/fanuc_3d_calibration/</t>
+          <t>2022-01-26T20:40:58.301Z</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/sdfucl/3rd_party_vision_system_that_works_with_fanuc_and/</t>
         </is>
       </c>
     </row>
@@ -5291,7 +6716,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hdjczb/buying_a_used_fanuc_robot_what_should_i_look_out/</t>
+          <t>2024-04-24T03:12:13.587Z</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1cbo0yy/chinese_industrial_robots_are_they_any_good/</t>
         </is>
       </c>
     </row>
@@ -5303,10 +6733,15 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chinese industrial robots - are they any good?</t>
+          <t>Question: What are the best tools for setting a robot's operational plane, or in the case of a FANUC robot, it's user frame and tool frame?</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
+        <is>
+          <t>2022-04-24T03:43:25.611Z</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/uam0cs/my_babies/</t>
         </is>
@@ -5320,12 +6755,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Question: What are the best tools for setting a robot's operational plane, or in the case of a FANUC robot, it's user frame and tool frame?</t>
+          <t>What are the most common component fails in industrial robots?</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cbo0yy/chinese_industrial_robots_are_they_any_good/</t>
+          <t>2019-05-02T15:41:53.399Z</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/bjwf5f/question_what_are_the_best_tools_for_setting_a/</t>
         </is>
       </c>
     </row>
@@ -5337,12 +6777,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>I need an approximate price of an industrial robot for a project, but I'm not affiliated with any company.</t>
+          <t>Fanuc teach pendent</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/bjwf5f/question_what_are_the_best_tools_for_setting_a/</t>
+          <t>2024-05-24T06:54:04.455Z</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1czens7/what_are_the_most_common_component_fails_in/</t>
         </is>
       </c>
     </row>
@@ -5354,12 +6799,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Fanuc teach pendent</t>
+          <t>FANUC RoboGuide/HandlingPRO keyboard hotkeys/shortcuts</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8hvya9/i_need_an_approximate_price_of_an_industrial/</t>
+          <t>2020-10-27T13:04:01.327Z</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/jj0pkf/fanuc_teach_pendent/</t>
         </is>
       </c>
     </row>
@@ -5371,12 +6821,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>What robotic arm is Cafe X using?</t>
+          <t>Interfacing Fanuc robots with Fanuc CNC controls. How hard is this? What controls do I need?</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jj0pkf/fanuc_teach_pendent/</t>
+          <t>2018-08-02T09:10:02.320Z</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/93xpaj/fanuc_roboguidehandlingpro_keyboard/</t>
         </is>
       </c>
     </row>
@@ -5388,12 +6843,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Interfacing Fanuc robots with Fanuc CNC controls. How hard is this? What controls do I need?</t>
+          <t>Question for anyone with experience with FANUC robots. How exactly do I get Karel programs into the system, if the teach pendant only does the basic TPP programming?</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jkk5xk/what_robotic_arm_is_cafe_x_using/</t>
+          <t>2018-07-01T23:51:43.829Z</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/8ve6ec/interfacing_fanuc_robots_with_fanuc_cnc_controls/</t>
         </is>
       </c>
     </row>
@@ -5405,12 +6865,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Software for Offline Robot Programming</t>
+          <t>Fanuc or Motoman Robotics</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8ve6ec/interfacing_fanuc_robots_with_fanuc_cnc_controls/</t>
+          <t>2016-11-05T19:06:22.084Z</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5bbjhg/question_for_anyone_with_experience_with_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5422,12 +6887,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Fanuc or Motoman Robotics</t>
+          <t>[MISC] Automated Gantry System with FANUC LR Mate 200iD Robot – FLT’s New LGR-3 Demo Gantry Cell</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/767siu/software_for_offline_robot_programming/</t>
+          <t>2017-08-24T21:46:08.929Z</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/6vu4sb/fanuc_or_motoman_robotics/</t>
         </is>
       </c>
     </row>
@@ -5439,12 +6909,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Question for someone familiar with Motoman robots</t>
+          <t>M-2000iA/2300: the world’s strongest robot is FANUC yellow</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/6vu4sb/fanuc_or_motoman_robotics/</t>
+          <t>2019-06-14T16:47:11.252Z</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/c0mc8p/misc_automated_gantry_system_with_fanuc_lr_mate/</t>
         </is>
       </c>
     </row>
@@ -5456,12 +6931,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[MISC] Automated Gantry System with FANUC LR Mate 200iD Robot – FLT’s New LGR-3 Demo Gantry Cell</t>
+          <t>Fanuc LR Mate 200iB</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1afmfp6/question_for_someone_familiar_with_motoman_robots/</t>
+          <t>2016-07-02T22:29:13.721Z</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/4qzcwp/m2000ia2300_the_worlds_strongest_robot_is_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5473,12 +6953,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>What are the most common component fails in industrial robots?</t>
+          <t>M-2000iA/2300: the world’s strongest robot is FANUC yellow</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/c0mc8p/misc_automated_gantry_system_with_fanuc_lr_mate/</t>
+          <t>2018-03-04T21:45:46.668Z</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/820u7t/fanuc_lr_mate_200ib/</t>
         </is>
       </c>
     </row>
@@ -5490,12 +6975,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>M-2000iA/2300: the world’s strongest robot is FANUC yellow</t>
+          <t>What robotic arm is Cafe X using?</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1czens7/what_are_the_most_common_component_fails_in/</t>
+          <t>2016-07-02T22:29:13.721Z</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/4qzcwp/m2000ia2300_the_worlds_strongest_robot_is_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5507,12 +6997,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Does anyone use ROS in manufacturing?</t>
+          <t>Fanuc LR Mate 200iB</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4qzcwp/m2000ia2300_the_worlds_strongest_robot_is_fanuc/</t>
+          <t>2020-10-29T22:19:03.165Z</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/jkk5xk/what_robotic_arm_is_cafe_x_using/</t>
         </is>
       </c>
     </row>
@@ -5524,12 +7019,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Fanuc LR Mate 200iB</t>
+          <t>Software for Offline Robot Programming</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17bvmor/does_anyone_use_ros_in_manufacturing/</t>
+          <t>2018-03-04T21:45:46.668Z</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/820u7t/fanuc_lr_mate_200ib/</t>
         </is>
       </c>
     </row>
@@ -5541,12 +7041,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Inverse Kinematics CRX-10iA</t>
+          <t>Dual Arm, Dual pendant, 2 aux axis.. Fanuc + Lincoln MIG welding setup.. enjoy!</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/820u7t/fanuc_lr_mate_200ib/</t>
+          <t>2017-10-13T21:11:27.559Z</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/767siu/software_for_offline_robot_programming/</t>
         </is>
       </c>
     </row>
@@ -5558,12 +7063,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Dual Arm, Dual pendant, 2 aux axis.. Fanuc + Lincoln MIG welding setup.. enjoy!</t>
+          <t>Inverse Kinematics CRX-10iA</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/rcwytg/inverse_kinematics_crx10ia/</t>
+          <t>2018-10-15T04:54:42.124Z</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9o9p0m/dual_arm_dual_pendant_2_aux_axis_fanuc_lincoln/</t>
         </is>
       </c>
     </row>
@@ -5575,12 +7085,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Where to go from here?</t>
+          <t>FANUC Manufacturing Robots can now see objects in high-resolution 3D.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9o9p0m/dual_arm_dual_pendant_2_aux_axis_fanuc_lincoln/</t>
+          <t>2021-12-10T01:44:42.605Z</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/rcwytg/inverse_kinematics_crx10ia/</t>
         </is>
       </c>
     </row>
@@ -5592,12 +7107,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>FANUC Manufacturing Robots can now see objects in high-resolution 3D.</t>
+          <t>Question for someone familiar with Motoman robots</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/zprpok/where_to_go_from_here/</t>
+          <t>2015-01-05T15:58:35.969Z</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/2rerhj/fanuc_manufacturing_robots_can_now_see_objects_in/</t>
         </is>
       </c>
     </row>
@@ -5609,12 +7129,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Id like to buy stocks in a robotic company. What’s the company you think will be have the biggest impact in robotics in the next 10 years?</t>
+          <t>Industrial robotics giant Fanuc is using AI to make automation even more automated</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2rerhj/fanuc_manufacturing_robots_can_now_see_objects_in/</t>
+          <t>2024-01-31T16:54:25.498Z</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1afmfp6/question_for_someone_familiar_with_motoman_robots/</t>
         </is>
       </c>
     </row>
@@ -5626,12 +7151,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>What are the top companies for robotics?</t>
+          <t>Does anyone use ROS in manufacturing?</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/13r370n/id_like_to_buy_stocks_in_a_robotic_company_whats/</t>
+          <t>2019-04-19T21:14:18.348Z</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/bf4eyo/industrial_robotics_giant_fanuc_is_using_ai_to/</t>
         </is>
       </c>
     </row>
@@ -5643,12 +7173,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Pick &amp; place robots</t>
+          <t>I accidentally a whole robot. Fanuc R2000iA 165F. What now? / crosspost from r/fanuc</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fo6gom/what_are_the_top_companies_for_robotics/</t>
+          <t>2023-10-19T22:30:10.654Z</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/17bvmor/does_anyone_use_ros_in_manufacturing/</t>
         </is>
       </c>
     </row>
@@ -5660,12 +7195,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Industrial robotics giant Fanuc is using AI to make automation even more automated</t>
+          <t>Hobbyist robot to learn how to program industrial ones</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ibwfl2/pick_place_robots/</t>
+          <t>2019-05-15T14:12:31.994Z</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/boyfia/i_accidentally_a_whole_robot_fanuc_r2000ia_165f/</t>
         </is>
       </c>
     </row>
@@ -5677,12 +7217,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Collaborative Robotic Machine Tending installation I did a while back - complete with dance music.</t>
+          <t>looking for a Fanuc robotic simulator like Handling pro. For class any ideas?</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/bf4eyo/industrial_robotics_giant_fanuc_is_using_ai_to/</t>
+          <t>2019-01-04T23:32:07.323Z</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/aco4qd/hobbyist_robot_to_learn_how_to_program_industrial/</t>
         </is>
       </c>
     </row>
@@ -5694,12 +7239,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>I accidentally a whole robot. Fanuc R2000iA 165F. What now? / crosspost from r/fanuc</t>
+          <t>Collaborative Robotic Machine Tending installation I did a while back - complete with dance music.</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/k1ndwn/collaborative_robotic_machine_tending/</t>
+          <t>2017-06-01T14:07:14.178Z</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/6emyfx/looking_for_a_fanuc_robotic_simulator_like/</t>
         </is>
       </c>
     </row>
@@ -5711,12 +7261,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>What are some areas of innovation in industrial robotics?</t>
+          <t>What's the difference? FANUC Alpha 22 vs Alpha 12</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/boyfia/i_accidentally_a_whole_robot_fanuc_r2000ia_165f/</t>
+          <t>2020-11-26T21:05:26.158Z</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/k1ndwn/collaborative_robotic_machine_tending/</t>
         </is>
       </c>
     </row>
@@ -5728,12 +7283,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>looking for a Fanuc robotic simulator like Handling pro. For class any ideas?</t>
+          <t>Resetting Servo Pulse Mismatch</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1civxf4/what_are_some_areas_of_innovation_in_industrial/</t>
+          <t>2017-12-08T01:39:00.551Z</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/7ibd6y/whats_the_difference_fanuc_alpha_22_vs_alpha_12/</t>
         </is>
       </c>
     </row>
@@ -5745,12 +7305,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Welding And Material Handling Robots In Action</t>
+          <t>Fanuc capabilities (LR Mate 200iC robot and R-30iA controller)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/6emyfx/looking_for_a_fanuc_robotic_simulator_like/</t>
+          <t>2024-02-19T13:55:58.173Z</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1aunuxa/resetting_servo_pulse_mismatch/</t>
         </is>
       </c>
     </row>
@@ -5762,12 +7327,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>What's the difference? FANUC Alpha 22 vs Alpha 12</t>
+          <t>Fast Robotic Bin Picking (see comments for more info)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/pgeuk3/welding_and_material_handling_robots_in_action/</t>
+          <t>2015-04-03T19:48:49.689Z</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/31cg30/fanuc_capabilities_lr_mate_200ic_robot_and_r30ia/</t>
         </is>
       </c>
     </row>
@@ -5779,12 +7349,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>What's the easiest industrial robot to setup a picking job?</t>
+          <t>Fanuc robot pick/place</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/7ibd6y/whats_the_difference_fanuc_alpha_22_vs_alpha_12/</t>
+          <t>2014-05-13T16:30:30.699Z</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/25gk59/fast_robotic_bin_picking_see_comments_for_more/</t>
         </is>
       </c>
     </row>
@@ -5796,12 +7371,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Fanuc capabilities (LR Mate 200iC robot and R-30iA controller)</t>
+          <t>Id like to buy stocks in a robotic company. What’s the company you think will be have the biggest impact in robotics in the next 10 years?</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17d4tet/whats_the_easiest_industrial_robot_to_setup_a/</t>
+          <t>2018-09-27T14:07:11.128Z</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9jd661/fanuc_robot_pickplace/</t>
         </is>
       </c>
     </row>
@@ -5813,12 +7393,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Where are robot arms typically housing their rotary encoders? (before or after the gearbox)</t>
+          <t>Sort of new to reddit.. Can I offer a service here perhaps? (Fanuc &amp; Lincoln specialist)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/31cg30/fanuc_capabilities_lr_mate_200ic_robot_and_r30ia/</t>
+          <t>2023-05-25T00:45:38.126Z</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/13r370n/id_like_to_buy_stocks_in_a_robotic_company_whats/</t>
         </is>
       </c>
     </row>
@@ -5830,12 +7415,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Fanuc robot pick/place</t>
+          <t>Where to go from here?</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/12eejo2/where_are_robot_arms_typically_housing_their/</t>
+          <t>2018-12-07T01:37:06.250Z</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/a3uwla/sort_of_new_to_reddit_can_i_offer_a_service_here/</t>
         </is>
       </c>
     </row>
@@ -5847,12 +7437,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>How to get a job making robots?</t>
+          <t>Fanuc I/O Operation</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9jd661/fanuc_robot_pickplace/</t>
+          <t>2022-12-19T13:33:36.141Z</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/zprpok/where_to_go_from_here/</t>
         </is>
       </c>
     </row>
@@ -5864,12 +7459,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Sort of new to reddit.. Can I offer a service here perhaps? (Fanuc &amp; Lincoln specialist)</t>
+          <t>Recommendations for a Robot</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16l8wmm/how_to_get_a_job_making_robots/</t>
+          <t>2015-01-27T20:26:01.109Z</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/2tvny6/fanuc_io_operation/</t>
         </is>
       </c>
     </row>
@@ -5881,12 +7481,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Industrial Robots</t>
+          <t>Fanuc R2000iB 165f</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/a3uwla/sort_of_new_to_reddit_can_i_offer_a_service_here/</t>
+          <t>2018-11-05T23:03:17.345Z</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9uinhs/recommendations_for_a_robot/</t>
         </is>
       </c>
     </row>
@@ -5898,12 +7503,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Fanuc I/O Operation</t>
+          <t>What are some areas of innovation in industrial robotics?</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/176b84y/industrial_robots/</t>
+          <t>2018-09-14T01:31:51.308Z</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9fnvaz/fanuc_r2000ib_165f/</t>
         </is>
       </c>
     </row>
@@ -5915,12 +7525,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Advice for getting into robotics?</t>
+          <t>There's no doubt SkyNet will use this FANUC sorting robot to pick your brains apart with unbelievable precision and speed...</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2tvny6/fanuc_io_operation/</t>
+          <t>2024-05-03T00:57:44.155Z</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1civxf4/what_are_some_areas_of_innovation_in_industrial/</t>
         </is>
       </c>
     </row>
@@ -5932,12 +7547,17 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Fanuc R2000iB 165f</t>
+          <t>Pick &amp; place robots</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f6zmq6/advice_for_getting_into_robotics/</t>
+          <t>2012-12-20T23:54:51.584Z</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1572sk/theres_no_doubt_skynet_will_use_this_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5949,12 +7569,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>I keep hearing everywhere that factory automating keeps getting cheaper. Can someone give me price examples how industrial robotic systems have developed over the last decade or so?</t>
+          <t>Weldpro with Fanuc</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9fnvaz/fanuc_r2000ib_165f/</t>
+          <t>2020-08-18T07:22:45.089Z</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ibwfl2/pick_place_robots/</t>
         </is>
       </c>
     </row>
@@ -5966,12 +7591,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>There's no doubt SkyNet will use this FANUC sorting robot to pick your brains apart with unbelievable precision and speed...</t>
+          <t>Maybe an obvious question! How do robots not 'droop'?</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5q0snl/i_keep_hearing_everywhere_that_factory_automating/</t>
+          <t>2018-01-24T15:41:30.736Z</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/7snwrs/weldpro_with_fanuc/</t>
         </is>
       </c>
     </row>
@@ -5983,12 +7613,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Is offline programming software widely used in industry?</t>
+          <t>What are the top companies for robotics?</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1572sk/theres_no_doubt_skynet_will_use_this_fanuc/</t>
+          <t>2015-12-04T17:52:41.436Z</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3vfvht/maybe_an_obvious_question_how_do_robots_not_droop/</t>
         </is>
       </c>
     </row>
@@ -6000,12 +7635,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Weldpro with Fanuc</t>
+          <t>Where are robot arms typically housing their rotary encoders? (before or after the gearbox)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8211vu/is_offline_programming_software_widely_used_in/</t>
+          <t>2024-09-24T06:59:07.801Z</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1fo6gom/what_are_the_top_companies_for_robotics/</t>
         </is>
       </c>
     </row>
@@ -6017,12 +7657,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Robotic arm market question</t>
+          <t>FANUC Robotics trade?</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/7snwrs/weldpro_with_fanuc/</t>
+          <t>2023-04-07T08:41:38.331Z</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/12eejo2/where_are_robot_arms_typically_housing_their/</t>
         </is>
       </c>
     </row>
@@ -6034,12 +7679,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>FANUC Robotics trade?</t>
+          <t>[Question] Which programming language is widely used in robotics programming? Which courses should I opt for as a mechanical engineering graduate?</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15o6oqo/robotic_arm_market_question/</t>
+          <t>2015-10-11T04:27:25.931Z</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3oaqxc/fanuc_robotics_trade/</t>
         </is>
       </c>
     </row>
@@ -6051,12 +7701,17 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Industrial Robots Stiffnesses</t>
+          <t>Here is Integrated Solutions' new FANUC robot with a custom palletizing tool</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3oaqxc/fanuc_robotics_trade/</t>
+          <t>2019-09-08T08:33:47.802Z</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/d18fxd/question_which_programming_language_is_widely/</t>
         </is>
       </c>
     </row>
@@ -6068,12 +7723,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Here is Integrated Solutions' new FANUC robot with a custom palletizing tool</t>
+          <t>6DOF cobots &lt;$6K</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/q66zkb/industrial_robots_stiffnesses/</t>
+          <t>2014-04-10T14:08:56.102Z</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/22ozcj/here_is_integrated_solutions_new_fanuc_robot_with/</t>
         </is>
       </c>
     </row>
@@ -6085,12 +7745,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Cobot Pricing List</t>
+          <t>My school just got an industrial Delta Bot, a Fanuc M-3ia 6s, do anyone know where to start to learn to use this thing?</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/22ozcj/here_is_integrated_solutions_new_fanuc_robot_with/</t>
+          <t>2023-05-27T02:58:18.288Z</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/13sw7tr/6dof_cobots_6k/</t>
         </is>
       </c>
     </row>
@@ -6102,12 +7767,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>My school just got an industrial Delta Bot, a Fanuc M-3ia 6s, do anyone know where to start to learn to use this thing?</t>
+          <t>Industrial Robots</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/m6b4n2/cobot_pricing_list/</t>
+          <t>2014-01-14T20:22:12.344Z</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1v7ssb/my_school_just_got_an_industrial_delta_bot_a/</t>
         </is>
       </c>
     </row>
@@ -6119,12 +7789,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>[Question] Which programming language is widely used in robotics programming? Which courses should I opt for as a mechanical engineering graduate?</t>
+          <t>The largest collaborative robot on the market: The Green Fanuc</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1v7ssb/my_school_just_got_an_industrial_delta_bot_a/</t>
+          <t>2023-10-12T16:34:58.026Z</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/176b84y/industrial_robots/</t>
         </is>
       </c>
     </row>
@@ -6136,12 +7811,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>The largest collaborative robot on the market: The Green Fanuc</t>
+          <t>Running a 1.5 ton Industrial Robot With an Open Source Controller</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/d18fxd/question_which_programming_language_is_widely/</t>
+          <t>2015-10-20T13:03:18.895Z</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3phj90/the_largest_collaborative_robot_on_the_market_the/</t>
         </is>
       </c>
     </row>
@@ -6153,12 +7833,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Running a 1.5 ton Industrial Robot With an Open Source Controller</t>
+          <t>Our school's Fanuc robot play the cup guessing game.</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3phj90/the_largest_collaborative_robot_on_the_market_the/</t>
+          <t>2022-02-15T05:01:32.446Z</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ssuyhi/running_a_15_ton_industrial_robot_with_an_open/</t>
         </is>
       </c>
     </row>
@@ -6170,12 +7855,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Our school's Fanuc robot play the cup guessing game.</t>
+          <t>I keep hearing everywhere that factory automating keeps getting cheaper. Can someone give me price examples how industrial robotic systems have developed over the last decade or so?</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ssuyhi/running_a_15_ton_industrial_robot_with_an_open/</t>
+          <t>2013-04-22T02:17:15.537Z</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1cu6yq/our_schools_fanuc_robot_play_the_cup_guessing_game/</t>
         </is>
       </c>
     </row>
@@ -6187,12 +7877,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>French fries go hi-tech with ‘Flippy 2’ robot | Reuters Video</t>
+          <t>How are FANUC and other robot makers using big data to save customers money?</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cu6yq/our_schools_fanuc_robot_play_the_cup_guessing_game/</t>
+          <t>2017-01-25T03:04:26.426Z</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5q0snl/i_keep_hearing_everywhere_that_factory_automating/</t>
         </is>
       </c>
     </row>
@@ -6204,12 +7899,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>How are FANUC and other robot makers using big data to save customers money?</t>
+          <t>I suck at programming.</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/xwd92d/french_fries_go_hitech_with_flippy_2_robot/</t>
+          <t>2016-06-07T22:17:49.013Z</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/4n1p7o/how_are_fanuc_and_other_robot_makers_using_big/</t>
         </is>
       </c>
     </row>
@@ -6221,12 +7921,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Robotics operating system</t>
+          <t>Robotic Software Platforms Market - ABB, Fanuc, KUKA, iRobot, Cyberbotics, Skilligent, and The Orocos Project are Key Companies</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4n1p7o/how_are_fanuc_and_other_robot_makers_using_big/</t>
+          <t>2020-10-11T16:10:15.633Z</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/j984go/i_suck_at_programming/</t>
         </is>
       </c>
     </row>
@@ -6238,12 +7943,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Robotic Software Platforms Market - ABB, Fanuc, KUKA, iRobot, Cyberbotics, Skilligent, and The Orocos Project are Key Companies</t>
+          <t>Advice for getting into robotics?</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1279r74/robotics_operating_system/</t>
+          <t>2016-06-28T07:28:47.588Z</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/4q8811/robotic_software_platforms_market_abb_fanuc_kuka/</t>
         </is>
       </c>
     </row>
@@ -6255,12 +7965,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>FANUC API or documentation</t>
+          <t>I made a new subreddit! r/Fanuc</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4q8811/robotic_software_platforms_market_abb_fanuc_kuka/</t>
+          <t>2024-09-02T06:06:04.231Z</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1f6zmq6/advice_for_getting_into_robotics/</t>
         </is>
       </c>
     </row>
@@ -6272,12 +7987,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>Fabuc robot motor humming</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/28b60c/fanuc_api_or_documentation/</t>
+          <t>2013-12-23T02:03:13.390Z</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1thzcm/i_made_a_new_subreddit_rfanuc/</t>
         </is>
       </c>
     </row>
@@ -6289,12 +8009,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>I made a new subreddit! r/Fanuc</t>
+          <t>Fanuc communications</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/z2fhr5/ama/</t>
+          <t>2024-09-29T02:03:24.271Z</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1frtwcg/fabuc_robot_motor_humming/</t>
         </is>
       </c>
     </row>
@@ -6311,7 +8036,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1thzcm/i_made_a_new_subreddit_rfanuc/</t>
+          <t>2016-04-19T12:44:36.538Z</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/4fhdud/fanuc_communications/</t>
         </is>
       </c>
     </row>
@@ -6323,10 +8053,15 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Fanuc communications</t>
+          <t>Fanuc's robotics experiment with deep learning</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
+        <is>
+          <t>2018-10-02T14:25:51.312Z</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/9kr2b4/is_ros_the_most_popular_system_for_designing/</t>
         </is>
@@ -6340,12 +8075,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Why are there fewer "big tech or openai like" success stories in robotics field?</t>
+          <t>Robotics operating system</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4fhdud/fanuc_communications/</t>
+          <t>2015-12-04T00:10:45.470Z</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3vcl6t/fanucs_robotics_experiment_with_deep_learning/</t>
         </is>
       </c>
     </row>
@@ -6357,12 +8097,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>FANUC Robots Display Incredible Precision on a Basketball</t>
+          <t>Help needed with FANUC P-145 Paint robot - Axis 5 Servo motor</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1e9kor5/why_are_there_fewer_big_tech_or_openai_like/</t>
+          <t>2023-03-31T04:12:33.466Z</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1279r74/robotics_operating_system/</t>
         </is>
       </c>
     </row>
@@ -6374,12 +8119,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Craftsman's $90M plan to bring manufacturing back to Texas flopped because of faulty robots</t>
+          <t>Why are there fewer "big tech or openai like" success stories in robotics field?</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/lxsp4/fanuc_robots_display_incredible_precision_on_a/</t>
+          <t>2016-01-13T04:07:58.374Z</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/40q9x2/help_needed_with_fanuc_p145_paint_robot_axis_5/</t>
         </is>
       </c>
     </row>
@@ -6391,12 +8141,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Fanuc's robotics experiment with deep learning</t>
+          <t>High School Fanuc Robot</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/156p1w3/craftsmans_90m_plan_to_bring_manufacturing_back/</t>
+          <t>2024-07-22T17:55:02.858Z</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1e9kor5/why_are_there_fewer_big_tech_or_openai_like/</t>
         </is>
       </c>
     </row>
@@ -6408,12 +8163,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Question about collision detection</t>
+          <t>Craftsman's $90M plan to bring manufacturing back to Texas flopped because of faulty robots</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3vcl6t/fanucs_robotics_experiment_with_deep_learning/</t>
+          <t>2015-06-26T18:41:40.119Z</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3b81h7/high_school_fanuc_robot/</t>
         </is>
       </c>
     </row>
@@ -6425,12 +8185,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Help needed with FANUC P-145 Paint robot - Axis 5 Servo motor</t>
+          <t>FANUC Robotics Automation Systems Integrators</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ijw294/question_about_collision_detection/</t>
+          <t>2023-07-22T16:48:45.115Z</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/156p1w3/craftsmans_90m_plan_to_bring_manufacturing_back/</t>
         </is>
       </c>
     </row>
@@ -6442,12 +8207,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>3d printed 6dof robot arm</t>
+          <t>Can anyone share or provide resources on real-world applications for robotic arms for actual companies / businesses?</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/40q9x2/help_needed_with_fanuc_p145_paint_robot_axis_5/</t>
+          <t>2011-11-16T17:10:30.167Z</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/mek0w/fanuc_robotics_automation_systems_integrators/</t>
         </is>
       </c>
     </row>
@@ -6459,12 +8229,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>High School Fanuc Robot</t>
+          <t>Robotic Welding Production Line</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/172leqf/3d_printed_6dof_robot_arm/</t>
+          <t>2023-03-10T02:03:45.713Z</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/11nbdvl/can_anyone_share_or_provide_resources_on/</t>
         </is>
       </c>
     </row>
@@ -6476,12 +8251,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Are there any companies that are creating robotics that are not human related?</t>
+          <t>Why have KUKA Robots become so popular in the last few years??</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3b81h7/high_school_fanuc_robot/</t>
+          <t>2021-08-22T22:29:44.087Z</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/p9mi16/robotic_welding_production_line/</t>
         </is>
       </c>
     </row>
@@ -6493,12 +8273,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>FANUC Robotics Automation Systems Integrators</t>
+          <t>Career in Robotics? Industry guidance? Could use some help refining my search.</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/18saq92/are_there_any_companies_that_are_creating/</t>
+          <t>2024-04-05T10:53:23.677Z</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1bwf238/why_have_kuka_robots_become_so_popular_in_the/</t>
         </is>
       </c>
     </row>
@@ -6510,12 +8295,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Does learning Computer Science will help me in Robotics? What should I focus on Software or Hardware?</t>
+          <t>Will Jackson, Founder of Engineered Arts- Soft Robotics Podcast</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mek0w/fanuc_robotics_automation_systems_integrators/</t>
+          <t>2024-11-01T19:51:26.391Z</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1ghe8e4/career_in_robotics_industry_guidance_could_use/</t>
         </is>
       </c>
     </row>
@@ -6532,7 +8322,12 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1awjy9z/does_learning_computer_science_will_help_me_in/</t>
+          <t>2023-02-26T23:20:03.617Z</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/11cw3eg/will_jackson_founder_of_engineered_arts_soft/</t>
         </is>
       </c>
     </row>
@@ -6544,10 +8339,15 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>"Off the shelf" robotic arm option with very specific requirements</t>
+          <t>Why japanese companies are no longer leading the robot industry? They were ahead in the 2000s, but now the US and China are on the driver's seat. What happened?</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
+        <is>
+          <t>2024-09-18T08:30:39.622Z</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/1fjnxmx/robot_axes_and_joints/</t>
         </is>
@@ -6561,12 +8361,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Robotic Welding Production Line</t>
+          <t>To roboticists working on larger robotic projects, especially in non-industrial fields, what process do you use?</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/14b2reb/off_the_shelf_robotic_arm_option_with_very/</t>
+          <t>2024-11-10T22:54:00.645Z</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1goddtv/why_japanese_companies_are_no_longer_leading_the/</t>
         </is>
       </c>
     </row>
@@ -6578,12 +8383,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>I feel like Disney robotics is really underrated.</t>
+          <t>Cobot Pricing List</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/p9mi16/robotic_welding_production_line/</t>
+          <t>2024-11-12T22:35:00.651Z</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1gpxlbu/to_roboticists_working_on_larger_robotic_projects/</t>
         </is>
       </c>
     </row>
@@ -6600,7 +8410,12 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/124b3zs/i_feel_like_disney_robotics_is_really_underrated/</t>
+          <t>2021-03-16T15:05:56.985Z</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/m6b4n2/cobot_pricing_list/</t>
         </is>
       </c>
     </row>
@@ -6612,10 +8427,15 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Best Joint Torque Controlled Cobot Manipulators?</t>
+          <t>5 axis milling with a KUKA</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
+        <is>
+          <t>2024-09-11T19:18:56.531Z</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/1feilrp/how_important_is_simulation_in_automation_and/</t>
         </is>
@@ -6629,12 +8449,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Fabuc robot motor humming</t>
+          <t>Finally got all 6 joints running with kinematics</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17jhiar/best_joint_torque_controlled_cobot_manipulators/</t>
+          <t>2019-01-10T10:57:01.476Z</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/aei0an/5_axis_milling_with_a_kuka/</t>
         </is>
       </c>
     </row>
@@ -6646,12 +8471,17 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Building a Robot Roller Coaster (Safety Focused)</t>
+          <t>Applications for a small 6-DOF arm?</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1frtwcg/fabuc_robot_motor_humming/</t>
+          <t>2022-02-10T23:17:54.237Z</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/spjlk5/finally_got_all_6_joints_running_with_kinematics/</t>
         </is>
       </c>
     </row>
@@ -6663,12 +8493,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Which countries are most advanced in terms of robotics and ai?</t>
+          <t>3d printed 6dof robot arm</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1czoc74/building_a_robot_roller_coaster_safety_focused/</t>
+          <t>2024-05-06T16:44:53.651Z</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1clnqrc/applications_for_a_small_6dof_arm/</t>
         </is>
       </c>
     </row>
@@ -6680,12 +8515,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>I suck at programming.</t>
+          <t>Does learning Computer Science will help me in Robotics? What should I focus on Software or Hardware?</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1ayfgmd/which_countries_are_most_advanced_in_terms_of/</t>
+          <t>2023-10-08T00:26:47.654Z</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/172leqf/3d_printed_6dof_robot_arm/</t>
         </is>
       </c>
     </row>
@@ -6697,12 +8537,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>We're hiring a Robotics Control Engineer - let me know if you're interested</t>
+          <t>Which countries are most advanced in terms of robotics and ai?</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/j984go/i_suck_at_programming/</t>
+          <t>2024-02-21T18:50:32.718Z</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1awjy9z/does_learning_computer_science_will_help_me_in/</t>
         </is>
       </c>
     </row>
@@ -6714,12 +8559,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Can anyone share or provide resources on real-world applications for robotic arms for actual companies / businesses?</t>
+          <t>6dof robot arm link lengths</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1c0379r/were_hiring_a_robotics_control_engineer_let_me/</t>
+          <t>2024-02-23T23:38:31.580Z</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1ayfgmd/which_countries_are_most_advanced_in_terms_of/</t>
         </is>
       </c>
     </row>
@@ -6731,12 +8581,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Gazebo Harmonic Gripper Plugin</t>
+          <t>We're hiring a Robotics Control Engineer - let me know if you're interested</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/11nbdvl/can_anyone_share_or_provide_resources_on/</t>
+          <t>2023-11-26T17:04:45.256Z</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/184f9v9/6dof_robot_arm_link_lengths/</t>
         </is>
       </c>
     </row>
@@ -6748,12 +8603,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>My babies.</t>
+          <t>Building a Robot Roller Coaster (Safety Focused)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fp4jag/gazebo_harmonic_gripper_plugin/</t>
+          <t>2024-04-09T21:04:43.192Z</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1c0379r/were_hiring_a_robotics_control_engineer_let_me/</t>
         </is>
       </c>
     </row>
@@ -6770,7 +8630,12 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1dluik4/my_babies/</t>
+          <t>2024-05-24T16:06:31.068Z</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1czoc74/building_a_robot_roller_coaster_safety_focused/</t>
         </is>
       </c>
     </row>
@@ -6782,10 +8647,15 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>[Q] When Robot arms like these cost around 30k USD, what contributes the most to its price?</t>
+          <t>How to implement Limp Mode?</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
+        <is>
+          <t>2021-10-15T12:35:21.101Z</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/q8niqn/reddit_meet_flippy_the_first_fully_autonomous_fry/</t>
         </is>
@@ -6799,12 +8669,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ABB IRB 4600 fault</t>
+          <t>Gazebo Harmonic Gripper Plugin</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ducmay/q_when_robot_arms_like_these_cost_around_30k_usd/</t>
+          <t>2022-09-04T21:07:21.631Z</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/x5xsoh/how_to_implement_limp_mode/</t>
         </is>
       </c>
     </row>
@@ -6816,12 +8691,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>6dof robot arm link lengths</t>
+          <t>I feel like Disney robotics is really underrated.</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fdnhzz/abb_irb_4600_fault/</t>
+          <t>2024-09-25T13:32:07.326Z</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1fp4jag/gazebo_harmonic_gripper_plugin/</t>
         </is>
       </c>
     </row>
@@ -6833,12 +8713,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>ABB skip alarm multiple times</t>
+          <t>ABB IRB 4600 fault</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/184f9v9/6dof_robot_arm_link_lengths/</t>
+          <t>2023-03-28T03:26:02.596Z</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/124b3zs/i_feel_like_disney_robotics_is_really_underrated/</t>
         </is>
       </c>
     </row>
@@ -6850,12 +8735,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>In which US states are most of the robotics companies based in the US?</t>
+          <t>Industrail Robot Language Failure</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1einjlh/abb_skip_alarm_multiple_times/</t>
+          <t>2024-09-10T17:24:36.043Z</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1fdnhzz/abb_irb_4600_fault/</t>
         </is>
       </c>
     </row>
@@ -6872,7 +8762,12 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9gop7j/in_which_us_states_are_most_of_the_robotics/</t>
+          <t>2024-07-10T13:27:46.793Z</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1dzvs6d/industrail_robot_language_failure/</t>
         </is>
       </c>
     </row>
@@ -6884,10 +8779,15 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Applications for a small 6-DOF arm?</t>
+          <t>MotoSim trial on virtual machine</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
+        <is>
+          <t>2022-03-10T00:21:49.834Z</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/talsbw/my_first_brand_new_robot_cant_wait_to_start/</t>
         </is>
@@ -6901,12 +8801,17 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>What is the methodology used at robot companies to design and develop a new robot?</t>
+          <t>ABB skip alarm multiple times</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1clnqrc/applications_for_a_small_6dof_arm/</t>
+          <t>2024-10-29T11:07:16.925Z</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1gerx9j/motosim_trial_on_virtual_machine/</t>
         </is>
       </c>
     </row>
@@ -6918,12 +8823,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Industry best practices for robot simulation (Gazebo)</t>
+          <t>Question about collision detection</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1d3fptt/what_is_the_methodology_used_at_robot_companies/</t>
+          <t>2024-08-02T22:43:57.863Z</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1einjlh/abb_skip_alarm_multiple_times/</t>
         </is>
       </c>
     </row>
@@ -6935,12 +8845,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Help with finding existing model of LM rail</t>
+          <t>What is the methodology used at robot companies to design and develop a new robot?</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fhysw9/industry_best_practices_for_robot_simulation/</t>
+          <t>2020-08-31T11:13:52.615Z</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ijw294/question_about_collision_detection/</t>
         </is>
       </c>
     </row>
@@ -6952,12 +8867,17 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Need path in RoboDK</t>
+          <t>[Q] When Robot arms like these cost around 30k USD, what contributes the most to its price?</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1dv3mfj/help_with_finding_existing_model_of_lm_rail/</t>
+          <t>2024-05-29T16:01:19.838Z</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1d3fptt/what_is_the_methodology_used_at_robot_companies/</t>
         </is>
       </c>
     </row>
@@ -6969,12 +8889,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Universal robot erfahrungen</t>
+          <t>Help with finding existing model of LM rail</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17gu7p5/need_path_in_robodk/</t>
+          <t>2019-11-10T15:14:15.170Z</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ducmay/q_when_robot_arms_like_these_cost_around_30k_usd/</t>
         </is>
       </c>
     </row>
@@ -6986,12 +8911,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>This video shows the evolution of humanoid robots from 2009 to 2020</t>
+          <t>My dream job is robotics repairs, maintainence, construction, basically anything about robots that isn't software. What are my best paths for my career?</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1bl77cb/universal_robot_erfahrungen/</t>
+          <t>2024-07-04T10:23:05.415Z</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1dv3mfj/help_with_finding_existing_model_of_lm_rail/</t>
         </is>
       </c>
     </row>
@@ -7003,12 +8933,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>This is what a worn reducer looks like - the grease goes in white and comes out like this.</t>
+          <t>What's the easiest industrial robot to setup a picking job?</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/12n1pob/this_video_shows_the_evolution_of_humanoid_robots/</t>
+          <t>2021-05-31T15:29:42.355Z</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/np61bd/my_dream_job_is_robotics_repairs_maintainence/</t>
         </is>
       </c>
     </row>
@@ -7020,12 +8955,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Finally got the Omron TM12 out of the crate!</t>
+          <t>Universal robot erfahrungen</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/x8e6d4/this_is_what_a_worn_reducer_looks_like_the_grease/</t>
+          <t>2023-10-21T15:15:28.014Z</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/17d4tet/whats_the_easiest_industrial_robot_to_setup_a/</t>
         </is>
       </c>
     </row>
@@ -7037,12 +8977,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ABB robot</t>
+          <t>This is what a worn reducer looks like - the grease goes in white and comes out like this.</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/oon1x3/finally_got_the_omron_tm12_out_of_the_crate/</t>
+          <t>2024-03-22T19:04:19.849Z</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1bl77cb/universal_robot_erfahrungen/</t>
         </is>
       </c>
     </row>
@@ -7054,12 +8999,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>My dream job is robotics repairs, maintainence, construction, basically anything about robots that isn't software. What are my best paths for my career?</t>
+          <t>My babies.</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1asij4n/abb_robot/</t>
+          <t>2022-09-07T19:32:37.293Z</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/x8e6d4/this_is_what_a_worn_reducer_looks_like_the_grease/</t>
         </is>
       </c>
     </row>
@@ -7071,12 +9021,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mobile manipulator with a 2kg payload and 740mm reach under 6k USD!</t>
+          <t>ABB robot</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/np61bd/my_dream_job_is_robotics_repairs_maintainence/</t>
+          <t>2024-06-22T12:24:56.492Z</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1dluik4/my_babies/</t>
         </is>
       </c>
     </row>
@@ -7088,12 +9043,17 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>How to implement Limp Mode?</t>
+          <t>Industrial robotics question</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vrt4d9/mobile_manipulator_with_a_2kg_payload_and_740mm/</t>
+          <t>2024-02-16T20:21:52.528Z</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1asij4n/abb_robot/</t>
         </is>
       </c>
     </row>
@@ -7105,12 +9065,17 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Cool view of gears in an expensive robot wrist joint</t>
+          <t>Mobile manipulator with a 2kg payload and 740mm reach under 6k USD!</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/x5xsoh/how_to_implement_limp_mode/</t>
+          <t>2023-02-27T19:59:36.775Z</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/11dl6zx/industrial_robotics_question/</t>
         </is>
       </c>
     </row>
@@ -7122,12 +9087,17 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Why have KUKA Robots become so popular in the last few years??</t>
+          <t>Overwhelmed about motor choices</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16xsfuk/cool_view_of_gears_in_an_expensive_robot_wrist/</t>
+          <t>2022-07-05T08:31:38.152Z</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vrt4d9/mobile_manipulator_with_a_2kg_payload_and_740mm/</t>
         </is>
       </c>
     </row>
@@ -7144,7 +9114,12 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1bwf238/why_have_kuka_robots_become_so_popular_in_the/</t>
+          <t>2024-09-18T14:56:06.728Z</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1fjutw3/overwhelmed_about_motor_choices/</t>
         </is>
       </c>
     </row>
@@ -7156,10 +9131,15 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Brief history of robotics</t>
+          <t>Any recommendations on a 6 axis robot to build and another for commercial use?</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
+        <is>
+          <t>2023-08-09T17:52:36.282Z</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/15mmda7/robotics_gift_for_beginner_child/</t>
         </is>
@@ -7173,12 +9153,17 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>What is "missing" in robotics?</t>
+          <t>Cool view of gears in an expensive robot wrist joint</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/122t06e/brief_history_of_robotics/</t>
+          <t>2021-09-12T01:06:41.138Z</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/pmj7qm/any_recommendations_on_a_6_axis_robot_to_build/</t>
         </is>
       </c>
     </row>
@@ -7190,12 +9175,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Any recommendations on a 6 axis robot to build and another for commercial use?</t>
+          <t>This video shows the evolution of humanoid robots from 2009 to 2020</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/up0449/what_is_missing_in_robotics/</t>
+          <t>2023-10-02T09:51:11.915Z</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/16xsfuk/cool_view_of_gears_in_an_expensive_robot_wrist/</t>
         </is>
       </c>
     </row>
@@ -7207,12 +9197,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>How to open a TP controller of a robot in Robo DK</t>
+          <t>Welding And Material Handling Robots In Action</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/pmj7qm/any_recommendations_on_a_6_axis_robot_to_build/</t>
+          <t>2023-04-15T13:03:05.840Z</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/12n1pob/this_video_shows_the_evolution_of_humanoid_robots/</t>
         </is>
       </c>
     </row>
@@ -7224,12 +9219,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Industrial robotics question</t>
+          <t>Kuka Robotic Arm Base Price Cost</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16fzsgy/how_to_open_a_tp_controller_of_a_robot_in_robo_dk/</t>
+          <t>2021-09-02T10:06:54.810Z</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/pgeuk3/welding_and_material_handling_robots_in_action/</t>
         </is>
       </c>
     </row>
@@ -7241,12 +9241,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>People who are working with robots: Are you worried to damage the robot when it crashes?</t>
+          <t>What is "missing" in robotics?</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/11dl6zx/industrial_robotics_question/</t>
+          <t>2017-02-23T19:17:35.304Z</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5vsezh/kuka_robotic_arm_base_price_cost/</t>
         </is>
       </c>
     </row>
@@ -7258,12 +9263,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Kuka Robotic Arm Base Price Cost</t>
+          <t>Rotational offset position relative to workobject ABB robot?</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/a1rkhn/people_who_are_working_with_robots_are_you/</t>
+          <t>2022-05-13T20:03:38.268Z</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/up0449/what_is_missing_in_robotics/</t>
         </is>
       </c>
     </row>
@@ -7275,12 +9285,17 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Small Update: Currently working on my cubic B-Spline Interpolation! Seems to work fine tho :)</t>
+          <t>Need path in RoboDK</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5vsezh/kuka_robotic_arm_base_price_cost/</t>
+          <t>2024-02-27T18:22:21.071Z</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1b1ixfv/rotational_offset_position_relative_to_workobject/</t>
         </is>
       </c>
     </row>
@@ -7292,12 +9307,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Servo Jitter</t>
+          <t>Brief history of robotics</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9rd6a0/small_update_currently_working_on_my_cubic/</t>
+          <t>2023-10-26T11:21:51.148Z</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/17gu7p5/need_path_in_robodk/</t>
         </is>
       </c>
     </row>
@@ -7309,12 +9329,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Giant industrial robot arm making s’mores</t>
+          <t>People who are working with robots: Are you worried to damage the robot when it crashes?</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1d73gfr/servo_jitter/</t>
+          <t>2023-03-26T17:18:31.066Z</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/122t06e/brief_history_of_robotics/</t>
         </is>
       </c>
     </row>
@@ -7326,12 +9351,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Overwhelmed about motor choices</t>
+          <t>[Q] Anyone know Semi-Professional Robot Arms available on the internet? Something like AR2</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ahupqj/giant_industrial_robot_arm_making_smores/</t>
+          <t>2018-11-30T11:16:10.039Z</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/a1rkhn/people_who_are_working_with_robots_are_you/</t>
         </is>
       </c>
     </row>
@@ -7343,12 +9373,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Dude tries to sit in a chair that's being controlled by a large robotic arm.</t>
+          <t>How to open a TP controller of a robot in Robo DK</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fjutw3/overwhelmed_about_motor_choices/</t>
+          <t>2020-02-16T12:17:33.889Z</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/f4py3x/q_anyone_know_semiprofessional_robot_arms/</t>
         </is>
       </c>
     </row>
@@ -7360,12 +9395,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Amber b1 up and running MoveIt 🥳</t>
+          <t>What is the accuracy of "desktop" robot arms?</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mix4jt/dude_tries_to_sit_in_a_chair_thats_being/</t>
+          <t>2023-09-11T16:27:00.916Z</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/16fzsgy/how_to_open_a_tp_controller_of_a_robot_in_robo_dk/</t>
         </is>
       </c>
     </row>
@@ -7377,12 +9417,17 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Transformation from Flange to End Effector Tip</t>
+          <t>Small Update: Currently working on my cubic B-Spline Interpolation! Seems to work fine tho :)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/tf26al/amber_b1_up_and_running_moveit/</t>
+          <t>2021-07-03T11:23:04.777Z</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ocw7xc/what_is_the_accuracy_of_desktop_robot_arms/</t>
         </is>
       </c>
     </row>
@@ -7399,7 +9444,12 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/10dl1cb/transformation_from_flange_to_end_effector_tip/</t>
+          <t>2018-10-25T18:58:22.007Z</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9rd6a0/small_update_currently_working_on_my_cubic/</t>
         </is>
       </c>
     </row>
@@ -7411,10 +9461,15 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>What is the highest paying job in the field of automation and robotics? How much do you make?</t>
+          <t>Giant industrial robot arm making s’mores</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
+        <is>
+          <t>2018-08-06T21:49:57.292Z</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/955kpi/how_do_i_calculate_the_movements_of_a_robotic_arm/</t>
         </is>
@@ -7428,12 +9483,17 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>[Q] Anyone know Semi-Professional Robot Arms available on the internet? Something like AR2</t>
+          <t>What is the highest paying job in the field of automation and robotics? How much do you make?</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jlq8kk/what_is_the_highest_paying_job_in_the_field_of/</t>
+          <t>2019-01-20T05:42:13.943Z</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ahupqj/giant_industrial_robot_arm_making_smores/</t>
         </is>
       </c>
     </row>
@@ -7445,12 +9505,17 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Robot unaccurate</t>
+          <t>Dude tries to sit in a chair that's being controlled by a large robotic arm.</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/f4py3x/q_anyone_know_semiprofessional_robot_arms/</t>
+          <t>2020-10-31T21:12:01.108Z</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/jlq8kk/what_is_the_highest_paying_job_in_the_field_of/</t>
         </is>
       </c>
     </row>
@@ -7462,12 +9527,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Publicly Traded Robotics Companies</t>
+          <t>I had a great time designing and building this robotic arm. If anyone interested, files, bom and assembly manual will be available.</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ykxlkb/robot_unaccurate/</t>
+          <t>2021-04-03T00:05:52.304Z</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/mix4jt/dude_tries_to_sit_in_a_chair_thats_being/</t>
         </is>
       </c>
     </row>
@@ -7479,12 +9549,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Used Baxter for sale</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/atxrwz/publicly_traded_robotics_companies/</t>
+          <t>2023-03-07T17:17:02.042Z</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/11l56bb/i_had_a_great_time_designing_and_building_this/</t>
         </is>
       </c>
     </row>
@@ -7496,12 +9571,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Rotational offset position relative to workobject ABB robot?</t>
+          <t>Making a Business of Robotics - How do I go from a prototype to a product?</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3torhc/used_baxter_for_sale/</t>
+          <t>2022-11-23T04:39:55.931Z</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/z2fhr5/ama/</t>
         </is>
       </c>
     </row>
@@ -7513,12 +9593,17 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>I believe it was reported that Amazon has a new robot called Sparrow that did a lot of things, but, I don't think there was any video of the robotic arm posted.</t>
+          <t>Transformation from Flange to End Effector Tip</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1b1ixfv/rotational_offset_position_relative_to_workobject/</t>
+          <t>2020-08-08T05:57:35.267Z</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/i5u2cc/making_a_business_of_robotics_how_do_i_go_from_a/</t>
         </is>
       </c>
     </row>
@@ -7530,12 +9615,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Building bipedal walking robots that look like humans is a waste of time and efforts are better else spent on more useful projects</t>
+          <t>Automata develops $3,000 six-axis robotic arm</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/yrw81f/i_believe_it_was_reported_that_amazon_has_a_new/</t>
+          <t>2023-01-16T17:28:37.448Z</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/10dl1cb/transformation_from_flange_to_end_effector_tip/</t>
         </is>
       </c>
     </row>
@@ -7547,12 +9637,17 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Inspiration for a major academic robotics task</t>
+          <t>Used Baxter for sale</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/kjoncl/building_bipedal_walking_robots_that_look_like/</t>
+          <t>2015-10-22T07:08:00.639Z</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3pqt1p/automata_develops_3000_sixaxis_robotic_arm/</t>
         </is>
       </c>
     </row>
@@ -7564,12 +9659,17 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Cool 3D printed robot arm</t>
+          <t>How to get a job making robots?</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/y1ytkn/inspiration_for_a_major_academic_robotics_task/</t>
+          <t>2015-11-21T12:48:42.979Z</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3torhc/used_baxter_for_sale/</t>
         </is>
       </c>
     </row>
@@ -7581,12 +9681,17 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>German AI-Startup: Older industrial robots can now be upgraded using software - regardless of manufacturer</t>
+          <t>Robot unaccurate</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f0eud7/cool_3d_printed_robot_arm/</t>
+          <t>2023-09-17T18:57:01.420Z</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/16l8wmm/how_to_get_a_job_making_robots/</t>
         </is>
       </c>
     </row>
@@ -7598,12 +9703,17 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>I had a great time designing and building this robotic arm. If anyone interested, files, bom and assembly manual will be available.</t>
+          <t>How are industrial 6-axis robots manufactured - tolerances and stackup at the TCP</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vowh3p/german_aistartup_older_industrial_robots_can_now/</t>
+          <t>2022-11-03T09:44:21.826Z</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ykxlkb/robot_unaccurate/</t>
         </is>
       </c>
     </row>
@@ -7615,12 +9725,17 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>I believe it was reported that Amazon has a new robot called Sparrow that did a lot of things, but, I don't think there was any video of the robotic arm posted.</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/11l56bb/i_had_a_great_time_designing_and_building_this/</t>
+          <t>2024-07-14T19:35:58.336Z</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1e3awhp/how_are_industrial_6axis_robots_manufactured/</t>
         </is>
       </c>
     </row>
@@ -7632,12 +9747,17 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Making a Business of Robotics - How do I go from a prototype to a product?</t>
+          <t>20k arm with no documentation? Any experience with neural robotics?</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/n1kxq0/automation/</t>
+          <t>2022-11-11T00:18:40.009Z</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/yrw81f/i_believe_it_was_reported_that_amazon_has_a_new/</t>
         </is>
       </c>
     </row>
@@ -7649,12 +9769,17 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>What to do with a giant industrial robot arm</t>
+          <t>Inspiration for a major academic robotics task</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/i5u2cc/making_a_business_of_robotics_how_do_i_go_from_a/</t>
+          <t>2024-10-05T01:26:47.315Z</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1fwf7ss/20k_arm_with_no_documentation_any_experience_with/</t>
         </is>
       </c>
     </row>
@@ -7666,12 +9791,17 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Draw and write anything with ABB robots - IRB Drawing Interface</t>
+          <t>Cool 3D printed robot arm</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/abfbda/what_to_do_with_a_giant_industrial_robot_arm/</t>
+          <t>2022-10-12T09:03:14.969Z</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/y1ytkn/inspiration_for_a_major_academic_robotics_task/</t>
         </is>
       </c>
     </row>
@@ -7683,12 +9813,17 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Automotive industry shop with 4 different robots - Best offline programming software?</t>
+          <t>German AI-Startup: Older industrial robots can now be upgraded using software - regardless of manufacturer</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9mpcu7/draw_and_write_anything_with_abb_robots_irb/</t>
+          <t>2024-08-24T20:30:25.517Z</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1f0eud7/cool_3d_printed_robot_arm/</t>
         </is>
       </c>
     </row>
@@ -7700,12 +9835,17 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Next big things in robotics?</t>
+          <t>Are there any companies that are creating robotics that are not human related?</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vhz2qh/automotive_industry_shop_with_4_different_robots/</t>
+          <t>2022-07-01T09:12:45.711Z</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vowh3p/german_aistartup_older_industrial_robots_can_now/</t>
         </is>
       </c>
     </row>
@@ -7717,12 +9857,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Career Advice?</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1diw6eq/next_big_things_in_robotics/</t>
+          <t>2023-12-27T20:46:07.195Z</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/18saq92/are_there_any_companies_that_are_creating/</t>
         </is>
       </c>
     </row>
@@ -7734,12 +9879,17 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>So why doesn't robotics work?</t>
+          <t>Next big things in robotics?</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vatu9i/career_advice/</t>
+          <t>2021-04-30T03:04:03.908Z</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/n1kxq0/automation/</t>
         </is>
       </c>
     </row>
@@ -7751,12 +9901,17 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Weekly Question - Recommendation - Help Thread</t>
+          <t>What to do with a giant industrial robot arm</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/kma1ld/so_why_doesnt_robotics_work/</t>
+          <t>2024-06-18T17:22:38.166Z</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1diw6eq/next_big_things_in_robotics/</t>
         </is>
       </c>
     </row>
@@ -7768,12 +9923,17 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>'99 Seiko/Epson SCARA Hobby Retrofit</t>
+          <t>So why doesn't robotics work?</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vw4q5h/weekly_question_recommendation_help_thread/</t>
+          <t>2019-01-01T05:18:23.832Z</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/abfbda/what_to_do_with_a_giant_industrial_robot_arm/</t>
         </is>
       </c>
     </row>
@@ -7785,12 +9945,17 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>New robot came today, we decided to make it taller (6 ft ladder for scale).</t>
+          <t>Automotive industry shop with 4 different robots - Best offline programming software?</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/rvzc1c/99_seikoepson_scara_hobby_retrofit/</t>
+          <t>2020-12-29T07:56:51.769Z</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/kma1ld/so_why_doesnt_robotics_work/</t>
         </is>
       </c>
     </row>
@@ -7802,12 +9967,17 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Robotics engineers, how did YOU get into the field?</t>
+          <t>Why is ROS only used in academia?</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/3ihr8c/new_robot_came_today_we_decided_to_make_it_taller/</t>
+          <t>2022-06-22T07:08:16.268Z</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vhz2qh/automotive_industry_shop_with_4_different_robots/</t>
         </is>
       </c>
     </row>
@@ -7819,12 +9989,17 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Need help with an Automation project I'm working on</t>
+          <t>Career Advice?</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4issvb/robotics_engineers_how_did_you_get_into_the_field/</t>
+          <t>2024-09-04T21:52:23.514Z</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1f95pvk/why_is_ros_only_used_in_academia/</t>
         </is>
       </c>
     </row>
@@ -7836,12 +10011,17 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Minimum RAM required for a robot?</t>
+          <t>'99 Seiko/Epson SCARA Hobby Retrofit</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sptzx8/need_help_with_an_automation_project_im_working_on/</t>
+          <t>2022-06-12T19:49:28.909Z</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vatu9i/career_advice/</t>
         </is>
       </c>
     </row>
@@ -7853,12 +10033,17 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Ergonomics record of a cobot</t>
+          <t>Weekly Question - Recommendation - Help Thread</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/10rr1ji/minimum_ram_required_for_a_robot/</t>
+          <t>2022-01-04T17:10:57.709Z</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/rvzc1c/99_seikoepson_scara_hobby_retrofit/</t>
         </is>
       </c>
     </row>
@@ -7870,12 +10055,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>A robotic arm simulation software</t>
+          <t>Draw and write anything with ABB robots - IRB Drawing Interface</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ti0560/ergonomics_record_of_a_cobot/</t>
+          <t>2022-07-11T00:00:08.821Z</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vw4q5h/weekly_question_recommendation_help_thread/</t>
         </is>
       </c>
     </row>
@@ -7887,12 +10077,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Robot Selection Help</t>
+          <t>New robot came today, we decided to make it taller (6 ft ladder for scale).</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/j8sepa/a_robotic_arm_simulation_software/</t>
+          <t>2018-10-09T13:57:21.646Z</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9mpcu7/draw_and_write_anything_with_abb_robots_irb/</t>
         </is>
       </c>
     </row>
@@ -7904,12 +10099,17 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Finally: childhood dream fulfilled. It just came in the mail, the HeathKit Hero. I want to rebuild him for the modern era.</t>
+          <t>"Off the shelf" robotic arm option with very specific requirements</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ozxtot/robot_selection_help/</t>
+          <t>2015-08-26T17:50:44.096Z</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/3ihr8c/new_robot_came_today_we_decided_to_make_it_taller/</t>
         </is>
       </c>
     </row>
@@ -7921,12 +10121,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Can I apply reinforcement learning to robot teaching?</t>
+          <t>Need help with an Automation project I'm working on</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gcwf8b/finally_childhood_dream_fulfilled_it_just_came_in/</t>
+          <t>2023-06-16T17:29:39.690Z</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/14b2reb/off_the_shelf_robotic_arm_option_with_very/</t>
         </is>
       </c>
     </row>
@@ -7938,12 +10143,17 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Why are Universal Robots so expensive?</t>
+          <t>A robotic arm simulation software</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/b6j31p/can_i_apply_reinforcement_learning_to_robot/</t>
+          <t>2022-02-11T07:56:38.084Z</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/sptzx8/need_help_with_an_automation_project_im_working_on/</t>
         </is>
       </c>
     </row>
@@ -7955,12 +10165,17 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Why isn't industrial robotics / automation more widespread?</t>
+          <t>Ergonomics record of a cobot</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/14bawkt/why_are_universal_robots_so_expensive/</t>
+          <t>2020-10-10T21:11:33.074Z</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/j8sepa/a_robotic_arm_simulation_software/</t>
         </is>
       </c>
     </row>
@@ -7972,12 +10187,17 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Robotics jobs - recession proof</t>
+          <t>Why are Universal Robots so expensive?</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gaw6tm/why_isnt_industrial_robotics_automation_more/</t>
+          <t>2022-03-19T17:26:08.639Z</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ti0560/ergonomics_record_of_a_cobot/</t>
         </is>
       </c>
     </row>
@@ -7989,12 +10209,17 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>7 Axis Articulated Arm from Scratch.</t>
+          <t>Robot Selection Help</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/121dx9p/robotics_jobs_recession_proof/</t>
+          <t>2023-06-16T23:14:59.145Z</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/14bawkt/why_are_universal_robots_so_expensive/</t>
         </is>
       </c>
     </row>
@@ -8006,12 +10231,17 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Recommendation for a robot arm with SDK or API to perform gripper research</t>
+          <t>Palletizing with CoBots by Universal Robotics (UR5E)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mjydvx/7_axis_articulated_arm_from_scratch/</t>
+          <t>2021-08-07T17:46:08.085Z</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/ozxtot/robot_selection_help/</t>
         </is>
       </c>
     </row>
@@ -8023,12 +10253,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Need Help for a school project</t>
+          <t>Can I apply reinforcement learning to robot teaching?</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9vd57y/recommendation_for_a_robot_arm_with_sdk_or_api_to/</t>
+          <t>2021-11-29T14:04:18.812Z</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/r4wj1z/palletizing_with_cobots_by_universal_robotics_ur5e/</t>
         </is>
       </c>
     </row>
@@ -8040,12 +10275,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Chances of getting a job in robotics</t>
+          <t>Kind of servo is this? Modbot.</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/q5epa7/need_help_for_a_school_project/</t>
+          <t>2019-03-28T13:55:37.433Z</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/b6j31p/can_i_apply_reinforcement_learning_to_robot/</t>
         </is>
       </c>
     </row>
@@ -8057,12 +10297,17 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Residential Construction Robot - Looking to Hire</t>
+          <t>Why isn't industrial robotics / automation more widespread?</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9cc270/chances_of_getting_a_job_in_robotics/</t>
+          <t>2017-02-05T19:37:06.118Z</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5s9e9l/kind_of_servo_is_this_modbot/</t>
         </is>
       </c>
     </row>
@@ -8074,12 +10319,17 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Does anyone have experience with UFactory's xArm 6/7?</t>
+          <t>Recommendation for a robot arm with SDK or API to perform gripper research</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/k3bh9c/residential_construction_robot_looking_to_hire/</t>
+          <t>2020-04-30T14:00:21.314Z</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/gaw6tm/why_isnt_industrial_robotics_automation_more/</t>
         </is>
       </c>
     </row>
@@ -8091,12 +10341,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Anyone have experience with the AR3</t>
+          <t>7 Axis Articulated Arm from Scratch.</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jkhnff/does_anyone_have_experience_with_ufactorys_xarm_67/</t>
+          <t>2018-11-08T19:35:58.874Z</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9vd57y/recommendation_for_a_robot_arm_with_sdk_or_api_to/</t>
         </is>
       </c>
     </row>
@@ -8108,12 +10363,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Advice on learning industrial robotics</t>
+          <t>A Robotics Roadmap to get you started</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/jl9k9e/anyone_have_experience_with_the_ar3/</t>
+          <t>2021-04-04T15:29:46.680Z</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/mjydvx/7_axis_articulated_arm_from_scratch/</t>
         </is>
       </c>
     </row>
@@ -8125,12 +10385,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Newbie question: Am interested in robootics and have a programming background but I have no idea where to start</t>
+          <t>Need Help for a school project</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1g2t5zo/advice_on_learning_industrial_robotics/</t>
+          <t>2022-07-12T09:50:49.081Z</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/vx7e72/a_robotics_roadmap_to_get_you_started/</t>
         </is>
       </c>
     </row>
@@ -8142,12 +10407,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Welding Robotics</t>
+          <t>Amber b1 up and running MoveIt 🥳</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2m6nzp/newbie_question_am_interested_in_robootics_and/</t>
+          <t>2021-10-10T19:18:40.395Z</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/q5epa7/need_help_for_a_school_project/</t>
         </is>
       </c>
     </row>
@@ -8159,12 +10429,17 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Open Source (Industrial) Robotics Controller - what do you think?</t>
+          <t>Residential Construction Robot - Looking to Hire</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15jd962/welding_robotics/</t>
+          <t>2022-03-15T22:27:19.117Z</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/tf26al/amber_b1_up_and_running_moveit/</t>
         </is>
       </c>
     </row>
@@ -8176,12 +10451,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Palletizing with CoBots by Universal Robotics (UR5E)</t>
+          <t>Using machine learning, computer vision, and automation to rethink waste sorting.</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9b7sri/open_source_industrial_robotics_controller_what/</t>
+          <t>2020-11-29T15:46:24.549Z</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/k3bh9c/residential_construction_robot_looking_to_hire/</t>
         </is>
       </c>
     </row>
@@ -8193,12 +10473,17 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>How can I become a robotics engineer?</t>
+          <t>Newbie question: Am interested in robootics and have a programming background but I have no idea where to start</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/r4wj1z/palletizing_with_cobots_by_universal_robotics_ur5e/</t>
+          <t>2023-02-07T17:36:58.723Z</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/10w7ttf/using_machine_learning_computer_vision_and/</t>
         </is>
       </c>
     </row>
@@ -8210,12 +10495,17 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Multi-physics engine simulation</t>
+          <t>Welding Robotics</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/isfo0b/how_can_i_become_a_robotics_engineer/</t>
+          <t>2014-11-13T15:03:35.231Z</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/2m6nzp/newbie_question_am_interested_in_robootics_and/</t>
         </is>
       </c>
     </row>
@@ -8227,12 +10517,17 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Is "in-house" ever going to be a phenomenon in industrial robotics</t>
+          <t>Open Source (Industrial) Robotics Controller - what do you think?</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1dz0hst/multiphysics_engine_simulation/</t>
+          <t>2023-08-06T01:54:33.483Z</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/15jd962/welding_robotics/</t>
         </is>
       </c>
     </row>
@@ -8244,12 +10539,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Questions about choosing the right master project and RAPID programming.</t>
+          <t>What course should I take at University to become a robotic engineer?</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8qoked/is_inhouse_ever_going_to_be_a_phenomenon_in/</t>
+          <t>2018-08-29T09:40:28.736Z</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9b7sri/open_source_industrial_robotics_controller_what/</t>
         </is>
       </c>
     </row>
@@ -8261,12 +10561,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Palletization problems with a giant handling robot... any ideas?</t>
+          <t>Anyone have experience with the AR3</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1df4sl/questions_about_choosing_the_right_master_project/</t>
+          <t>2020-12-28T19:01:24.317Z</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/klwl7a/what_course_should_i_take_at_university_to_become/</t>
         </is>
       </c>
     </row>
@@ -8278,12 +10583,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Is the US job market really bad right now?</t>
+          <t>Advice on learning industrial robotics</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5o2zhu/palletization_problems_with_a_giant_handling/</t>
+          <t>2020-10-31T01:21:43.944Z</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/jl9k9e/anyone_have_experience_with_the_ar3/</t>
         </is>
       </c>
     </row>
@@ -8295,12 +10605,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Anyone interested in Industrial Weld and Material Handling robots?</t>
+          <t>How can I become a robotics engineer?</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15gj4x1/is_the_us_job_market_really_bad_right_now/</t>
+          <t>2024-10-13T16:11:40.263Z</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1g2t5zo/advice_on_learning_industrial_robotics/</t>
         </is>
       </c>
     </row>
@@ -8312,12 +10627,17 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Careers in robotics?</t>
+          <t>In which US states are most of the robotics companies based in the US?</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/52562i/anyone_interested_in_industrial_weld_and_material/</t>
+          <t>2020-09-14T06:34:36.222Z</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/isfo0b/how_can_i_become_a_robotics_engineer/</t>
         </is>
       </c>
     </row>
@@ -8329,12 +10649,17 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Robotic System for Sorting Recyclables – Waste Robotics</t>
+          <t>Is "in-house" ever going to be a phenomenon in industrial robotics</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/mo0w5/careers_in_robotics/</t>
+          <t>2018-09-17T21:52:25.835Z</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9gop7j/in_which_us_states_are_most_of_the_robotics/</t>
         </is>
       </c>
     </row>
@@ -8346,12 +10671,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Passing Ethernet/USB through a robot?</t>
+          <t>Robotics jobs - recession proof</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/bepv7g/robotic_system_for_sorting_recyclables_waste/</t>
+          <t>2018-06-13T01:39:21.267Z</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/8qoked/is_inhouse_ever_going_to_be_a_phenomenon_in/</t>
         </is>
       </c>
     </row>
@@ -8363,12 +10693,17 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Foxconn's First Robot is Here</t>
+          <t>Palletization problems with a giant handling robot... any ideas?</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sq3t9f/passing_ethernetusb_through_a_robot/</t>
+          <t>2023-03-25T07:06:26.673Z</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/121dx9p/robotics_jobs_recession_proof/</t>
         </is>
       </c>
     </row>
@@ -8380,12 +10715,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TL:DR – I’m looking for problems people face in their work.</t>
+          <t>Details on how industrial robots are retasked in the automotive industry</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/13cv63/foxconns_first_robot_is_here/</t>
+          <t>2017-01-15T08:41:48.163Z</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5o2zhu/palletization_problems_with_a_giant_handling/</t>
         </is>
       </c>
     </row>
@@ -8397,12 +10737,17 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Question on KAREL and Roboguide</t>
+          <t>Anyone interested in Industrial Weld and Material Handling robots?</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fqvkoa/tldr_im_looking_for_problems_people_face_in_their/</t>
+          <t>2018-10-05T19:08:56.894Z</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9lp8p2/details_on_how_industrial_robots_are_retasked_in/</t>
         </is>
       </c>
     </row>
@@ -8414,12 +10759,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>If any of you are Robotics/Automation technicians, what are your typical duties? Also, what training led you to get your job?</t>
+          <t>CAD software with the easiest learning curve</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/km15d3/question_on_karel_and_roboguide/</t>
+          <t>2016-09-10T21:06:41.752Z</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/52562i/anyone_interested_in_industrial_weld_and_material/</t>
         </is>
       </c>
     </row>
@@ -8431,12 +10781,17 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Where to find customers for industrial robots, integration services?</t>
+          <t>Robotic System for Sorting Recyclables – Waste Robotics</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gs6pbo/if_any_of_you_are_roboticsautomation_technicians/</t>
+          <t>2024-09-05T13:37:13.043Z</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1f9mp81/cad_software_with_the_easiest_learning_curve/</t>
         </is>
       </c>
     </row>
@@ -8448,12 +10803,17 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CAD software with the easiest learning curve</t>
+          <t>Questions about choosing the right master project and RAPID programming.</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9os8ee/where_to_find_customers_for_industrial_robots/</t>
+          <t>2019-04-18T19:47:11.520Z</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/bepv7g/robotic_system_for_sorting_recyclables_waste/</t>
         </is>
       </c>
     </row>
@@ -8465,12 +10825,17 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>This Company’s Robots Are Making Everything—and Reshaping the World</t>
+          <t>Foxconn's First Robot is Here</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f9mp81/cad_software_with_the_easiest_learning_curve/</t>
+          <t>2013-04-30T16:46:10.760Z</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1df4sl/questions_about_choosing_the_right_master_project/</t>
         </is>
       </c>
     </row>
@@ -8482,12 +10847,17 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>I'm giving robotics lessons to kids 5-12 years. Any ideas?</t>
+          <t>Passing Ethernet/USB through a robot?</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/777zty/this_companys_robots_are_making_everythingand/</t>
+          <t>2012-11-17T17:14:51.813Z</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/13cv63/foxconns_first_robot_is_here/</t>
         </is>
       </c>
     </row>
@@ -8499,12 +10869,17 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>What can you use robotic arms for?</t>
+          <t>Question on KAREL and Roboguide</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/quhtqc/im_giving_robotics_lessons_to_kids_512_years_any/</t>
+          <t>2022-02-11T16:49:10.663Z</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/sq3t9f/passing_ethernetusb_through_a_robot/</t>
         </is>
       </c>
     </row>
@@ -8516,12 +10891,17 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Industrial Robotic Arm Programming.</t>
+          <t>I'm a college student who wants to work on the business end of robotics. What should I major in and how should I spend my time?</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/5u8y97/what_can_you_use_robotic_arms_for/</t>
+          <t>2020-12-28T22:57:06.040Z</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/km15d3/question_on_karel_and_roboguide/</t>
         </is>
       </c>
     </row>
@@ -8533,12 +10913,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Hobbyist robot to learn how to program industrial ones</t>
+          <t>Where to find customers for industrial robots, integration services?</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/ki3y59/industrial_robotic_arm_programming/</t>
+          <t>2014-08-19T17:15:37.845Z</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/2dzzl8/im_a_college_student_who_wants_to_work_on_the/</t>
         </is>
       </c>
     </row>
@@ -8550,12 +10935,17 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>*need advice* student looking to order ~$10K of robotics components for a college</t>
+          <t>Why Isn't Robotics as Advanced as Web Development?</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/aco4qd/hobbyist_robot_to_learn_how_to_program_industrial/</t>
+          <t>2018-10-16T21:56:55.706Z</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9os8ee/where_to_find_customers_for_industrial_robots/</t>
         </is>
       </c>
     </row>
@@ -8567,12 +10957,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>[Question] What is the most commonly used brand of Industrial Robots in the United States?</t>
+          <t>This Company’s Robots Are Making Everything—and Reshaping the World</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/qht13e/need_advice_student_looking_to_order_10k_of/</t>
+          <t>2024-09-04T07:58:18.453Z</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1f8now8/why_isnt_robotics_as_advanced_as_web_development/</t>
         </is>
       </c>
     </row>
@@ -8584,12 +10979,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Devlog 3rd, 4th and 5th Axis (6DOF)</t>
+          <t>[Advice] Looking to switch career paths to robotics</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/55szcq/question_what_is_the_most_commonly_used_brand_of/</t>
+          <t>2017-10-18T17:07:21.119Z</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/777zty/this_companys_robots_are_making_everythingand/</t>
         </is>
       </c>
     </row>
@@ -8601,12 +11001,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>New guy needs help</t>
+          <t>What can you use robotic arms for?</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16zrbdx/devlog_3rd_4th_and_5th_axis_6dof/</t>
+          <t>2019-01-31T00:48:24.678Z</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/aljt3h/advice_looking_to_switch_career_paths_to_robotics/</t>
         </is>
       </c>
     </row>
@@ -8618,12 +11023,17 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>KUKA 6-Axis Robot Arm Capabilities</t>
+          <t>Have you developed and deployed an actual robotic system? What surprising insights did you gain in contrast to student/hobbyist robotic systems?</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9f16l4/new_guy_needs_help/</t>
+          <t>2017-02-15T17:40:40.898Z</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/5u8y97/what_can_you_use_robotic_arms_for/</t>
         </is>
       </c>
     </row>
@@ -8635,12 +11045,17 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Best industrial robots?</t>
+          <t>New guy needs help</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/rb0xo7/kuka_6axis_robot_arm_capabilities/</t>
+          <t>2024-03-02T18:12:57.327Z</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1b4unmz/have_you_developed_and_deployed_an_actual_robotic/</t>
         </is>
       </c>
     </row>
@@ -8652,12 +11067,17 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Anyone ever take the construct robotics software development program?</t>
+          <t>xArm – Most Cost-Effective Intuitive Industrial Robotic Arm by UFactory</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hc45fc/best_industrial_robots/</t>
+          <t>2018-09-11T20:41:31.541Z</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9f16l4/new_guy_needs_help/</t>
         </is>
       </c>
     </row>
@@ -8669,12 +11089,17 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Anyone using a 3-D printed robotic gripper?</t>
+          <t>Best industrial robots?</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/14a7hwu/anyone_ever_take_the_construct_robotics_software/</t>
+          <t>2018-10-17T13:32:33.479Z</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/9oyp26/xarm_most_costeffective_intuitive_industrial/</t>
         </is>
       </c>
     </row>
@@ -8686,12 +11111,17 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Career path for programming robots?</t>
+          <t>*need advice* student looking to order ~$10K of robotics components for a college</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/33ip9c/anyone_using_a_3d_printed_robotic_gripper/</t>
+          <t>2020-06-19T16:48:09.504Z</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/hc45fc/best_industrial_robots/</t>
         </is>
       </c>
     </row>
@@ -8703,12 +11133,17 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Process I/O Board</t>
+          <t>Anyone using a 3-D printed robotic gripper?</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8pdyst/career_path_for_programming_robots/</t>
+          <t>2021-10-28T18:14:25.546Z</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/qht13e/need_advice_student_looking_to_order_10k_of/</t>
         </is>
       </c>
     </row>
@@ -8720,12 +11155,17 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Did I choose wrong?</t>
+          <t>I'm giving robotics lessons to kids 5-12 years. Any ideas?</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/hnco6n/process_io_board/</t>
+          <t>2015-04-22T21:02:04.148Z</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/33ip9c/anyone_using_a_3d_printed_robotic_gripper/</t>
         </is>
       </c>
     </row>
@@ -8737,12 +11177,17 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Language Between Brands</t>
+          <t>Process I/O Board</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1fgmmcb/did_i_choose_wrong/</t>
+          <t>2021-11-15T14:36:04.080Z</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/quhtqc/im_giving_robotics_lessons_to_kids_512_years_any/</t>
         </is>
       </c>
     </row>
@@ -8754,12 +11199,17 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Tipsy Robot Bar in Las Vegas</t>
+          <t>Multi-physics engine simulation</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gyobnf/language_between_brands/</t>
+          <t>2020-07-08T07:27:58.602Z</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/hnco6n/process_io_board/</t>
         </is>
       </c>
     </row>
@@ -8771,12 +11221,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Panasonic Robotic Welder</t>
+          <t>Robotics in Colorado?</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9011d9/tipsy_robot_bar_in_las_vegas/</t>
+          <t>2024-07-09T11:53:52.704Z</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1dz0hst/multiphysics_engine_simulation/</t>
         </is>
       </c>
     </row>
@@ -8788,12 +11243,17 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Looking to buy a robotic arm</t>
+          <t>What about Optimus is so expensive?</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/fwudbd/panasonic_robotic_welder/</t>
+          <t>2014-02-03T00:00:44.177Z</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1wuit3/robotics_in_colorado/</t>
         </is>
       </c>
     </row>
@@ -8805,12 +11265,17 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Robotics in Colorado?</t>
+          <t>Language Between Brands</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sl0mrj/looking_to_buy_a_robotic_arm/</t>
+          <t>2024-11-17T07:05:38.425Z</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/1gt81x9/what_about_optimus_is_so_expensive/</t>
         </is>
       </c>
     </row>
@@ -8822,12 +11287,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Please help with ABB IRB6600</t>
+          <t>Best Joint Torque Controlled Cobot Manipulators?</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1wuit3/robotics_in_colorado/</t>
+          <t>2020-06-08T00:27:23.647Z</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/gyobnf/language_between_brands/</t>
         </is>
       </c>
     </row>
@@ -8839,12 +11309,17 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Robotic Engineering</t>
+          <t>Panasonic Robotic Welder</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/197xmv3/please_help_with_abb_irb6600/</t>
+          <t>2023-10-30T00:57:11.707Z</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/17jhiar/best_joint_torque_controlled_cobot_manipulators/</t>
         </is>
       </c>
     </row>
@@ -8856,12 +11331,17 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Robots Operating Fablabs To Make More Robots?</t>
+          <t>Plumbing robot</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8imud7/robotic_engineering/</t>
+          <t>2020-04-07T22:39:26.664Z</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/fwudbd/panasonic_robotic_welder/</t>
         </is>
       </c>
     </row>
